--- a/Bibsam_tidskriftslistor/scifree_data_springernature_fullyoa.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_springernature_fullyoa.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="1673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3454" uniqueCount="1667">
   <si>
     <t>Open</t>
   </si>
@@ -2503,24 +2503,6 @@
   </si>
   <si>
     <t>https://springer.com/13052</t>
-  </si>
-  <si>
-    <t>2520-1786</t>
-  </si>
-  <si>
-    <t>IZA Journal of Development and Migration</t>
-  </si>
-  <si>
-    <t>2193-8997</t>
-  </si>
-  <si>
-    <t>IZA Journal of Labor Economics</t>
-  </si>
-  <si>
-    <t>2193-9004</t>
-  </si>
-  <si>
-    <t>IZA Journal of Labor Policy</t>
   </si>
   <si>
     <t>2363-9024</t>
@@ -5088,67 +5070,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -5180,8 +5102,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G602" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:G602"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G599" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G599"/>
   <sortState ref="A2:G602">
     <sortCondition ref="D1:D602"/>
   </sortState>
@@ -5461,7 +5383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G602"/>
+  <dimension ref="A1:G599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5516,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5536,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5544,16 +5466,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="D4" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -5573,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -5593,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -5613,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -5633,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -5653,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -5661,16 +5583,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="D10" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -5678,19 +5600,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="D11" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="E11" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -5710,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5718,16 +5640,16 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="D13" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -5747,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -5755,16 +5677,16 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="D15" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -5772,19 +5694,19 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="D16" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="E16" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -5804,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -5824,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -5844,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -5852,16 +5774,16 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="D20" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="F20" t="s">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -5881,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -5901,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -5921,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -5941,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -5961,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -5981,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -6001,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -6021,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -6041,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -6049,19 +5971,19 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="D30" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
       <c r="E30" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="F30" t="s">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -6069,16 +5991,16 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="D31" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="F31" t="s">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -6098,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -6118,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -6138,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -6146,16 +6068,16 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="D35" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="F35" t="s">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -6163,16 +6085,16 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="D36" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="F36" t="s">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -6192,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -6200,19 +6122,19 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="D38" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="E38" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="F38" t="s">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -6220,19 +6142,19 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="D39" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="E39" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -6240,19 +6162,19 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="D40" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="E40" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="F40" t="s">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -6260,16 +6182,16 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="D41" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="F41" t="s">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -6289,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -6309,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -6317,16 +6239,16 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="D44" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -6334,16 +6256,16 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="D45" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="F45" t="s">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -6351,16 +6273,16 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="D46" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="F46" t="s">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -6380,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -6400,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -6420,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -6440,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -6448,16 +6370,16 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="D51" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="F51" t="s">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -6477,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -6497,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -6517,7 +6439,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -6525,16 +6447,16 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="D55" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="F55" t="s">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -6554,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -6574,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -6594,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -6614,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -6634,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -6654,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -6674,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -6694,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -6714,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -6722,16 +6644,16 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="D65" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="F65" t="s">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -6751,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -6759,16 +6681,16 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="D67" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="F67" t="s">
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -6788,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -6796,16 +6718,16 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="D69" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -6825,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -6845,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -6865,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -6882,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -6902,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -6922,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -6942,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -6959,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -6979,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -6999,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -7019,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -7039,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -7059,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -7076,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -7096,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -7116,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -7136,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -7153,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -7173,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -7193,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -7213,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -7233,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -7253,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -7273,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -7293,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -7313,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -7333,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -7353,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -7373,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -7390,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -7410,7 +7332,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -7430,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -7450,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -7470,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -7487,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -7507,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -7527,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -7547,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -7567,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -7587,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -7607,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -7627,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -7647,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -7667,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -7687,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -7704,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -7724,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -7744,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -7764,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -7784,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -7804,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -7824,7 +7746,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -7841,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -7861,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -7881,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -7901,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -7921,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -7941,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -7958,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -7978,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -7998,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -8018,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -8038,7 +7960,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -8058,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -8078,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -8098,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -8118,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -8138,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -8158,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -8175,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -8195,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -8212,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -8232,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -8252,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -8272,7 +8194,7 @@
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -8292,7 +8214,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -8312,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -8332,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -8352,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -8372,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -8392,7 +8314,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -8412,7 +8334,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -8420,16 +8342,16 @@
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="D152" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="F152" t="s">
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -8437,16 +8359,16 @@
         <v>8</v>
       </c>
       <c r="B153" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="D153" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="F153" t="s">
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -8454,16 +8376,16 @@
         <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="D154" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="F154" t="s">
         <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -8483,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -8503,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -8523,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -8540,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -8560,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -8580,7 +8502,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -8600,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -8620,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -8640,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -8660,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -8680,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -8700,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -8720,7 +8642,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -8740,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -8760,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -8780,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -8800,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -8820,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="G172" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -8840,7 +8762,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -8860,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="G174" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -8880,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="G175" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -8900,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="G176" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -8920,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -8928,16 +8850,16 @@
         <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="D178" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="F178" t="s">
         <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -8957,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="G179" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -8965,16 +8887,16 @@
         <v>8</v>
       </c>
       <c r="B180" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="D180" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="F180" t="s">
         <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -8982,16 +8904,16 @@
         <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="D181" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="F181" t="s">
         <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -9011,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -9031,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -9051,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -9071,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -9088,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -9108,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -9128,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="G188" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -9136,16 +9058,16 @@
         <v>8</v>
       </c>
       <c r="B189" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="D189" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="F189" t="s">
         <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -9153,16 +9075,16 @@
         <v>9</v>
       </c>
       <c r="B190" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="D190" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="F190" t="s">
         <v>0</v>
       </c>
       <c r="G190" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -9182,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -9202,7 +9124,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -9222,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -9242,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -9262,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="G195" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -9270,19 +9192,19 @@
         <v>11</v>
       </c>
       <c r="B196" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="D196" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="E196" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="F196" t="s">
         <v>0</v>
       </c>
       <c r="G196" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -9290,19 +9212,19 @@
         <v>11</v>
       </c>
       <c r="B197" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
       <c r="D197" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="E197" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="F197" t="s">
         <v>0</v>
       </c>
       <c r="G197" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -9322,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="G198" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -9342,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="G199" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -9350,19 +9272,19 @@
         <v>9</v>
       </c>
       <c r="B200" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="D200" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="E200" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="F200" t="s">
         <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -9382,7 +9304,7 @@
         <v>0</v>
       </c>
       <c r="G201" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -9402,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="G202" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -9422,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="G203" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -9430,16 +9352,16 @@
         <v>9</v>
       </c>
       <c r="B204" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="D204" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="F204" t="s">
         <v>0</v>
       </c>
       <c r="G204" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -9459,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -9479,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -9499,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -9519,7 +9441,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -9539,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -9559,7 +9481,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -9567,16 +9489,16 @@
         <v>9</v>
       </c>
       <c r="B211" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="D211" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="F211" t="s">
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -9584,16 +9506,16 @@
         <v>9</v>
       </c>
       <c r="B212" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="D212" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="F212" t="s">
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -9613,7 +9535,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -9633,7 +9555,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -9653,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -9661,19 +9583,19 @@
         <v>9</v>
       </c>
       <c r="B216" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="D216" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="E216" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="F216" t="s">
         <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -9693,7 +9615,7 @@
         <v>0</v>
       </c>
       <c r="G217" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -9701,16 +9623,16 @@
         <v>9</v>
       </c>
       <c r="B218" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="D218" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="F218" t="s">
         <v>0</v>
       </c>
       <c r="G218" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -9718,16 +9640,16 @@
         <v>9</v>
       </c>
       <c r="B219" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="D219" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="F219" t="s">
         <v>0</v>
       </c>
       <c r="G219" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -9735,16 +9657,16 @@
         <v>9</v>
       </c>
       <c r="B220" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="D220" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="F220" t="s">
         <v>0</v>
       </c>
       <c r="G220" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -9752,16 +9674,16 @@
         <v>9</v>
       </c>
       <c r="B221" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="D221" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="F221" t="s">
         <v>0</v>
       </c>
       <c r="G221" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -9769,16 +9691,16 @@
         <v>9</v>
       </c>
       <c r="B222" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="D222" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="F222" t="s">
         <v>0</v>
       </c>
       <c r="G222" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -9786,16 +9708,16 @@
         <v>9</v>
       </c>
       <c r="B223" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="D223" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="F223" t="s">
         <v>0</v>
       </c>
       <c r="G223" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -9803,16 +9725,16 @@
         <v>9</v>
       </c>
       <c r="B224" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="D224" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="F224" t="s">
         <v>0</v>
       </c>
       <c r="G224" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -9820,16 +9742,16 @@
         <v>9</v>
       </c>
       <c r="B225" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="D225" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="F225" t="s">
         <v>0</v>
       </c>
       <c r="G225" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -9849,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="G226" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -9869,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="G227" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -9889,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -9909,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="G229" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -9917,16 +9839,16 @@
         <v>9</v>
       </c>
       <c r="B230" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="D230" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="F230" t="s">
         <v>0</v>
       </c>
       <c r="G230" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -9946,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="G231" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -9954,19 +9876,19 @@
         <v>9</v>
       </c>
       <c r="B232" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="D232" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="E232" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="F232" t="s">
         <v>0</v>
       </c>
       <c r="G232" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -9986,7 +9908,7 @@
         <v>0</v>
       </c>
       <c r="G233" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -10006,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="G234" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -10026,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="G235" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -10046,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="G236" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -10054,19 +9976,19 @@
         <v>8</v>
       </c>
       <c r="B237" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="D237" t="s">
         <v>561</v>
       </c>
       <c r="E237" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="F237" t="s">
         <v>0</v>
       </c>
       <c r="G237" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -10086,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="G238" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -10106,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="G239" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -10126,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="G240" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -10146,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="G241" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -10166,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="G242" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -10186,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="G243" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -10206,7 +10128,7 @@
         <v>0</v>
       </c>
       <c r="G244" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -10226,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="G245" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -10243,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="G246" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -10263,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="G247" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -10283,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="G248" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -10303,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="G249" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -10323,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="G250" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -10343,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="G251" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -10363,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="G252" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -10383,7 +10305,7 @@
         <v>0</v>
       </c>
       <c r="G253" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -10403,7 +10325,7 @@
         <v>0</v>
       </c>
       <c r="G254" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -10423,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="G255" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -10443,7 +10365,7 @@
         <v>0</v>
       </c>
       <c r="G256" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -10463,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="G257" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -10483,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="G258" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -10503,7 +10425,7 @@
         <v>0</v>
       </c>
       <c r="G259" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -10523,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="G260" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -10531,16 +10453,16 @@
         <v>8</v>
       </c>
       <c r="B261" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="D261" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="F261" t="s">
         <v>0</v>
       </c>
       <c r="G261" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -10548,16 +10470,16 @@
         <v>8</v>
       </c>
       <c r="B262" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="D262" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="F262" t="s">
         <v>0</v>
       </c>
       <c r="G262" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -10577,7 +10499,7 @@
         <v>0</v>
       </c>
       <c r="G263" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -10597,7 +10519,7 @@
         <v>0</v>
       </c>
       <c r="G264" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -10605,16 +10527,16 @@
         <v>9</v>
       </c>
       <c r="B265" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="D265" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="F265" t="s">
         <v>0</v>
       </c>
       <c r="G265" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -10634,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="G266" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -10654,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="G267" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -10674,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="G268" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -10694,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="G269" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -10702,16 +10624,16 @@
         <v>8</v>
       </c>
       <c r="B270" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="D270" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="F270" t="s">
         <v>0</v>
       </c>
       <c r="G270" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -10719,16 +10641,16 @@
         <v>9</v>
       </c>
       <c r="B271" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="D271" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="F271" t="s">
         <v>0</v>
       </c>
       <c r="G271" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -10736,16 +10658,16 @@
         <v>9</v>
       </c>
       <c r="B272" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="D272" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="F272" t="s">
         <v>0</v>
       </c>
       <c r="G272" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -10765,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="G273" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -10773,16 +10695,16 @@
         <v>9</v>
       </c>
       <c r="B274" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="D274" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="F274" t="s">
         <v>0</v>
       </c>
       <c r="G274" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -10802,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="G275" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -10810,16 +10732,16 @@
         <v>9</v>
       </c>
       <c r="B276" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="D276" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="F276" t="s">
         <v>0</v>
       </c>
       <c r="G276" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -10839,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="G277" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -10847,16 +10769,16 @@
         <v>9</v>
       </c>
       <c r="B278" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="D278" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="F278" t="s">
         <v>0</v>
       </c>
       <c r="G278" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -10864,16 +10786,16 @@
         <v>9</v>
       </c>
       <c r="B279" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="D279" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="F279" t="s">
         <v>0</v>
       </c>
       <c r="G279" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -10893,7 +10815,7 @@
         <v>0</v>
       </c>
       <c r="G280" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -10913,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="G281" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -10933,7 +10855,7 @@
         <v>0</v>
       </c>
       <c r="G282" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -10953,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="G283" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -10973,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="G284" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -10993,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="G285" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -11013,7 +10935,7 @@
         <v>0</v>
       </c>
       <c r="G286" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -11021,16 +10943,16 @@
         <v>9</v>
       </c>
       <c r="B287" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="D287" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="F287" t="s">
         <v>0</v>
       </c>
       <c r="G287" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -11050,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="G288" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -11070,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="G289" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -11078,16 +11000,16 @@
         <v>8</v>
       </c>
       <c r="B290" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="D290" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="F290" t="s">
         <v>0</v>
       </c>
       <c r="G290" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -11107,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="G291" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -11127,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="G292" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -11147,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="G293" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
@@ -11167,7 +11089,7 @@
         <v>0</v>
       </c>
       <c r="G294" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
@@ -11187,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="G295" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -11207,7 +11129,7 @@
         <v>0</v>
       </c>
       <c r="G296" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -11227,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="G297" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -11247,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="G298" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
@@ -11267,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="G299" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -11275,16 +11197,16 @@
         <v>8</v>
       </c>
       <c r="B300" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="D300" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="F300" t="s">
         <v>0</v>
       </c>
       <c r="G300" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
@@ -11304,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="G301" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
@@ -11324,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="G302" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
@@ -11344,7 +11266,7 @@
         <v>0</v>
       </c>
       <c r="G303" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
@@ -11364,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="G304" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -11384,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="G305" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
@@ -11404,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="G306" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
@@ -11424,7 +11346,7 @@
         <v>0</v>
       </c>
       <c r="G307" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
@@ -11444,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="G308" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
@@ -11464,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="G309" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -11484,7 +11406,7 @@
         <v>0</v>
       </c>
       <c r="G310" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -11504,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="G311" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -11524,7 +11446,7 @@
         <v>0</v>
       </c>
       <c r="G312" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
@@ -11544,7 +11466,7 @@
         <v>0</v>
       </c>
       <c r="G313" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
@@ -11564,7 +11486,7 @@
         <v>0</v>
       </c>
       <c r="G314" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
@@ -11584,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="G315" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -11604,7 +11526,7 @@
         <v>0</v>
       </c>
       <c r="G316" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
@@ -11624,7 +11546,7 @@
         <v>0</v>
       </c>
       <c r="G317" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -11644,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="G318" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -11664,7 +11586,7 @@
         <v>0</v>
       </c>
       <c r="G319" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
@@ -11672,16 +11594,16 @@
         <v>9</v>
       </c>
       <c r="B320" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="D320" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="F320" t="s">
         <v>0</v>
       </c>
       <c r="G320" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -11701,7 +11623,7 @@
         <v>0</v>
       </c>
       <c r="G321" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -11721,7 +11643,7 @@
         <v>0</v>
       </c>
       <c r="G322" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
@@ -11741,7 +11663,7 @@
         <v>0</v>
       </c>
       <c r="G323" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -11749,16 +11671,16 @@
         <v>9</v>
       </c>
       <c r="B324" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="D324" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="F324" t="s">
         <v>0</v>
       </c>
       <c r="G324" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -11766,16 +11688,16 @@
         <v>9</v>
       </c>
       <c r="B325" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="D325" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="F325" t="s">
         <v>0</v>
       </c>
       <c r="G325" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -11783,16 +11705,16 @@
         <v>8</v>
       </c>
       <c r="B326" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="D326" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="F326" t="s">
         <v>0</v>
       </c>
       <c r="G326" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
@@ -11812,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="G327" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
@@ -11832,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="G328" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
@@ -11840,16 +11762,16 @@
         <v>9</v>
       </c>
       <c r="B329" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="D329" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="F329" t="s">
         <v>0</v>
       </c>
       <c r="G329" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
@@ -11857,16 +11779,16 @@
         <v>9</v>
       </c>
       <c r="B330" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="D330" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="F330" t="s">
         <v>0</v>
       </c>
       <c r="G330" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -11886,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="G331" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -11906,7 +11828,7 @@
         <v>0</v>
       </c>
       <c r="G332" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
@@ -11914,16 +11836,16 @@
         <v>9</v>
       </c>
       <c r="B333" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="D333" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="F333" t="s">
         <v>0</v>
       </c>
       <c r="G333" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
@@ -11931,16 +11853,16 @@
         <v>9</v>
       </c>
       <c r="B334" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="D334" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="F334" t="s">
         <v>0</v>
       </c>
       <c r="G334" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
@@ -11960,7 +11882,7 @@
         <v>0</v>
       </c>
       <c r="G335" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
@@ -11968,16 +11890,16 @@
         <v>9</v>
       </c>
       <c r="B336" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="D336" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="F336" t="s">
         <v>0</v>
       </c>
       <c r="G336" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -11997,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="G337" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
@@ -12005,19 +11927,19 @@
         <v>9</v>
       </c>
       <c r="B338" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="D338" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="E338" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="F338" t="s">
         <v>0</v>
       </c>
       <c r="G338" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
@@ -12037,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="G339" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
@@ -12045,16 +11967,16 @@
         <v>9</v>
       </c>
       <c r="B340" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="D340" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="F340" t="s">
         <v>0</v>
       </c>
       <c r="G340" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
@@ -12062,16 +11984,16 @@
         <v>9</v>
       </c>
       <c r="B341" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="D341" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="F341" t="s">
         <v>0</v>
       </c>
       <c r="G341" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
@@ -12091,7 +12013,7 @@
         <v>0</v>
       </c>
       <c r="G342" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
@@ -12111,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="G343" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
@@ -12131,7 +12053,7 @@
         <v>0</v>
       </c>
       <c r="G344" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -12151,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="G345" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
@@ -12171,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="G346" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
@@ -12179,16 +12101,16 @@
         <v>9</v>
       </c>
       <c r="B347" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="D347" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="F347" t="s">
         <v>0</v>
       </c>
       <c r="G347" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
@@ -12208,7 +12130,7 @@
         <v>0</v>
       </c>
       <c r="G348" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
@@ -12228,7 +12150,7 @@
         <v>0</v>
       </c>
       <c r="G349" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
@@ -12236,16 +12158,16 @@
         <v>9</v>
       </c>
       <c r="B350" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="D350" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="F350" t="s">
         <v>0</v>
       </c>
       <c r="G350" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -12265,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="G351" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
@@ -12285,7 +12207,7 @@
         <v>0</v>
       </c>
       <c r="G352" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
@@ -12293,16 +12215,16 @@
         <v>8</v>
       </c>
       <c r="B353" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="D353" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="F353" t="s">
         <v>0</v>
       </c>
       <c r="G353" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
@@ -12322,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="G354" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
@@ -12335,28 +12257,31 @@
       <c r="D355" t="s">
         <v>829</v>
       </c>
+      <c r="E355" t="s">
+        <v>830</v>
+      </c>
       <c r="F355" t="s">
         <v>0</v>
       </c>
       <c r="G355" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B356" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D356" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F356" t="s">
         <v>0</v>
       </c>
       <c r="G356" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -12364,16 +12289,16 @@
         <v>9</v>
       </c>
       <c r="B357" t="s">
-        <v>832</v>
+        <v>1501</v>
       </c>
       <c r="D357" t="s">
-        <v>833</v>
+        <v>1502</v>
       </c>
       <c r="F357" t="s">
         <v>0</v>
       </c>
       <c r="G357" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
@@ -12381,70 +12306,73 @@
         <v>9</v>
       </c>
       <c r="B358" t="s">
-        <v>834</v>
+        <v>1503</v>
       </c>
       <c r="D358" t="s">
-        <v>835</v>
-      </c>
-      <c r="E358" t="s">
-        <v>836</v>
+        <v>1504</v>
       </c>
       <c r="F358" t="s">
         <v>0</v>
       </c>
       <c r="G358" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B359" t="s">
-        <v>837</v>
+        <v>1505</v>
       </c>
       <c r="D359" t="s">
-        <v>838</v>
+        <v>1506</v>
       </c>
       <c r="F359" t="s">
         <v>0</v>
       </c>
       <c r="G359" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B360" t="s">
-        <v>1507</v>
+        <v>833</v>
       </c>
       <c r="D360" t="s">
-        <v>1508</v>
+        <v>834</v>
+      </c>
+      <c r="E360" t="s">
+        <v>835</v>
       </c>
       <c r="F360" t="s">
         <v>0</v>
       </c>
       <c r="G360" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B361" t="s">
-        <v>1509</v>
+        <v>836</v>
       </c>
       <c r="D361" t="s">
-        <v>1510</v>
+        <v>837</v>
+      </c>
+      <c r="E361" t="s">
+        <v>838</v>
       </c>
       <c r="F361" t="s">
         <v>0</v>
       </c>
       <c r="G361" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
@@ -12452,16 +12380,19 @@
         <v>9</v>
       </c>
       <c r="B362" t="s">
-        <v>1511</v>
+        <v>839</v>
       </c>
       <c r="D362" t="s">
-        <v>1512</v>
+        <v>840</v>
+      </c>
+      <c r="E362" t="s">
+        <v>841</v>
       </c>
       <c r="F362" t="s">
         <v>0</v>
       </c>
       <c r="G362" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
@@ -12469,19 +12400,19 @@
         <v>8</v>
       </c>
       <c r="B363" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="D363" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="E363" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="F363" t="s">
         <v>0</v>
       </c>
       <c r="G363" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
@@ -12489,39 +12420,36 @@
         <v>8</v>
       </c>
       <c r="B364" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="D364" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="E364" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="F364" t="s">
         <v>0</v>
       </c>
       <c r="G364" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B365" t="s">
-        <v>845</v>
+        <v>1507</v>
       </c>
       <c r="D365" t="s">
-        <v>846</v>
-      </c>
-      <c r="E365" t="s">
-        <v>847</v>
+        <v>1508</v>
       </c>
       <c r="F365" t="s">
         <v>0</v>
       </c>
       <c r="G365" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
@@ -12541,7 +12469,7 @@
         <v>0</v>
       </c>
       <c r="G366" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -12549,19 +12477,16 @@
         <v>8</v>
       </c>
       <c r="B367" t="s">
-        <v>851</v>
+        <v>1509</v>
       </c>
       <c r="D367" t="s">
-        <v>852</v>
-      </c>
-      <c r="E367" t="s">
-        <v>853</v>
+        <v>1510</v>
       </c>
       <c r="F367" t="s">
         <v>0</v>
       </c>
       <c r="G367" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
@@ -12569,16 +12494,19 @@
         <v>8</v>
       </c>
       <c r="B368" t="s">
-        <v>1513</v>
+        <v>851</v>
       </c>
       <c r="D368" t="s">
-        <v>1514</v>
+        <v>852</v>
+      </c>
+      <c r="E368" t="s">
+        <v>853</v>
       </c>
       <c r="F368" t="s">
         <v>0</v>
       </c>
       <c r="G368" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
@@ -12598,7 +12526,7 @@
         <v>0</v>
       </c>
       <c r="G369" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
@@ -12606,16 +12534,19 @@
         <v>8</v>
       </c>
       <c r="B370" t="s">
-        <v>1515</v>
+        <v>857</v>
       </c>
       <c r="D370" t="s">
-        <v>1516</v>
+        <v>858</v>
+      </c>
+      <c r="E370" t="s">
+        <v>859</v>
       </c>
       <c r="F370" t="s">
         <v>0</v>
       </c>
       <c r="G370" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
@@ -12623,39 +12554,39 @@
         <v>8</v>
       </c>
       <c r="B371" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D371" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="E371" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="F371" t="s">
         <v>0</v>
       </c>
       <c r="G371" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B372" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="D372" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="E372" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="F372" t="s">
         <v>0</v>
       </c>
       <c r="G372" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
@@ -12663,19 +12594,19 @@
         <v>8</v>
       </c>
       <c r="B373" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="D373" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="E373" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="F373" t="s">
         <v>0</v>
       </c>
       <c r="G373" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
@@ -12683,24 +12614,21 @@
         <v>8</v>
       </c>
       <c r="B374" t="s">
-        <v>866</v>
+        <v>1511</v>
       </c>
       <c r="D374" t="s">
-        <v>867</v>
-      </c>
-      <c r="E374" t="s">
-        <v>868</v>
+        <v>1512</v>
       </c>
       <c r="F374" t="s">
         <v>0</v>
       </c>
       <c r="G374" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B375" t="s">
         <v>869</v>
@@ -12715,7 +12643,7 @@
         <v>0</v>
       </c>
       <c r="G375" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
@@ -12735,44 +12663,41 @@
         <v>0</v>
       </c>
       <c r="G376" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B377" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="D377" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="F377" t="s">
         <v>0</v>
       </c>
       <c r="G377" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B378" t="s">
-        <v>875</v>
+        <v>1515</v>
       </c>
       <c r="D378" t="s">
-        <v>876</v>
-      </c>
-      <c r="E378" t="s">
-        <v>877</v>
+        <v>1516</v>
       </c>
       <c r="F378" t="s">
         <v>0</v>
       </c>
       <c r="G378" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
@@ -12780,70 +12705,76 @@
         <v>8</v>
       </c>
       <c r="B379" t="s">
-        <v>878</v>
+        <v>1517</v>
       </c>
       <c r="D379" t="s">
-        <v>879</v>
-      </c>
-      <c r="E379" t="s">
-        <v>880</v>
+        <v>1518</v>
       </c>
       <c r="F379" t="s">
         <v>0</v>
       </c>
       <c r="G379" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B380" t="s">
-        <v>1519</v>
+        <v>875</v>
       </c>
       <c r="D380" t="s">
-        <v>1520</v>
+        <v>876</v>
+      </c>
+      <c r="E380" t="s">
+        <v>877</v>
       </c>
       <c r="F380" t="s">
         <v>0</v>
       </c>
       <c r="G380" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B381" t="s">
-        <v>1521</v>
+        <v>878</v>
       </c>
       <c r="D381" t="s">
-        <v>1522</v>
+        <v>879</v>
+      </c>
+      <c r="E381" t="s">
+        <v>880</v>
       </c>
       <c r="F381" t="s">
         <v>0</v>
       </c>
       <c r="G381" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B382" t="s">
-        <v>1523</v>
+        <v>881</v>
       </c>
       <c r="D382" t="s">
-        <v>1524</v>
+        <v>882</v>
+      </c>
+      <c r="E382" t="s">
+        <v>883</v>
       </c>
       <c r="F382" t="s">
         <v>0</v>
       </c>
       <c r="G382" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
@@ -12851,39 +12782,36 @@
         <v>8</v>
       </c>
       <c r="B383" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="D383" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="E383" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="F383" t="s">
         <v>0</v>
       </c>
       <c r="G383" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B384" t="s">
-        <v>884</v>
+        <v>1519</v>
       </c>
       <c r="D384" t="s">
-        <v>885</v>
-      </c>
-      <c r="E384" t="s">
-        <v>886</v>
+        <v>1520</v>
       </c>
       <c r="F384" t="s">
         <v>0</v>
       </c>
       <c r="G384" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
@@ -12891,19 +12819,16 @@
         <v>9</v>
       </c>
       <c r="B385" t="s">
-        <v>887</v>
+        <v>1521</v>
       </c>
       <c r="D385" t="s">
-        <v>888</v>
-      </c>
-      <c r="E385" t="s">
-        <v>889</v>
+        <v>1522</v>
       </c>
       <c r="F385" t="s">
         <v>0</v>
       </c>
       <c r="G385" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
@@ -12911,36 +12836,39 @@
         <v>8</v>
       </c>
       <c r="B386" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D386" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E386" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="F386" t="s">
         <v>0</v>
       </c>
       <c r="G386" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B387" t="s">
-        <v>1525</v>
+        <v>890</v>
       </c>
       <c r="D387" t="s">
-        <v>1526</v>
+        <v>891</v>
+      </c>
+      <c r="E387" t="s">
+        <v>892</v>
       </c>
       <c r="F387" t="s">
         <v>0</v>
       </c>
       <c r="G387" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
@@ -12948,21 +12876,21 @@
         <v>9</v>
       </c>
       <c r="B388" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="D388" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="F388" t="s">
         <v>0</v>
       </c>
       <c r="G388" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B389" t="s">
         <v>893</v>
@@ -12977,7 +12905,7 @@
         <v>0</v>
       </c>
       <c r="G389" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
@@ -12997,7 +12925,7 @@
         <v>0</v>
       </c>
       <c r="G390" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
@@ -13005,16 +12933,19 @@
         <v>9</v>
       </c>
       <c r="B391" t="s">
-        <v>1529</v>
+        <v>899</v>
       </c>
       <c r="D391" t="s">
-        <v>1530</v>
+        <v>900</v>
+      </c>
+      <c r="E391" t="s">
+        <v>901</v>
       </c>
       <c r="F391" t="s">
         <v>0</v>
       </c>
       <c r="G391" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
@@ -13022,19 +12953,19 @@
         <v>9</v>
       </c>
       <c r="B392" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="D392" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="E392" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="F392" t="s">
         <v>0</v>
       </c>
       <c r="G392" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
@@ -13042,19 +12973,16 @@
         <v>8</v>
       </c>
       <c r="B393" t="s">
-        <v>902</v>
+        <v>1525</v>
       </c>
       <c r="D393" t="s">
-        <v>903</v>
-      </c>
-      <c r="E393" t="s">
-        <v>904</v>
+        <v>1526</v>
       </c>
       <c r="F393" t="s">
         <v>0</v>
       </c>
       <c r="G393" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
@@ -13062,19 +12990,16 @@
         <v>9</v>
       </c>
       <c r="B394" t="s">
-        <v>905</v>
+        <v>1527</v>
       </c>
       <c r="D394" t="s">
-        <v>906</v>
-      </c>
-      <c r="E394" t="s">
-        <v>907</v>
+        <v>1528</v>
       </c>
       <c r="F394" t="s">
         <v>0</v>
       </c>
       <c r="G394" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
@@ -13082,36 +13007,36 @@
         <v>9</v>
       </c>
       <c r="B395" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D395" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E395" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="F395" t="s">
         <v>0</v>
       </c>
       <c r="G395" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B396" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="D396" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="F396" t="s">
         <v>0</v>
       </c>
       <c r="G396" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
@@ -13119,21 +13044,24 @@
         <v>9</v>
       </c>
       <c r="B397" t="s">
-        <v>1533</v>
+        <v>908</v>
       </c>
       <c r="D397" t="s">
-        <v>1534</v>
+        <v>909</v>
+      </c>
+      <c r="E397" t="s">
+        <v>910</v>
       </c>
       <c r="F397" t="s">
         <v>0</v>
       </c>
       <c r="G397" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B398" t="s">
         <v>911</v>
@@ -13148,7 +13076,7 @@
         <v>0</v>
       </c>
       <c r="G398" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
@@ -13156,16 +13084,16 @@
         <v>9</v>
       </c>
       <c r="B399" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="D399" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="F399" t="s">
         <v>0</v>
       </c>
       <c r="G399" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
@@ -13173,19 +13101,16 @@
         <v>9</v>
       </c>
       <c r="B400" t="s">
-        <v>914</v>
+        <v>1533</v>
       </c>
       <c r="D400" t="s">
-        <v>915</v>
-      </c>
-      <c r="E400" t="s">
-        <v>916</v>
+        <v>1534</v>
       </c>
       <c r="F400" t="s">
         <v>0</v>
       </c>
       <c r="G400" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
@@ -13193,19 +13118,19 @@
         <v>8</v>
       </c>
       <c r="B401" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D401" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E401" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="F401" t="s">
         <v>0</v>
       </c>
       <c r="G401" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
@@ -13213,33 +13138,36 @@
         <v>9</v>
       </c>
       <c r="B402" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="D402" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="F402" t="s">
         <v>0</v>
       </c>
       <c r="G402" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B403" t="s">
-        <v>1539</v>
+        <v>917</v>
       </c>
       <c r="D403" t="s">
-        <v>1540</v>
+        <v>918</v>
+      </c>
+      <c r="E403" t="s">
+        <v>919</v>
       </c>
       <c r="F403" t="s">
         <v>0</v>
       </c>
       <c r="G403" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
@@ -13259,24 +13187,27 @@
         <v>0</v>
       </c>
       <c r="G404" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B405" t="s">
-        <v>1541</v>
+        <v>923</v>
       </c>
       <c r="D405" t="s">
-        <v>1542</v>
+        <v>924</v>
+      </c>
+      <c r="E405" t="s">
+        <v>925</v>
       </c>
       <c r="F405" t="s">
         <v>0</v>
       </c>
       <c r="G405" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
@@ -13284,59 +13215,56 @@
         <v>8</v>
       </c>
       <c r="B406" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="D406" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="E406" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="F406" t="s">
         <v>0</v>
       </c>
       <c r="G406" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B407" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="D407" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="E407" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="F407" t="s">
         <v>0</v>
       </c>
       <c r="G407" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B408" t="s">
-        <v>929</v>
+        <v>1537</v>
       </c>
       <c r="D408" t="s">
-        <v>930</v>
-      </c>
-      <c r="E408" t="s">
-        <v>931</v>
+        <v>1538</v>
       </c>
       <c r="F408" t="s">
         <v>0</v>
       </c>
       <c r="G408" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
@@ -13356,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="G409" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
@@ -13376,24 +13304,27 @@
         <v>0</v>
       </c>
       <c r="G410" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B411" t="s">
-        <v>1543</v>
+        <v>938</v>
       </c>
       <c r="D411" t="s">
-        <v>1544</v>
+        <v>939</v>
+      </c>
+      <c r="E411" t="s">
+        <v>940</v>
       </c>
       <c r="F411" t="s">
         <v>0</v>
       </c>
       <c r="G411" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
@@ -13401,19 +13332,19 @@
         <v>8</v>
       </c>
       <c r="B412" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="D412" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="E412" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="F412" t="s">
         <v>0</v>
       </c>
       <c r="G412" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -13421,24 +13352,21 @@
         <v>9</v>
       </c>
       <c r="B413" t="s">
-        <v>941</v>
+        <v>1539</v>
       </c>
       <c r="D413" t="s">
-        <v>942</v>
-      </c>
-      <c r="E413" t="s">
-        <v>943</v>
+        <v>1540</v>
       </c>
       <c r="F413" t="s">
         <v>0</v>
       </c>
       <c r="G413" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B414" t="s">
         <v>944</v>
@@ -13453,49 +13381,52 @@
         <v>0</v>
       </c>
       <c r="G414" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B415" t="s">
-        <v>947</v>
+        <v>1541</v>
       </c>
       <c r="D415" t="s">
-        <v>948</v>
+        <v>1542</v>
       </c>
       <c r="E415" t="s">
-        <v>949</v>
+        <v>1543</v>
       </c>
       <c r="F415" t="s">
         <v>0</v>
       </c>
       <c r="G415" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B416" t="s">
-        <v>1545</v>
+        <v>947</v>
       </c>
       <c r="D416" t="s">
-        <v>1546</v>
+        <v>948</v>
+      </c>
+      <c r="E416" t="s">
+        <v>949</v>
       </c>
       <c r="F416" t="s">
         <v>0</v>
       </c>
       <c r="G416" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B417" t="s">
         <v>950</v>
@@ -13510,87 +13441,84 @@
         <v>0</v>
       </c>
       <c r="G417" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B418" t="s">
-        <v>1547</v>
+        <v>953</v>
       </c>
       <c r="D418" t="s">
-        <v>1548</v>
+        <v>954</v>
       </c>
       <c r="E418" t="s">
-        <v>1549</v>
+        <v>955</v>
       </c>
       <c r="F418" t="s">
         <v>0</v>
       </c>
       <c r="G418" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B419" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="D419" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="E419" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="F419" t="s">
         <v>0</v>
       </c>
       <c r="G419" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B420" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="D420" t="s">
-        <v>957</v>
-      </c>
-      <c r="E420" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="F420" t="s">
         <v>0</v>
       </c>
       <c r="G420" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B421" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D421" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E421" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="F421" t="s">
         <v>0</v>
       </c>
       <c r="G421" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
@@ -13598,19 +13526,19 @@
         <v>9</v>
       </c>
       <c r="B422" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="D422" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="E422" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="F422" t="s">
         <v>0</v>
       </c>
       <c r="G422" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
@@ -13618,16 +13546,16 @@
         <v>9</v>
       </c>
       <c r="B423" t="s">
-        <v>965</v>
+        <v>1544</v>
       </c>
       <c r="D423" t="s">
-        <v>966</v>
+        <v>1545</v>
       </c>
       <c r="F423" t="s">
         <v>0</v>
       </c>
       <c r="G423" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
@@ -13635,19 +13563,16 @@
         <v>9</v>
       </c>
       <c r="B424" t="s">
-        <v>967</v>
+        <v>1546</v>
       </c>
       <c r="D424" t="s">
-        <v>968</v>
-      </c>
-      <c r="E424" t="s">
-        <v>969</v>
+        <v>1547</v>
       </c>
       <c r="F424" t="s">
         <v>0</v>
       </c>
       <c r="G424" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -13655,19 +13580,16 @@
         <v>9</v>
       </c>
       <c r="B425" t="s">
-        <v>970</v>
+        <v>1548</v>
       </c>
       <c r="D425" t="s">
-        <v>971</v>
-      </c>
-      <c r="E425" t="s">
-        <v>972</v>
+        <v>1549</v>
       </c>
       <c r="F425" t="s">
         <v>0</v>
       </c>
       <c r="G425" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
@@ -13675,33 +13597,39 @@
         <v>9</v>
       </c>
       <c r="B426" t="s">
-        <v>1550</v>
+        <v>967</v>
       </c>
       <c r="D426" t="s">
-        <v>1551</v>
+        <v>968</v>
+      </c>
+      <c r="E426" t="s">
+        <v>969</v>
       </c>
       <c r="F426" t="s">
         <v>0</v>
       </c>
       <c r="G426" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B427" t="s">
-        <v>1552</v>
+        <v>970</v>
       </c>
       <c r="D427" t="s">
-        <v>1553</v>
+        <v>971</v>
+      </c>
+      <c r="E427" t="s">
+        <v>972</v>
       </c>
       <c r="F427" t="s">
         <v>0</v>
       </c>
       <c r="G427" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
@@ -13709,21 +13637,21 @@
         <v>9</v>
       </c>
       <c r="B428" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="D428" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="F428" t="s">
         <v>0</v>
       </c>
       <c r="G428" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B429" t="s">
         <v>973</v>
@@ -13738,12 +13666,12 @@
         <v>0</v>
       </c>
       <c r="G429" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B430" t="s">
         <v>976</v>
@@ -13758,24 +13686,24 @@
         <v>0</v>
       </c>
       <c r="G430" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B431" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="D431" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="F431" t="s">
         <v>0</v>
       </c>
       <c r="G431" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -13783,19 +13711,16 @@
         <v>8</v>
       </c>
       <c r="B432" t="s">
-        <v>979</v>
+        <v>1554</v>
       </c>
       <c r="D432" t="s">
-        <v>980</v>
-      </c>
-      <c r="E432" t="s">
-        <v>981</v>
+        <v>1555</v>
       </c>
       <c r="F432" t="s">
         <v>0</v>
       </c>
       <c r="G432" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
@@ -13803,207 +13728,213 @@
         <v>9</v>
       </c>
       <c r="B433" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D433" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="E433" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F433" t="s">
         <v>0</v>
       </c>
       <c r="G433" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B434" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="D434" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="F434" t="s">
         <v>0</v>
       </c>
       <c r="G434" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B435" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="D435" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="F435" t="s">
         <v>0</v>
       </c>
       <c r="G435" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B436" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="D436" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="E436" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="F436" t="s">
         <v>0</v>
       </c>
       <c r="G436" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B437" t="s">
-        <v>1562</v>
+        <v>985</v>
       </c>
       <c r="D437" t="s">
-        <v>1563</v>
+        <v>986</v>
+      </c>
+      <c r="E437" t="s">
+        <v>987</v>
       </c>
       <c r="F437" t="s">
         <v>0</v>
       </c>
       <c r="G437" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B438" t="s">
-        <v>1564</v>
+        <v>988</v>
       </c>
       <c r="D438" t="s">
-        <v>1565</v>
+        <v>989</v>
+      </c>
+      <c r="E438" t="s">
+        <v>990</v>
       </c>
       <c r="F438" t="s">
         <v>0</v>
       </c>
       <c r="G438" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B439" t="s">
-        <v>988</v>
+        <v>1643</v>
       </c>
       <c r="D439" t="s">
-        <v>989</v>
+        <v>1632</v>
       </c>
       <c r="E439" t="s">
-        <v>990</v>
+        <v>1655</v>
       </c>
       <c r="F439" t="s">
         <v>0</v>
       </c>
       <c r="G439" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B440" t="s">
-        <v>991</v>
+        <v>1644</v>
       </c>
       <c r="D440" t="s">
-        <v>992</v>
+        <v>1633</v>
       </c>
       <c r="E440" t="s">
-        <v>993</v>
+        <v>1656</v>
       </c>
       <c r="F440" t="s">
         <v>0</v>
       </c>
       <c r="G440" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B441" t="s">
-        <v>994</v>
+        <v>1645</v>
       </c>
       <c r="D441" t="s">
-        <v>995</v>
+        <v>1634</v>
       </c>
       <c r="E441" t="s">
-        <v>996</v>
+        <v>1657</v>
       </c>
       <c r="F441" t="s">
         <v>0</v>
       </c>
       <c r="G441" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B442" t="s">
-        <v>1649</v>
+        <v>991</v>
       </c>
       <c r="D442" t="s">
-        <v>1638</v>
+        <v>992</v>
       </c>
       <c r="E442" t="s">
-        <v>1661</v>
+        <v>993</v>
       </c>
       <c r="F442" t="s">
         <v>0</v>
       </c>
       <c r="G442" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B443" t="s">
-        <v>1650</v>
+        <v>994</v>
       </c>
       <c r="D443" t="s">
-        <v>1639</v>
+        <v>995</v>
       </c>
       <c r="E443" t="s">
-        <v>1662</v>
+        <v>996</v>
       </c>
       <c r="F443" t="s">
         <v>0</v>
       </c>
       <c r="G443" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
@@ -14011,24 +13942,24 @@
         <v>9</v>
       </c>
       <c r="B444" t="s">
-        <v>1651</v>
+        <v>1560</v>
       </c>
       <c r="D444" t="s">
-        <v>1640</v>
+        <v>1561</v>
       </c>
       <c r="E444" t="s">
-        <v>1663</v>
+        <v>1562</v>
       </c>
       <c r="F444" t="s">
         <v>0</v>
       </c>
       <c r="G444" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B445" t="s">
         <v>997</v>
@@ -14043,7 +13974,7 @@
         <v>0</v>
       </c>
       <c r="G445" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
@@ -14063,7 +13994,7 @@
         <v>0</v>
       </c>
       <c r="G446" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
@@ -14071,19 +14002,16 @@
         <v>9</v>
       </c>
       <c r="B447" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="D447" t="s">
-        <v>1567</v>
-      </c>
-      <c r="E447" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="F447" t="s">
         <v>0</v>
       </c>
       <c r="G447" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
@@ -14103,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="G448" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
@@ -14123,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="G449" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
@@ -14131,16 +14059,19 @@
         <v>9</v>
       </c>
       <c r="B450" t="s">
-        <v>1569</v>
+        <v>1009</v>
       </c>
       <c r="D450" t="s">
-        <v>1570</v>
+        <v>1010</v>
+      </c>
+      <c r="E450" t="s">
+        <v>1011</v>
       </c>
       <c r="F450" t="s">
         <v>0</v>
       </c>
       <c r="G450" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
@@ -14148,19 +14079,16 @@
         <v>9</v>
       </c>
       <c r="B451" t="s">
-        <v>1009</v>
+        <v>1565</v>
       </c>
       <c r="D451" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E451" t="s">
-        <v>1011</v>
+        <v>1566</v>
       </c>
       <c r="F451" t="s">
         <v>0</v>
       </c>
       <c r="G451" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
@@ -14180,12 +14108,12 @@
         <v>0</v>
       </c>
       <c r="G452" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B453" t="s">
         <v>1015</v>
@@ -14200,101 +14128,101 @@
         <v>0</v>
       </c>
       <c r="G453" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B454" t="s">
-        <v>1571</v>
+        <v>1018</v>
       </c>
       <c r="D454" t="s">
-        <v>1572</v>
+        <v>1019</v>
+      </c>
+      <c r="E454" t="s">
+        <v>1020</v>
       </c>
       <c r="F454" t="s">
         <v>0</v>
       </c>
       <c r="G454" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B455" t="s">
-        <v>1018</v>
+        <v>1567</v>
       </c>
       <c r="D455" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E455" t="s">
-        <v>1020</v>
+        <v>1568</v>
       </c>
       <c r="F455" t="s">
         <v>0</v>
       </c>
       <c r="G455" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B456" t="s">
-        <v>1021</v>
+        <v>1569</v>
       </c>
       <c r="D456" t="s">
-        <v>1022</v>
+        <v>1570</v>
       </c>
       <c r="E456" t="s">
-        <v>1023</v>
+        <v>1571</v>
       </c>
       <c r="F456" t="s">
         <v>0</v>
       </c>
       <c r="G456" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B457" t="s">
-        <v>1024</v>
+        <v>1572</v>
       </c>
       <c r="D457" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E457" t="s">
-        <v>1026</v>
+        <v>1573</v>
       </c>
       <c r="F457" t="s">
         <v>0</v>
       </c>
       <c r="G457" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B458" t="s">
-        <v>1573</v>
+        <v>1021</v>
       </c>
       <c r="D458" t="s">
-        <v>1574</v>
+        <v>1022</v>
+      </c>
+      <c r="E458" t="s">
+        <v>1023</v>
       </c>
       <c r="F458" t="s">
         <v>0</v>
       </c>
       <c r="G458" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
@@ -14302,19 +14230,19 @@
         <v>9</v>
       </c>
       <c r="B459" t="s">
-        <v>1575</v>
+        <v>1024</v>
       </c>
       <c r="D459" t="s">
-        <v>1576</v>
+        <v>1025</v>
       </c>
       <c r="E459" t="s">
-        <v>1577</v>
+        <v>1026</v>
       </c>
       <c r="F459" t="s">
         <v>0</v>
       </c>
       <c r="G459" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
@@ -14322,16 +14250,19 @@
         <v>8</v>
       </c>
       <c r="B460" t="s">
-        <v>1578</v>
+        <v>1027</v>
       </c>
       <c r="D460" t="s">
-        <v>1579</v>
+        <v>1028</v>
+      </c>
+      <c r="E460" t="s">
+        <v>1029</v>
       </c>
       <c r="F460" t="s">
         <v>0</v>
       </c>
       <c r="G460" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
@@ -14339,39 +14270,39 @@
         <v>8</v>
       </c>
       <c r="B461" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="D461" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="E461" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="F461" t="s">
         <v>0</v>
       </c>
       <c r="G461" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B462" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="D462" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="E462" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="F462" t="s">
         <v>0</v>
       </c>
       <c r="G462" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
@@ -14379,19 +14310,19 @@
         <v>8</v>
       </c>
       <c r="B463" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="D463" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="E463" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="F463" t="s">
         <v>0</v>
       </c>
       <c r="G463" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
@@ -14399,19 +14330,19 @@
         <v>8</v>
       </c>
       <c r="B464" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="D464" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="E464" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="F464" t="s">
         <v>0</v>
       </c>
       <c r="G464" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
@@ -14419,19 +14350,19 @@
         <v>8</v>
       </c>
       <c r="B465" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="D465" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="E465" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="F465" t="s">
         <v>0</v>
       </c>
       <c r="G465" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
@@ -14439,19 +14370,19 @@
         <v>8</v>
       </c>
       <c r="B466" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="D466" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="E466" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="F466" t="s">
         <v>0</v>
       </c>
       <c r="G466" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
@@ -14459,19 +14390,16 @@
         <v>8</v>
       </c>
       <c r="B467" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="D467" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E467" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="F467" t="s">
         <v>0</v>
       </c>
       <c r="G467" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
@@ -14479,73 +14407,70 @@
         <v>8</v>
       </c>
       <c r="B468" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="D468" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E468" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="F468" t="s">
         <v>0</v>
       </c>
       <c r="G468" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B469" t="s">
-        <v>1051</v>
+        <v>1574</v>
       </c>
       <c r="D469" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E469" t="s">
-        <v>1053</v>
+        <v>1575</v>
       </c>
       <c r="F469" t="s">
         <v>0</v>
       </c>
       <c r="G469" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B470" t="s">
-        <v>1054</v>
+        <v>1576</v>
       </c>
       <c r="D470" t="s">
-        <v>1055</v>
+        <v>1577</v>
       </c>
       <c r="F470" t="s">
         <v>0</v>
       </c>
       <c r="G470" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B471" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="D471" t="s">
-        <v>1057</v>
+        <v>1053</v>
+      </c>
+      <c r="E471" t="s">
+        <v>1054</v>
       </c>
       <c r="F471" t="s">
         <v>0</v>
       </c>
       <c r="G471" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
@@ -14553,38 +14478,41 @@
         <v>9</v>
       </c>
       <c r="B472" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="D472" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="F472" t="s">
         <v>0</v>
       </c>
       <c r="G472" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B473" t="s">
-        <v>1582</v>
+        <v>1055</v>
       </c>
       <c r="D473" t="s">
-        <v>1583</v>
+        <v>1056</v>
+      </c>
+      <c r="E473" t="s">
+        <v>1057</v>
       </c>
       <c r="F473" t="s">
         <v>0</v>
       </c>
       <c r="G473" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B474" t="s">
         <v>1058</v>
@@ -14599,49 +14527,49 @@
         <v>0</v>
       </c>
       <c r="G474" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B475" t="s">
-        <v>1584</v>
+        <v>1061</v>
       </c>
       <c r="D475" t="s">
-        <v>1585</v>
+        <v>1062</v>
+      </c>
+      <c r="E475" t="s">
+        <v>1063</v>
       </c>
       <c r="F475" t="s">
         <v>0</v>
       </c>
       <c r="G475" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B476" t="s">
-        <v>1061</v>
+        <v>1580</v>
       </c>
       <c r="D476" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E476" t="s">
-        <v>1063</v>
+        <v>1581</v>
       </c>
       <c r="F476" t="s">
         <v>0</v>
       </c>
       <c r="G476" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B477" t="s">
         <v>1064</v>
@@ -14656,12 +14584,12 @@
         <v>0</v>
       </c>
       <c r="G477" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B478" t="s">
         <v>1067</v>
@@ -14676,24 +14604,27 @@
         <v>0</v>
       </c>
       <c r="G478" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B479" t="s">
-        <v>1586</v>
+        <v>1070</v>
       </c>
       <c r="D479" t="s">
-        <v>1587</v>
+        <v>1071</v>
+      </c>
+      <c r="E479" t="s">
+        <v>1072</v>
       </c>
       <c r="F479" t="s">
         <v>0</v>
       </c>
       <c r="G479" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
@@ -14701,19 +14632,19 @@
         <v>11</v>
       </c>
       <c r="B480" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="D480" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="E480" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="F480" t="s">
         <v>0</v>
       </c>
       <c r="G480" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
@@ -14721,19 +14652,19 @@
         <v>11</v>
       </c>
       <c r="B481" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="D481" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="E481" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="F481" t="s">
         <v>0</v>
       </c>
       <c r="G481" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
@@ -14741,19 +14672,19 @@
         <v>11</v>
       </c>
       <c r="B482" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="D482" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="E482" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="F482" t="s">
         <v>0</v>
       </c>
       <c r="G482" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
@@ -14761,19 +14692,19 @@
         <v>11</v>
       </c>
       <c r="B483" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="D483" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="E483" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="F483" t="s">
         <v>0</v>
       </c>
       <c r="G483" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
@@ -14781,19 +14712,19 @@
         <v>11</v>
       </c>
       <c r="B484" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="D484" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="E484" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="F484" t="s">
         <v>0</v>
       </c>
       <c r="G484" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
@@ -14801,19 +14732,19 @@
         <v>11</v>
       </c>
       <c r="B485" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="D485" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="E485" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="F485" t="s">
         <v>0</v>
       </c>
       <c r="G485" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
@@ -14821,19 +14752,19 @@
         <v>11</v>
       </c>
       <c r="B486" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="D486" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="E486" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="F486" t="s">
         <v>0</v>
       </c>
       <c r="G486" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
@@ -14841,19 +14772,19 @@
         <v>11</v>
       </c>
       <c r="B487" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="D487" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="E487" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="F487" t="s">
         <v>0</v>
       </c>
       <c r="G487" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
@@ -14861,19 +14792,19 @@
         <v>11</v>
       </c>
       <c r="B488" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="D488" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="E488" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="F488" t="s">
         <v>0</v>
       </c>
       <c r="G488" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
@@ -14881,19 +14812,19 @@
         <v>11</v>
       </c>
       <c r="B489" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="D489" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="E489" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="F489" t="s">
         <v>0</v>
       </c>
       <c r="G489" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
@@ -14901,19 +14832,19 @@
         <v>11</v>
       </c>
       <c r="B490" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="D490" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="E490" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="F490" t="s">
         <v>0</v>
       </c>
       <c r="G490" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
@@ -14921,19 +14852,19 @@
         <v>11</v>
       </c>
       <c r="B491" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="D491" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="E491" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="F491" t="s">
         <v>0</v>
       </c>
       <c r="G491" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
@@ -14941,19 +14872,19 @@
         <v>11</v>
       </c>
       <c r="B492" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="D492" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="E492" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="F492" t="s">
         <v>0</v>
       </c>
       <c r="G492" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
@@ -14961,19 +14892,19 @@
         <v>11</v>
       </c>
       <c r="B493" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="D493" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="E493" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="F493" t="s">
         <v>0</v>
       </c>
       <c r="G493" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
@@ -14981,19 +14912,19 @@
         <v>11</v>
       </c>
       <c r="B494" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="D494" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="E494" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="F494" t="s">
         <v>0</v>
       </c>
       <c r="G494" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
@@ -15001,19 +14932,19 @@
         <v>11</v>
       </c>
       <c r="B495" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="D495" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="E495" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="F495" t="s">
         <v>0</v>
       </c>
       <c r="G495" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
@@ -15021,19 +14952,19 @@
         <v>11</v>
       </c>
       <c r="B496" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="D496" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="E496" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="F496" t="s">
         <v>0</v>
       </c>
       <c r="G496" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
@@ -15041,19 +14972,19 @@
         <v>11</v>
       </c>
       <c r="B497" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="D497" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="E497" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="F497" t="s">
         <v>0</v>
       </c>
       <c r="G497" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
@@ -15061,19 +14992,19 @@
         <v>11</v>
       </c>
       <c r="B498" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="D498" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="E498" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="F498" t="s">
         <v>0</v>
       </c>
       <c r="G498" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
@@ -15081,19 +15012,19 @@
         <v>11</v>
       </c>
       <c r="B499" t="s">
-        <v>1127</v>
+        <v>1648</v>
       </c>
       <c r="D499" t="s">
-        <v>1128</v>
+        <v>1636</v>
       </c>
       <c r="E499" t="s">
-        <v>1129</v>
+        <v>1660</v>
       </c>
       <c r="F499" t="s">
         <v>0</v>
       </c>
       <c r="G499" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
@@ -15113,7 +15044,7 @@
         <v>0</v>
       </c>
       <c r="G500" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
@@ -15121,19 +15052,19 @@
         <v>11</v>
       </c>
       <c r="B501" t="s">
-        <v>1133</v>
+        <v>1646</v>
       </c>
       <c r="D501" t="s">
-        <v>1134</v>
+        <v>1635</v>
       </c>
       <c r="E501" t="s">
-        <v>1135</v>
+        <v>1658</v>
       </c>
       <c r="F501" t="s">
         <v>0</v>
       </c>
       <c r="G501" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
@@ -15141,24 +15072,24 @@
         <v>11</v>
       </c>
       <c r="B502" t="s">
-        <v>1654</v>
+        <v>1133</v>
       </c>
       <c r="D502" t="s">
-        <v>1642</v>
+        <v>1134</v>
       </c>
       <c r="E502" t="s">
-        <v>1666</v>
+        <v>1135</v>
       </c>
       <c r="F502" t="s">
         <v>0</v>
       </c>
       <c r="G502" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B503" t="s">
         <v>1136</v>
@@ -15173,47 +15104,47 @@
         <v>0</v>
       </c>
       <c r="G503" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B504" t="s">
-        <v>1652</v>
+        <v>1139</v>
       </c>
       <c r="D504" t="s">
-        <v>1641</v>
+        <v>1140</v>
       </c>
       <c r="E504" t="s">
-        <v>1664</v>
+        <v>1141</v>
       </c>
       <c r="F504" t="s">
         <v>0</v>
       </c>
       <c r="G504" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B505" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="D505" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="E505" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="F505" t="s">
         <v>0</v>
       </c>
       <c r="G505" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
@@ -15221,19 +15152,19 @@
         <v>10</v>
       </c>
       <c r="B506" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D506" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="E506" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="F506" t="s">
         <v>0</v>
       </c>
       <c r="G506" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
@@ -15241,99 +15172,99 @@
         <v>8</v>
       </c>
       <c r="B507" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="D507" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="E507" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="F507" t="s">
         <v>0</v>
       </c>
       <c r="G507" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B508" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="D508" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="E508" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="F508" t="s">
         <v>0</v>
       </c>
       <c r="G508" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B509" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="D509" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="E509" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="F509" t="s">
         <v>0</v>
       </c>
       <c r="G509" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B510" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="D510" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="E510" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="F510" t="s">
         <v>0</v>
       </c>
       <c r="G510" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B511" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="D511" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="E511" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="F511" t="s">
         <v>0</v>
       </c>
       <c r="G511" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
@@ -15341,39 +15272,39 @@
         <v>8</v>
       </c>
       <c r="B512" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="D512" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="E512" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="F512" t="s">
         <v>0</v>
       </c>
       <c r="G512" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B513" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="D513" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="E513" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="F513" t="s">
         <v>0</v>
       </c>
       <c r="G513" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
@@ -15381,19 +15312,19 @@
         <v>8</v>
       </c>
       <c r="B514" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="D514" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="E514" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="F514" t="s">
         <v>0</v>
       </c>
       <c r="G514" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
@@ -15401,59 +15332,56 @@
         <v>8</v>
       </c>
       <c r="B515" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="D515" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="E515" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="F515" t="s">
         <v>0</v>
       </c>
       <c r="G515" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B516" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="D516" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="E516" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="F516" t="s">
         <v>0</v>
       </c>
       <c r="G516" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B517" t="s">
-        <v>1175</v>
+        <v>1582</v>
       </c>
       <c r="D517" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E517" t="s">
-        <v>1177</v>
+        <v>1583</v>
       </c>
       <c r="F517" t="s">
         <v>0</v>
       </c>
       <c r="G517" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
@@ -15473,27 +15401,24 @@
         <v>0</v>
       </c>
       <c r="G518" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B519" t="s">
-        <v>1181</v>
+        <v>1584</v>
       </c>
       <c r="D519" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E519" t="s">
-        <v>1183</v>
+        <v>1585</v>
       </c>
       <c r="F519" t="s">
         <v>0</v>
       </c>
       <c r="G519" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
@@ -15501,16 +15426,16 @@
         <v>9</v>
       </c>
       <c r="B520" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="D520" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="F520" t="s">
         <v>0</v>
       </c>
       <c r="G520" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
@@ -15518,53 +15443,56 @@
         <v>8</v>
       </c>
       <c r="B521" t="s">
-        <v>1184</v>
+        <v>1588</v>
       </c>
       <c r="D521" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E521" t="s">
-        <v>1186</v>
+        <v>1589</v>
       </c>
       <c r="F521" t="s">
         <v>0</v>
       </c>
       <c r="G521" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B522" t="s">
-        <v>1590</v>
+        <v>1181</v>
       </c>
       <c r="D522" t="s">
-        <v>1591</v>
+        <v>1182</v>
+      </c>
+      <c r="E522" t="s">
+        <v>1183</v>
       </c>
       <c r="F522" t="s">
         <v>0</v>
       </c>
       <c r="G522" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B523" t="s">
-        <v>1592</v>
+        <v>1184</v>
       </c>
       <c r="D523" t="s">
-        <v>1593</v>
+        <v>1185</v>
+      </c>
+      <c r="E523" t="s">
+        <v>1186</v>
       </c>
       <c r="F523" t="s">
         <v>0</v>
       </c>
       <c r="G523" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
@@ -15572,16 +15500,19 @@
         <v>8</v>
       </c>
       <c r="B524" t="s">
-        <v>1594</v>
+        <v>1187</v>
       </c>
       <c r="D524" t="s">
-        <v>1595</v>
+        <v>1188</v>
+      </c>
+      <c r="E524" t="s">
+        <v>1189</v>
       </c>
       <c r="F524" t="s">
         <v>0</v>
       </c>
       <c r="G524" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
@@ -15589,19 +15520,19 @@
         <v>8</v>
       </c>
       <c r="B525" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="D525" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="E525" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="F525" t="s">
         <v>0</v>
       </c>
       <c r="G525" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
@@ -15609,79 +15540,73 @@
         <v>8</v>
       </c>
       <c r="B526" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="D526" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="E526" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="F526" t="s">
         <v>0</v>
       </c>
       <c r="G526" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B527" t="s">
-        <v>1193</v>
+        <v>1590</v>
       </c>
       <c r="D527" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E527" t="s">
-        <v>1195</v>
+        <v>1591</v>
       </c>
       <c r="F527" t="s">
         <v>0</v>
       </c>
       <c r="G527" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B528" t="s">
-        <v>1196</v>
+        <v>1592</v>
       </c>
       <c r="D528" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E528" t="s">
-        <v>1198</v>
+        <v>1593</v>
       </c>
       <c r="F528" t="s">
         <v>0</v>
       </c>
       <c r="G528" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B529" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="D529" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="E529" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="F529" t="s">
         <v>0</v>
       </c>
       <c r="G529" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
@@ -15689,16 +15614,16 @@
         <v>9</v>
       </c>
       <c r="B530" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="D530" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="F530" t="s">
         <v>0</v>
       </c>
       <c r="G530" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
@@ -15706,16 +15631,16 @@
         <v>9</v>
       </c>
       <c r="B531" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D531" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="F531" t="s">
         <v>0</v>
       </c>
       <c r="G531" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
@@ -15723,36 +15648,36 @@
         <v>9</v>
       </c>
       <c r="B532" t="s">
-        <v>1202</v>
+        <v>1598</v>
       </c>
       <c r="D532" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E532" t="s">
-        <v>1204</v>
+        <v>1599</v>
       </c>
       <c r="F532" t="s">
         <v>0</v>
       </c>
       <c r="G532" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B533" t="s">
-        <v>1600</v>
+        <v>1199</v>
       </c>
       <c r="D533" t="s">
-        <v>1601</v>
+        <v>1200</v>
+      </c>
+      <c r="E533" t="s">
+        <v>1201</v>
       </c>
       <c r="F533" t="s">
         <v>0</v>
       </c>
       <c r="G533" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
@@ -15760,33 +15685,39 @@
         <v>9</v>
       </c>
       <c r="B534" t="s">
-        <v>1602</v>
+        <v>1202</v>
       </c>
       <c r="D534" t="s">
-        <v>1603</v>
+        <v>1203</v>
+      </c>
+      <c r="E534" t="s">
+        <v>1204</v>
       </c>
       <c r="F534" t="s">
         <v>0</v>
       </c>
       <c r="G534" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B535" t="s">
-        <v>1604</v>
+        <v>1205</v>
       </c>
       <c r="D535" t="s">
-        <v>1605</v>
+        <v>1206</v>
+      </c>
+      <c r="E535" t="s">
+        <v>1207</v>
       </c>
       <c r="F535" t="s">
         <v>0</v>
       </c>
       <c r="G535" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
@@ -15794,44 +15725,41 @@
         <v>8</v>
       </c>
       <c r="B536" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="D536" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="E536" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="F536" t="s">
         <v>0</v>
       </c>
       <c r="G536" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B537" t="s">
-        <v>1208</v>
+        <v>1600</v>
       </c>
       <c r="D537" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E537" t="s">
-        <v>1210</v>
+        <v>1601</v>
       </c>
       <c r="F537" t="s">
         <v>0</v>
       </c>
       <c r="G537" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B538" t="s">
         <v>1211</v>
@@ -15846,7 +15774,7 @@
         <v>0</v>
       </c>
       <c r="G538" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
@@ -15866,7 +15794,7 @@
         <v>0</v>
       </c>
       <c r="G539" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
@@ -15874,16 +15802,19 @@
         <v>8</v>
       </c>
       <c r="B540" t="s">
-        <v>1606</v>
+        <v>1217</v>
       </c>
       <c r="D540" t="s">
-        <v>1607</v>
+        <v>1218</v>
+      </c>
+      <c r="E540" t="s">
+        <v>1219</v>
       </c>
       <c r="F540" t="s">
         <v>0</v>
       </c>
       <c r="G540" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
@@ -15891,19 +15822,16 @@
         <v>9</v>
       </c>
       <c r="B541" t="s">
-        <v>1217</v>
+        <v>1602</v>
       </c>
       <c r="D541" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E541" t="s">
-        <v>1219</v>
+        <v>1603</v>
       </c>
       <c r="F541" t="s">
         <v>0</v>
       </c>
       <c r="G541" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
@@ -15923,7 +15851,7 @@
         <v>0</v>
       </c>
       <c r="G542" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
@@ -15943,24 +15871,27 @@
         <v>0</v>
       </c>
       <c r="G543" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B544" t="s">
-        <v>1608</v>
+        <v>1226</v>
       </c>
       <c r="D544" t="s">
-        <v>1609</v>
+        <v>1227</v>
+      </c>
+      <c r="E544" t="s">
+        <v>1228</v>
       </c>
       <c r="F544" t="s">
         <v>0</v>
       </c>
       <c r="G544" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
@@ -15968,19 +15899,19 @@
         <v>8</v>
       </c>
       <c r="B545" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="D545" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="E545" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="F545" t="s">
         <v>0</v>
       </c>
       <c r="G545" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
@@ -15988,84 +15919,81 @@
         <v>8</v>
       </c>
       <c r="B546" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="D546" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="E546" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="F546" t="s">
         <v>0</v>
       </c>
       <c r="G546" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B547" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="D547" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="E547" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="F547" t="s">
         <v>0</v>
       </c>
       <c r="G547" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B548" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="D548" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="E548" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="F548" t="s">
         <v>0</v>
       </c>
       <c r="G548" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B549" t="s">
-        <v>1238</v>
+        <v>1604</v>
       </c>
       <c r="D549" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E549" t="s">
-        <v>1240</v>
+        <v>1605</v>
       </c>
       <c r="F549" t="s">
         <v>0</v>
       </c>
       <c r="G549" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B550" t="s">
         <v>1241</v>
@@ -16080,12 +16008,12 @@
         <v>0</v>
       </c>
       <c r="G550" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B551" t="s">
         <v>1244</v>
@@ -16100,49 +16028,49 @@
         <v>0</v>
       </c>
       <c r="G551" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B552" t="s">
-        <v>1610</v>
+        <v>1247</v>
       </c>
       <c r="D552" t="s">
-        <v>1611</v>
+        <v>1248</v>
+      </c>
+      <c r="E552" t="s">
+        <v>1249</v>
       </c>
       <c r="F552" t="s">
         <v>0</v>
       </c>
       <c r="G552" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B553" t="s">
-        <v>1247</v>
+        <v>1606</v>
       </c>
       <c r="D553" t="s">
-        <v>1248</v>
-      </c>
-      <c r="E553" t="s">
-        <v>1249</v>
+        <v>1607</v>
       </c>
       <c r="F553" t="s">
         <v>0</v>
       </c>
       <c r="G553" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B554" t="s">
         <v>1250</v>
@@ -16157,12 +16085,12 @@
         <v>0</v>
       </c>
       <c r="G554" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B555" t="s">
         <v>1253</v>
@@ -16177,69 +16105,69 @@
         <v>0</v>
       </c>
       <c r="G555" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B556" t="s">
-        <v>1612</v>
+        <v>1256</v>
       </c>
       <c r="D556" t="s">
-        <v>1613</v>
+        <v>1257</v>
+      </c>
+      <c r="E556" t="s">
+        <v>1258</v>
       </c>
       <c r="F556" t="s">
         <v>0</v>
       </c>
       <c r="G556" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B557" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="D557" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="E557" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="F557" t="s">
         <v>0</v>
       </c>
       <c r="G557" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B558" t="s">
-        <v>1259</v>
+        <v>1608</v>
       </c>
       <c r="D558" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E558" t="s">
-        <v>1261</v>
+        <v>1609</v>
       </c>
       <c r="F558" t="s">
         <v>0</v>
       </c>
       <c r="G558" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B559" t="s">
         <v>1262</v>
@@ -16254,7 +16182,7 @@
         <v>0</v>
       </c>
       <c r="G559" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
@@ -16274,7 +16202,7 @@
         <v>0</v>
       </c>
       <c r="G560" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
@@ -16282,36 +16210,39 @@
         <v>9</v>
       </c>
       <c r="B561" t="s">
-        <v>1614</v>
+        <v>1268</v>
       </c>
       <c r="D561" t="s">
-        <v>1615</v>
+        <v>1269</v>
+      </c>
+      <c r="E561" t="s">
+        <v>1270</v>
       </c>
       <c r="F561" t="s">
         <v>0</v>
       </c>
       <c r="G561" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B562" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="D562" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="E562" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="F562" t="s">
         <v>0</v>
       </c>
       <c r="G562" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
@@ -16319,44 +16250,41 @@
         <v>8</v>
       </c>
       <c r="B563" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="D563" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="E563" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="F563" t="s">
         <v>0</v>
       </c>
       <c r="G563" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B564" t="s">
-        <v>1274</v>
+        <v>1610</v>
       </c>
       <c r="D564" t="s">
-        <v>1275</v>
-      </c>
-      <c r="E564" t="s">
-        <v>1276</v>
+        <v>1611</v>
       </c>
       <c r="F564" t="s">
         <v>0</v>
       </c>
       <c r="G564" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B565" t="s">
         <v>1277</v>
@@ -16371,7 +16299,7 @@
         <v>0</v>
       </c>
       <c r="G565" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
@@ -16391,7 +16319,7 @@
         <v>0</v>
       </c>
       <c r="G566" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
@@ -16399,16 +16327,16 @@
         <v>8</v>
       </c>
       <c r="B567" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="D567" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="F567" t="s">
         <v>0</v>
       </c>
       <c r="G567" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
@@ -16416,73 +16344,76 @@
         <v>9</v>
       </c>
       <c r="B568" t="s">
-        <v>1283</v>
+        <v>1614</v>
       </c>
       <c r="D568" t="s">
-        <v>1284</v>
-      </c>
-      <c r="E568" t="s">
-        <v>1285</v>
+        <v>1615</v>
       </c>
       <c r="F568" t="s">
         <v>0</v>
       </c>
       <c r="G568" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B569" t="s">
-        <v>1286</v>
+        <v>1649</v>
       </c>
       <c r="D569" t="s">
-        <v>1287</v>
+        <v>1637</v>
       </c>
       <c r="E569" t="s">
-        <v>1288</v>
+        <v>1661</v>
       </c>
       <c r="F569" t="s">
         <v>0</v>
       </c>
       <c r="G569" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B570" t="s">
-        <v>1618</v>
+        <v>1651</v>
       </c>
       <c r="D570" t="s">
-        <v>1619</v>
+        <v>1639</v>
+      </c>
+      <c r="E570" t="s">
+        <v>1663</v>
       </c>
       <c r="F570" t="s">
         <v>0</v>
       </c>
       <c r="G570" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B571" t="s">
-        <v>1620</v>
+        <v>1283</v>
       </c>
       <c r="D571" t="s">
-        <v>1621</v>
+        <v>1284</v>
+      </c>
+      <c r="E571" t="s">
+        <v>1285</v>
       </c>
       <c r="F571" t="s">
         <v>0</v>
       </c>
       <c r="G571" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
@@ -16490,19 +16421,16 @@
         <v>9</v>
       </c>
       <c r="B572" t="s">
-        <v>1655</v>
+        <v>1616</v>
       </c>
       <c r="D572" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E572" t="s">
-        <v>1667</v>
+        <v>1617</v>
       </c>
       <c r="F572" t="s">
         <v>0</v>
       </c>
       <c r="G572" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
@@ -16510,39 +16438,36 @@
         <v>9</v>
       </c>
       <c r="B573" t="s">
-        <v>1657</v>
+        <v>1618</v>
       </c>
       <c r="D573" t="s">
-        <v>1645</v>
+        <v>1619</v>
       </c>
       <c r="E573" t="s">
-        <v>1669</v>
+        <v>1620</v>
       </c>
       <c r="F573" t="s">
         <v>0</v>
       </c>
       <c r="G573" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B574" t="s">
-        <v>1289</v>
+        <v>1621</v>
       </c>
       <c r="D574" t="s">
-        <v>1290</v>
-      </c>
-      <c r="E574" t="s">
-        <v>1291</v>
+        <v>1622</v>
       </c>
       <c r="F574" t="s">
         <v>0</v>
       </c>
       <c r="G574" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
@@ -16550,16 +16475,16 @@
         <v>9</v>
       </c>
       <c r="B575" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="D575" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="F575" t="s">
         <v>0</v>
       </c>
       <c r="G575" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
@@ -16567,36 +16492,36 @@
         <v>9</v>
       </c>
       <c r="B576" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="D576" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E576" t="s">
         <v>1626</v>
       </c>
       <c r="F576" t="s">
         <v>0</v>
       </c>
       <c r="G576" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B577" t="s">
-        <v>1627</v>
+        <v>1286</v>
       </c>
       <c r="D577" t="s">
-        <v>1628</v>
+        <v>1287</v>
+      </c>
+      <c r="E577" t="s">
+        <v>1288</v>
       </c>
       <c r="F577" t="s">
         <v>0</v>
       </c>
       <c r="G577" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
@@ -16604,73 +16529,79 @@
         <v>9</v>
       </c>
       <c r="B578" t="s">
-        <v>1629</v>
+        <v>1289</v>
       </c>
       <c r="D578" t="s">
-        <v>1630</v>
+        <v>1290</v>
+      </c>
+      <c r="E578" t="s">
+        <v>1291</v>
       </c>
       <c r="F578" t="s">
         <v>0</v>
       </c>
       <c r="G578" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B579" t="s">
-        <v>1631</v>
+        <v>1292</v>
       </c>
       <c r="D579" t="s">
-        <v>1632</v>
+        <v>1293</v>
+      </c>
+      <c r="E579" t="s">
+        <v>1294</v>
       </c>
       <c r="F579" t="s">
         <v>0</v>
       </c>
       <c r="G579" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B580" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="D580" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="E580" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="F580" t="s">
         <v>0</v>
       </c>
       <c r="G580" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B581" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="D581" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="E581" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="F581" t="s">
         <v>0</v>
       </c>
       <c r="G581" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
@@ -16678,39 +16609,39 @@
         <v>8</v>
       </c>
       <c r="B582" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="D582" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="E582" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="F582" t="s">
         <v>0</v>
       </c>
       <c r="G582" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B583" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="D583" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="E583" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="F583" t="s">
         <v>0</v>
       </c>
       <c r="G583" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
@@ -16718,19 +16649,19 @@
         <v>8</v>
       </c>
       <c r="B584" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="D584" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="E584" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="F584" t="s">
         <v>0</v>
       </c>
       <c r="G584" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
@@ -16738,39 +16669,39 @@
         <v>8</v>
       </c>
       <c r="B585" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="D585" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="E585" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="F585" t="s">
         <v>0</v>
       </c>
       <c r="G585" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B586" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="D586" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="E586" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="F586" t="s">
         <v>0</v>
       </c>
       <c r="G586" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
@@ -16778,19 +16709,19 @@
         <v>8</v>
       </c>
       <c r="B587" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="D587" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="E587" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="F587" t="s">
         <v>0</v>
       </c>
       <c r="G587" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
@@ -16798,59 +16729,56 @@
         <v>8</v>
       </c>
       <c r="B588" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="D588" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="E588" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="F588" t="s">
         <v>0</v>
       </c>
       <c r="G588" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B589" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="D589" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="E589" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="F589" t="s">
         <v>0</v>
       </c>
       <c r="G589" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B590" t="s">
-        <v>1322</v>
+        <v>1627</v>
       </c>
       <c r="D590" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E590" t="s">
-        <v>1324</v>
+        <v>1628</v>
       </c>
       <c r="F590" t="s">
         <v>0</v>
       </c>
       <c r="G590" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
@@ -16870,7 +16798,7 @@
         <v>0</v>
       </c>
       <c r="G591" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
@@ -16890,49 +16818,49 @@
         <v>0</v>
       </c>
       <c r="G592" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B593" t="s">
-        <v>1633</v>
+        <v>1331</v>
       </c>
       <c r="D593" t="s">
-        <v>1634</v>
+        <v>1332</v>
+      </c>
+      <c r="E593" t="s">
+        <v>1333</v>
       </c>
       <c r="F593" t="s">
         <v>0</v>
       </c>
       <c r="G593" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B594" t="s">
-        <v>1331</v>
+        <v>1629</v>
       </c>
       <c r="D594" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E594" t="s">
-        <v>1333</v>
+        <v>1630</v>
       </c>
       <c r="F594" t="s">
         <v>0</v>
       </c>
       <c r="G594" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B595" t="s">
         <v>1334</v>
@@ -16947,7 +16875,7 @@
         <v>0</v>
       </c>
       <c r="G595" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
@@ -16967,44 +16895,47 @@
         <v>0</v>
       </c>
       <c r="G596" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B597" t="s">
-        <v>1635</v>
+        <v>1340</v>
       </c>
       <c r="D597" t="s">
-        <v>1636</v>
+        <v>1341</v>
+      </c>
+      <c r="E597" t="s">
+        <v>1342</v>
       </c>
       <c r="F597" t="s">
         <v>0</v>
       </c>
       <c r="G597" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B598" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="D598" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="E598" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="F598" t="s">
         <v>0</v>
       </c>
       <c r="G598" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
@@ -17012,79 +16943,19 @@
         <v>8</v>
       </c>
       <c r="B599" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="D599" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="E599" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="F599" t="s">
         <v>0</v>
       </c>
       <c r="G599" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A600" t="s">
-        <v>8</v>
-      </c>
-      <c r="B600" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D600" t="s">
-        <v>1347</v>
-      </c>
-      <c r="E600" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F600" t="s">
-        <v>0</v>
-      </c>
-      <c r="G600" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A601" t="s">
-        <v>8</v>
-      </c>
-      <c r="B601" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D601" t="s">
-        <v>1350</v>
-      </c>
-      <c r="E601" t="s">
-        <v>1351</v>
-      </c>
-      <c r="F601" t="s">
-        <v>0</v>
-      </c>
-      <c r="G601" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A602" t="s">
-        <v>8</v>
-      </c>
-      <c r="B602" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D602" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E602" t="s">
-        <v>1354</v>
-      </c>
-      <c r="F602" t="s">
-        <v>0</v>
-      </c>
-      <c r="G602" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
   </sheetData>

--- a/Bibsam_tidskriftslistor/scifree_data_springernature_fullyoa.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_springernature_fullyoa.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="1703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="1686">
   <si>
     <t>Open</t>
   </si>
@@ -4035,12 +4035,6 @@
     <t>International Journal of Educational Technology in Higher Education</t>
   </si>
   <si>
-    <t>2251-6832</t>
-  </si>
-  <si>
-    <t>International Journal of Energy and Environmental Engineering</t>
-  </si>
-  <si>
     <t>2198-2783</t>
   </si>
   <si>
@@ -4068,12 +4062,6 @@
     <t>International Journal of Recycling of Organic Waste in Agriculture</t>
   </si>
   <si>
-    <t>2228-5326</t>
-  </si>
-  <si>
-    <t>International Nano Letters</t>
-  </si>
-  <si>
     <t>2045-4015</t>
   </si>
   <si>
@@ -4140,12 +4128,6 @@
     <t>Journal of Genetic Engineering and Biotechnology</t>
   </si>
   <si>
-    <t>2251-7316</t>
-  </si>
-  <si>
-    <t>Journal of Global Entrepreneurship Research</t>
-  </si>
-  <si>
     <t>2251-712X</t>
   </si>
   <si>
@@ -4182,12 +4164,6 @@
     <t>Journal of Modern Transportation</t>
   </si>
   <si>
-    <t>2193-8865</t>
-  </si>
-  <si>
-    <t>Journal of Nanostructure in Chemistry</t>
-  </si>
-  <si>
     <t>2245-408X</t>
   </si>
   <si>
@@ -4260,12 +4236,6 @@
     <t>Materials for Renewable and Sustainable Energy</t>
   </si>
   <si>
-    <t>2251-7456</t>
-  </si>
-  <si>
-    <t>Mathematical Sciences</t>
-  </si>
-  <si>
     <t>2213-9621</t>
   </si>
   <si>
@@ -4344,12 +4314,6 @@
     <t>Probability, Uncertainty and Quantitative Risk</t>
   </si>
   <si>
-    <t>2194-0517</t>
-  </si>
-  <si>
-    <t>Progress in Biomaterials</t>
-  </si>
-  <si>
     <t>2196-1042</t>
   </si>
   <si>
@@ -4713,18 +4677,12 @@
     <t>https://springer.com/41239</t>
   </si>
   <si>
-    <t>https://springer.com/40095</t>
-  </si>
-  <si>
     <t>https://springer.com/40729</t>
   </si>
   <si>
     <t>https://springer.com/40090</t>
   </si>
   <si>
-    <t>https://springer.com/40093</t>
-  </si>
-  <si>
     <t>https://springer.com/40089</t>
   </si>
   <si>
@@ -4758,9 +4716,6 @@
     <t>https://springer.com/43141</t>
   </si>
   <si>
-    <t>https://springer.com/40497</t>
-  </si>
-  <si>
     <t>https://springer.com/40092</t>
   </si>
   <si>
@@ -4779,9 +4734,6 @@
     <t>https://springer.com/40534</t>
   </si>
   <si>
-    <t>https://springer.com/40097</t>
-  </si>
-  <si>
     <t>https://springer.com/41469</t>
   </si>
   <si>
@@ -4855,9 +4807,6 @@
   </si>
   <si>
     <t>https://springer.com/41546</t>
-  </si>
-  <si>
-    <t>https://springer.com/40204</t>
   </si>
   <si>
     <t>https://springer.com/40510</t>
@@ -5178,7 +5127,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5186,14 +5135,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5228,8 +5169,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G564" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:G564"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G558" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:G558"/>
   <sortState ref="A2:G564">
     <sortCondition ref="D1:D564"/>
   </sortState>
@@ -5509,7 +5450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G564"/>
+  <dimension ref="A1:G558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5518,7 +5459,7 @@
     <col min="1" max="1" width="32.140625" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="55.28515625" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
@@ -5564,27 +5505,27 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1677</v>
+        <v>1660</v>
       </c>
       <c r="B3" t="s">
-        <v>1653</v>
+        <v>1636</v>
       </c>
       <c r="D3" t="s">
-        <v>1630</v>
+        <v>1613</v>
       </c>
       <c r="E3" t="s">
-        <v>1680</v>
+        <v>1663</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5604,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -5618,13 +5559,13 @@
         <v>1208</v>
       </c>
       <c r="E5" t="s">
-        <v>1499</v>
+        <v>1487</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -5644,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -5664,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -5684,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -5704,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -5718,13 +5659,13 @@
         <v>1210</v>
       </c>
       <c r="E10" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -5744,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -5758,13 +5699,13 @@
         <v>1212</v>
       </c>
       <c r="E12" t="s">
-        <v>1501</v>
+        <v>1489</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5784,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -5798,13 +5739,13 @@
         <v>1214</v>
       </c>
       <c r="E14" t="s">
-        <v>1502</v>
+        <v>1490</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -5824,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -5838,13 +5779,13 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>1503</v>
+        <v>1491</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -5864,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -5884,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -5898,13 +5839,13 @@
         <v>1219</v>
       </c>
       <c r="E19" t="s">
-        <v>1504</v>
+        <v>1492</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -5924,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -5944,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -5964,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -5984,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -6004,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -6024,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -6044,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -6064,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -6084,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -6092,19 +6033,19 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>1489</v>
+        <v>1477</v>
       </c>
       <c r="D29" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E29" t="s">
         <v>1483</v>
       </c>
-      <c r="E29" t="s">
-        <v>1495</v>
-      </c>
       <c r="F29" t="s">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -6118,13 +6059,13 @@
         <v>1221</v>
       </c>
       <c r="E30" t="s">
-        <v>1505</v>
+        <v>1493</v>
       </c>
       <c r="F30" t="s">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -6144,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -6164,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -6184,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -6198,13 +6139,13 @@
         <v>1223</v>
       </c>
       <c r="E34" t="s">
-        <v>1506</v>
+        <v>1494</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -6218,13 +6159,13 @@
         <v>1225</v>
       </c>
       <c r="E35" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
       <c r="F35" t="s">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -6244,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -6258,13 +6199,13 @@
         <v>1227</v>
       </c>
       <c r="E37" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -6278,13 +6219,13 @@
         <v>1229</v>
       </c>
       <c r="E38" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
       <c r="F38" t="s">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -6298,13 +6239,13 @@
         <v>1231</v>
       </c>
       <c r="E39" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -6318,13 +6259,13 @@
         <v>1233</v>
       </c>
       <c r="E40" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
       <c r="F40" t="s">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -6344,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -6364,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -6378,13 +6319,13 @@
         <v>1235</v>
       </c>
       <c r="E43" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -6398,13 +6339,13 @@
         <v>1237</v>
       </c>
       <c r="E44" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -6418,13 +6359,13 @@
         <v>1239</v>
       </c>
       <c r="E45" t="s">
-        <v>1514</v>
+        <v>1502</v>
       </c>
       <c r="F45" t="s">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -6444,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -6464,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -6484,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -6498,13 +6439,13 @@
         <v>1241</v>
       </c>
       <c r="E49" t="s">
-        <v>1515</v>
+        <v>1503</v>
       </c>
       <c r="F49" t="s">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -6524,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -6544,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -6564,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -6578,13 +6519,13 @@
         <v>1243</v>
       </c>
       <c r="E53" t="s">
-        <v>1516</v>
+        <v>1504</v>
       </c>
       <c r="F53" t="s">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -6604,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -6624,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -6644,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -6664,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -6684,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -6704,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -6724,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -6744,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -6764,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -6778,13 +6719,13 @@
         <v>1245</v>
       </c>
       <c r="E63" t="s">
-        <v>1517</v>
+        <v>1505</v>
       </c>
       <c r="F63" t="s">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -6804,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -6818,13 +6759,13 @@
         <v>1247</v>
       </c>
       <c r="E65" t="s">
-        <v>1518</v>
+        <v>1506</v>
       </c>
       <c r="F65" t="s">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -6844,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -6858,13 +6799,13 @@
         <v>1249</v>
       </c>
       <c r="E67" t="s">
-        <v>1519</v>
+        <v>1507</v>
       </c>
       <c r="F67" t="s">
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -6884,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -6904,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -6924,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -6944,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -6964,7 +6905,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -6984,7 +6925,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -7004,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -7024,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -7044,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -7064,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -7072,19 +7013,19 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>1654</v>
+        <v>1637</v>
       </c>
       <c r="D78" t="s">
-        <v>1631</v>
+        <v>1614</v>
       </c>
       <c r="E78" t="s">
-        <v>1681</v>
+        <v>1664</v>
       </c>
       <c r="F78" t="s">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -7104,7 +7045,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -7112,19 +7053,19 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>1655</v>
+        <v>1638</v>
       </c>
       <c r="D80" t="s">
-        <v>1632</v>
+        <v>1615</v>
       </c>
       <c r="E80" t="s">
-        <v>1682</v>
+        <v>1665</v>
       </c>
       <c r="F80" t="s">
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -7144,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -7164,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -7184,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -7204,7 +7145,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -7212,19 +7153,19 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>1656</v>
+        <v>1639</v>
       </c>
       <c r="D85" t="s">
-        <v>1633</v>
+        <v>1616</v>
       </c>
       <c r="E85" t="s">
-        <v>1683</v>
+        <v>1666</v>
       </c>
       <c r="F85" t="s">
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -7244,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -7264,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -7284,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -7304,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -7324,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -7344,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -7364,7 +7305,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -7384,7 +7325,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -7404,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -7424,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -7444,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -7464,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -7484,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -7504,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -7524,7 +7465,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -7544,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -7564,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -7584,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -7604,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -7624,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -7644,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -7664,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -7684,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -7704,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -7724,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -7744,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -7764,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -7784,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -7804,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -7824,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -7844,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -7864,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -7884,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -7904,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -7924,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -7944,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -7964,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -7984,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -8004,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -8024,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -8044,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -8064,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -8084,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -8104,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -8124,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -8144,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -8158,13 +8099,13 @@
         <v>1251</v>
       </c>
       <c r="E132" t="s">
-        <v>1520</v>
+        <v>1508</v>
       </c>
       <c r="F132" t="s">
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -8178,13 +8119,13 @@
         <v>1253</v>
       </c>
       <c r="E133" t="s">
-        <v>1521</v>
+        <v>1509</v>
       </c>
       <c r="F133" t="s">
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -8198,13 +8139,13 @@
         <v>1255</v>
       </c>
       <c r="E134" t="s">
-        <v>1522</v>
+        <v>1510</v>
       </c>
       <c r="F134" t="s">
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -8224,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -8244,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -8264,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -8284,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -8304,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -8324,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -8332,19 +8273,19 @@
         <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>1657</v>
+        <v>1640</v>
       </c>
       <c r="D141" t="s">
-        <v>1634</v>
+        <v>1617</v>
       </c>
       <c r="E141" t="s">
-        <v>1684</v>
+        <v>1667</v>
       </c>
       <c r="F141" t="s">
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -8364,7 +8305,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -8384,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -8404,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -8424,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -8444,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -8464,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -8484,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -8504,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -8524,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -8544,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -8564,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -8584,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -8604,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -8624,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -8638,13 +8579,13 @@
         <v>1257</v>
       </c>
       <c r="E156" t="s">
-        <v>1523</v>
+        <v>1511</v>
       </c>
       <c r="F156" t="s">
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -8658,13 +8599,13 @@
         <v>1259</v>
       </c>
       <c r="E157" t="s">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="F157" t="s">
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -8678,13 +8619,13 @@
         <v>1261</v>
       </c>
       <c r="E158" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
       <c r="F158" t="s">
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -8704,7 +8645,7 @@
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -8724,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -8744,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -8764,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -8778,13 +8719,13 @@
         <v>1263</v>
       </c>
       <c r="E163" t="s">
-        <v>1526</v>
+        <v>1514</v>
       </c>
       <c r="F163" t="s">
         <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -8798,13 +8739,13 @@
         <v>1265</v>
       </c>
       <c r="E164" t="s">
-        <v>1527</v>
+        <v>1515</v>
       </c>
       <c r="F164" t="s">
         <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -8824,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -8844,7 +8785,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -8864,7 +8805,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -8884,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -8892,19 +8833,19 @@
         <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>1492</v>
+        <v>1480</v>
       </c>
       <c r="D169" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E169" t="s">
         <v>1486</v>
       </c>
-      <c r="E169" t="s">
-        <v>1498</v>
-      </c>
       <c r="F169" t="s">
         <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -8912,19 +8853,19 @@
         <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>1491</v>
+        <v>1479</v>
       </c>
       <c r="D170" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E170" t="s">
         <v>1485</v>
       </c>
-      <c r="E170" t="s">
-        <v>1497</v>
-      </c>
       <c r="F170" t="s">
         <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -8932,19 +8873,19 @@
         <v>11</v>
       </c>
       <c r="B171" t="s">
-        <v>1658</v>
+        <v>1641</v>
       </c>
       <c r="D171" t="s">
-        <v>1635</v>
+        <v>1618</v>
       </c>
       <c r="E171" t="s">
-        <v>1685</v>
+        <v>1668</v>
       </c>
       <c r="F171" t="s">
         <v>0</v>
       </c>
       <c r="G171" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -8964,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="G172" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -8984,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -8998,13 +8939,13 @@
         <v>1267</v>
       </c>
       <c r="E174" t="s">
-        <v>1528</v>
+        <v>1516</v>
       </c>
       <c r="F174" t="s">
         <v>0</v>
       </c>
       <c r="G174" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -9024,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="G175" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -9038,13 +8979,13 @@
         <v>1269</v>
       </c>
       <c r="E176" t="s">
-        <v>1529</v>
+        <v>1517</v>
       </c>
       <c r="F176" t="s">
         <v>0</v>
       </c>
       <c r="G176" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -9064,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -9084,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -9104,7 +9045,7 @@
         <v>0</v>
       </c>
       <c r="G179" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -9124,7 +9065,7 @@
         <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -9144,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -9164,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -9178,13 +9119,13 @@
         <v>1271</v>
       </c>
       <c r="E183" t="s">
-        <v>1530</v>
+        <v>1518</v>
       </c>
       <c r="F183" t="s">
         <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -9198,13 +9139,13 @@
         <v>1273</v>
       </c>
       <c r="E184" t="s">
-        <v>1531</v>
+        <v>1519</v>
       </c>
       <c r="F184" t="s">
         <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -9224,7 +9165,7 @@
         <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -9244,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -9264,7 +9205,7 @@
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -9278,153 +9219,153 @@
         <v>1275</v>
       </c>
       <c r="E188" t="s">
-        <v>1532</v>
+        <v>1520</v>
       </c>
       <c r="F188" t="s">
         <v>0</v>
       </c>
       <c r="G188" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1677</v>
+        <v>1660</v>
       </c>
       <c r="B189" t="s">
-        <v>1659</v>
+        <v>1642</v>
       </c>
       <c r="D189" t="s">
-        <v>1636</v>
+        <v>1619</v>
       </c>
       <c r="E189" t="s">
-        <v>1686</v>
+        <v>1669</v>
       </c>
       <c r="F189" t="s">
         <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>1677</v>
+        <v>1660</v>
       </c>
       <c r="B190" t="s">
-        <v>1660</v>
+        <v>1643</v>
       </c>
       <c r="D190" t="s">
-        <v>1637</v>
+        <v>1620</v>
       </c>
       <c r="E190" t="s">
-        <v>1688</v>
+        <v>1671</v>
       </c>
       <c r="F190" t="s">
         <v>0</v>
       </c>
       <c r="G190" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1677</v>
+        <v>1660</v>
       </c>
       <c r="B191" t="s">
-        <v>1661</v>
+        <v>1644</v>
       </c>
       <c r="D191" t="s">
-        <v>1638</v>
+        <v>1621</v>
       </c>
       <c r="E191" t="s">
-        <v>1689</v>
+        <v>1672</v>
       </c>
       <c r="F191" t="s">
         <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>1677</v>
+        <v>1660</v>
       </c>
       <c r="B192" t="s">
-        <v>1662</v>
+        <v>1645</v>
       </c>
       <c r="D192" t="s">
-        <v>1639</v>
+        <v>1622</v>
       </c>
       <c r="E192" t="s">
-        <v>1687</v>
+        <v>1670</v>
       </c>
       <c r="F192" t="s">
         <v>0</v>
       </c>
       <c r="G192" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1677</v>
+        <v>1660</v>
       </c>
       <c r="B193" t="s">
-        <v>1663</v>
+        <v>1646</v>
       </c>
       <c r="D193" t="s">
-        <v>1640</v>
+        <v>1623</v>
       </c>
       <c r="E193" t="s">
-        <v>1690</v>
+        <v>1673</v>
       </c>
       <c r="F193" t="s">
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1677</v>
+        <v>1660</v>
       </c>
       <c r="B194" t="s">
-        <v>1664</v>
+        <v>1647</v>
       </c>
       <c r="D194" t="s">
-        <v>1641</v>
+        <v>1624</v>
       </c>
       <c r="E194" t="s">
-        <v>1691</v>
+        <v>1674</v>
       </c>
       <c r="F194" t="s">
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1677</v>
+        <v>1660</v>
       </c>
       <c r="B195" t="s">
-        <v>1665</v>
+        <v>1648</v>
       </c>
       <c r="D195" t="s">
-        <v>1642</v>
+        <v>1625</v>
       </c>
       <c r="E195" t="s">
-        <v>1692</v>
+        <v>1675</v>
       </c>
       <c r="F195" t="s">
         <v>0</v>
       </c>
       <c r="G195" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -9444,7 +9385,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -9458,13 +9399,13 @@
         <v>1277</v>
       </c>
       <c r="E197" t="s">
-        <v>1533</v>
+        <v>1521</v>
       </c>
       <c r="F197" t="s">
         <v>0</v>
       </c>
       <c r="G197" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -9478,13 +9419,13 @@
         <v>1279</v>
       </c>
       <c r="E198" t="s">
-        <v>1534</v>
+        <v>1522</v>
       </c>
       <c r="F198" t="s">
         <v>0</v>
       </c>
       <c r="G198" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -9498,13 +9439,13 @@
         <v>1281</v>
       </c>
       <c r="E199" t="s">
-        <v>1535</v>
+        <v>1523</v>
       </c>
       <c r="F199" t="s">
         <v>0</v>
       </c>
       <c r="G199" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -9518,13 +9459,13 @@
         <v>1283</v>
       </c>
       <c r="E200" t="s">
-        <v>1536</v>
+        <v>1524</v>
       </c>
       <c r="F200" t="s">
         <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -9538,13 +9479,13 @@
         <v>1285</v>
       </c>
       <c r="E201" t="s">
-        <v>1537</v>
+        <v>1525</v>
       </c>
       <c r="F201" t="s">
         <v>0</v>
       </c>
       <c r="G201" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -9558,13 +9499,13 @@
         <v>1287</v>
       </c>
       <c r="E202" t="s">
-        <v>1538</v>
+        <v>1526</v>
       </c>
       <c r="F202" t="s">
         <v>0</v>
       </c>
       <c r="G202" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -9578,13 +9519,13 @@
         <v>1289</v>
       </c>
       <c r="E203" t="s">
-        <v>1539</v>
+        <v>1527</v>
       </c>
       <c r="F203" t="s">
         <v>0</v>
       </c>
       <c r="G203" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -9598,13 +9539,13 @@
         <v>1291</v>
       </c>
       <c r="E204" t="s">
-        <v>1540</v>
+        <v>1528</v>
       </c>
       <c r="F204" t="s">
         <v>0</v>
       </c>
       <c r="G204" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -9624,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -9644,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -9664,7 +9605,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -9684,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -9698,13 +9639,13 @@
         <v>1293</v>
       </c>
       <c r="E209" t="s">
-        <v>1541</v>
+        <v>1529</v>
       </c>
       <c r="F209" t="s">
         <v>0</v>
       </c>
       <c r="G209" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -9724,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -9738,13 +9679,13 @@
         <v>1295</v>
       </c>
       <c r="E211" t="s">
-        <v>1542</v>
+        <v>1530</v>
       </c>
       <c r="F211" t="s">
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -9764,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -9784,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -9804,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -9824,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -9832,19 +9773,19 @@
         <v>8</v>
       </c>
       <c r="B216" t="s">
-        <v>1666</v>
+        <v>1649</v>
       </c>
       <c r="D216" t="s">
         <v>474</v>
       </c>
       <c r="E216" t="s">
-        <v>1494</v>
+        <v>1482</v>
       </c>
       <c r="F216" t="s">
         <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -9864,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="G217" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -9884,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="G218" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -9904,7 +9845,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -9912,19 +9853,19 @@
         <v>8</v>
       </c>
       <c r="B220" t="s">
-        <v>1667</v>
+        <v>1650</v>
       </c>
       <c r="D220" t="s">
-        <v>1643</v>
+        <v>1626</v>
       </c>
       <c r="E220" t="s">
-        <v>1693</v>
+        <v>1676</v>
       </c>
       <c r="F220" t="s">
         <v>0</v>
       </c>
       <c r="G220" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -9944,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="G221" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -9964,7 +9905,7 @@
         <v>0</v>
       </c>
       <c r="G222" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -9984,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="G223" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -10004,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="G224" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -10024,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="G225" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -10044,7 +9985,7 @@
         <v>0</v>
       </c>
       <c r="G226" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -10064,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="G227" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -10084,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -10104,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="G229" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -10124,7 +10065,7 @@
         <v>0</v>
       </c>
       <c r="G230" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -10144,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="G231" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -10164,7 +10105,7 @@
         <v>0</v>
       </c>
       <c r="G232" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -10184,7 +10125,7 @@
         <v>0</v>
       </c>
       <c r="G233" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -10204,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="G234" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -10224,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="G235" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -10244,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="G236" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -10264,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="G237" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -10284,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="G238" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -10298,13 +10239,13 @@
         <v>1297</v>
       </c>
       <c r="E239" t="s">
-        <v>1543</v>
+        <v>1531</v>
       </c>
       <c r="F239" t="s">
         <v>0</v>
       </c>
       <c r="G239" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -10318,13 +10259,13 @@
         <v>1299</v>
       </c>
       <c r="E240" t="s">
-        <v>1544</v>
+        <v>1532</v>
       </c>
       <c r="F240" t="s">
         <v>0</v>
       </c>
       <c r="G240" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -10344,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="G241" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -10364,7 +10305,7 @@
         <v>0</v>
       </c>
       <c r="G242" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -10378,13 +10319,13 @@
         <v>1301</v>
       </c>
       <c r="E243" t="s">
-        <v>1545</v>
+        <v>1533</v>
       </c>
       <c r="F243" t="s">
         <v>0</v>
       </c>
       <c r="G243" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -10404,27 +10345,27 @@
         <v>0</v>
       </c>
       <c r="G244" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E245" t="s">
         <v>1677</v>
       </c>
-      <c r="B245" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D245" t="s">
-        <v>1644</v>
-      </c>
-      <c r="E245" t="s">
-        <v>1694</v>
-      </c>
       <c r="F245" t="s">
         <v>0</v>
       </c>
       <c r="G245" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -10444,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="G246" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -10458,13 +10399,13 @@
         <v>1303</v>
       </c>
       <c r="E247" t="s">
-        <v>1546</v>
+        <v>1534</v>
       </c>
       <c r="F247" t="s">
         <v>0</v>
       </c>
       <c r="G247" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -10478,13 +10419,13 @@
         <v>1305</v>
       </c>
       <c r="E248" t="s">
-        <v>1547</v>
+        <v>1535</v>
       </c>
       <c r="F248" t="s">
         <v>0</v>
       </c>
       <c r="G248" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -10498,13 +10439,13 @@
         <v>1307</v>
       </c>
       <c r="E249" t="s">
-        <v>1548</v>
+        <v>1536</v>
       </c>
       <c r="F249" t="s">
         <v>0</v>
       </c>
       <c r="G249" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -10524,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="G250" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -10538,13 +10479,13 @@
         <v>1309</v>
       </c>
       <c r="E251" t="s">
-        <v>1549</v>
+        <v>1537</v>
       </c>
       <c r="F251" t="s">
         <v>0</v>
       </c>
       <c r="G251" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -10564,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="G252" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -10578,13 +10519,13 @@
         <v>1311</v>
       </c>
       <c r="E253" t="s">
-        <v>1550</v>
+        <v>1538</v>
       </c>
       <c r="F253" t="s">
         <v>0</v>
       </c>
       <c r="G253" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -10604,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="G254" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -10618,13 +10559,13 @@
         <v>1313</v>
       </c>
       <c r="E255" t="s">
-        <v>1551</v>
+        <v>1539</v>
       </c>
       <c r="F255" t="s">
         <v>0</v>
       </c>
       <c r="G255" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -10638,13 +10579,13 @@
         <v>1315</v>
       </c>
       <c r="E256" t="s">
-        <v>1552</v>
+        <v>1540</v>
       </c>
       <c r="F256" t="s">
         <v>0</v>
       </c>
       <c r="G256" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -10664,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="G257" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -10684,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="G258" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -10704,7 +10645,7 @@
         <v>0</v>
       </c>
       <c r="G259" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -10724,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="G260" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -10744,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="G261" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -10764,7 +10705,7 @@
         <v>0</v>
       </c>
       <c r="G262" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -10784,7 +10725,7 @@
         <v>0</v>
       </c>
       <c r="G263" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -10798,13 +10739,13 @@
         <v>1317</v>
       </c>
       <c r="E264" t="s">
-        <v>1553</v>
+        <v>1541</v>
       </c>
       <c r="F264" t="s">
         <v>0</v>
       </c>
       <c r="G264" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -10824,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="G265" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -10844,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="G266" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -10858,13 +10799,13 @@
         <v>1319</v>
       </c>
       <c r="E267" t="s">
-        <v>1554</v>
+        <v>1542</v>
       </c>
       <c r="F267" t="s">
         <v>0</v>
       </c>
       <c r="G267" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -10884,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="G268" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -10904,7 +10845,7 @@
         <v>0</v>
       </c>
       <c r="G269" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -10924,7 +10865,7 @@
         <v>0</v>
       </c>
       <c r="G270" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -10944,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="G271" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -10964,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -10984,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="G273" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -11004,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="G274" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -11024,7 +10965,7 @@
         <v>0</v>
       </c>
       <c r="G275" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -11044,7 +10985,7 @@
         <v>0</v>
       </c>
       <c r="G276" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -11058,13 +10999,13 @@
         <v>1321</v>
       </c>
       <c r="E277" t="s">
-        <v>1555</v>
+        <v>1543</v>
       </c>
       <c r="F277" t="s">
         <v>0</v>
       </c>
       <c r="G277" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -11084,7 +11025,7 @@
         <v>0</v>
       </c>
       <c r="G278" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -11104,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="G279" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -11124,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="G280" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -11144,7 +11085,7 @@
         <v>0</v>
       </c>
       <c r="G281" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -11164,7 +11105,7 @@
         <v>0</v>
       </c>
       <c r="G282" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -11184,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="G283" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -11204,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="G284" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -11212,19 +11153,19 @@
         <v>12</v>
       </c>
       <c r="B285" t="s">
-        <v>1669</v>
+        <v>1652</v>
       </c>
       <c r="D285" t="s">
-        <v>1645</v>
+        <v>1628</v>
       </c>
       <c r="E285" t="s">
-        <v>1695</v>
+        <v>1678</v>
       </c>
       <c r="F285" t="s">
         <v>0</v>
       </c>
       <c r="G285" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -11244,7 +11185,7 @@
         <v>0</v>
       </c>
       <c r="G286" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -11264,7 +11205,7 @@
         <v>0</v>
       </c>
       <c r="G287" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -11284,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="G288" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -11304,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="G289" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -11324,7 +11265,7 @@
         <v>0</v>
       </c>
       <c r="G290" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -11344,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="G291" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -11364,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="G292" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -11384,7 +11325,7 @@
         <v>0</v>
       </c>
       <c r="G293" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
@@ -11404,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="G294" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
@@ -11424,7 +11365,7 @@
         <v>0</v>
       </c>
       <c r="G295" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -11444,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="G296" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -11458,13 +11399,13 @@
         <v>1323</v>
       </c>
       <c r="E297" t="s">
-        <v>1556</v>
+        <v>1544</v>
       </c>
       <c r="F297" t="s">
         <v>0</v>
       </c>
       <c r="G297" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -11484,7 +11425,7 @@
         <v>0</v>
       </c>
       <c r="G298" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
@@ -11504,7 +11445,7 @@
         <v>0</v>
       </c>
       <c r="G299" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -11524,7 +11465,7 @@
         <v>0</v>
       </c>
       <c r="G300" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
@@ -11538,13 +11479,13 @@
         <v>1325</v>
       </c>
       <c r="E301" t="s">
-        <v>1557</v>
+        <v>1545</v>
       </c>
       <c r="F301" t="s">
         <v>0</v>
       </c>
       <c r="G301" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
@@ -11558,13 +11499,13 @@
         <v>1327</v>
       </c>
       <c r="E302" t="s">
-        <v>1558</v>
+        <v>1546</v>
       </c>
       <c r="F302" t="s">
         <v>0</v>
       </c>
       <c r="G302" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
@@ -11578,13 +11519,13 @@
         <v>1329</v>
       </c>
       <c r="E303" t="s">
-        <v>1559</v>
+        <v>1547</v>
       </c>
       <c r="F303" t="s">
         <v>0</v>
       </c>
       <c r="G303" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
@@ -11604,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="G304" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -11624,7 +11565,7 @@
         <v>0</v>
       </c>
       <c r="G305" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
@@ -11638,13 +11579,13 @@
         <v>1331</v>
       </c>
       <c r="E306" t="s">
-        <v>1560</v>
+        <v>1548</v>
       </c>
       <c r="F306" t="s">
         <v>0</v>
       </c>
       <c r="G306" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
@@ -11658,13 +11599,13 @@
         <v>1333</v>
       </c>
       <c r="E307" t="s">
-        <v>1561</v>
+        <v>1549</v>
       </c>
       <c r="F307" t="s">
         <v>0</v>
       </c>
       <c r="G307" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
@@ -11684,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="G308" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
@@ -11704,7 +11645,7 @@
         <v>0</v>
       </c>
       <c r="G309" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -11718,13 +11659,13 @@
         <v>1335</v>
       </c>
       <c r="E310" t="s">
-        <v>1562</v>
+        <v>1550</v>
       </c>
       <c r="F310" t="s">
         <v>0</v>
       </c>
       <c r="G310" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -11738,13 +11679,13 @@
         <v>1337</v>
       </c>
       <c r="E311" t="s">
-        <v>1563</v>
+        <v>1551</v>
       </c>
       <c r="F311" t="s">
         <v>0</v>
       </c>
       <c r="G311" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -11764,87 +11705,87 @@
         <v>0</v>
       </c>
       <c r="G312" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B313" t="s">
-        <v>1338</v>
+        <v>691</v>
       </c>
       <c r="D313" t="s">
-        <v>1339</v>
+        <v>692</v>
       </c>
       <c r="E313" t="s">
-        <v>1564</v>
+        <v>693</v>
       </c>
       <c r="F313" t="s">
         <v>0</v>
       </c>
       <c r="G313" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B314" t="s">
-        <v>691</v>
+        <v>1338</v>
       </c>
       <c r="D314" t="s">
-        <v>692</v>
+        <v>1339</v>
       </c>
       <c r="E314" t="s">
-        <v>693</v>
+        <v>1340</v>
       </c>
       <c r="F314" t="s">
         <v>0</v>
       </c>
       <c r="G314" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B315" t="s">
-        <v>1340</v>
+        <v>694</v>
       </c>
       <c r="D315" t="s">
-        <v>1341</v>
+        <v>695</v>
       </c>
       <c r="E315" t="s">
-        <v>1342</v>
+        <v>696</v>
       </c>
       <c r="F315" t="s">
         <v>0</v>
       </c>
       <c r="G315" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B316" t="s">
-        <v>694</v>
+        <v>1341</v>
       </c>
       <c r="D316" t="s">
-        <v>695</v>
+        <v>1342</v>
       </c>
       <c r="E316" t="s">
-        <v>696</v>
+        <v>1340</v>
       </c>
       <c r="F316" t="s">
         <v>0</v>
       </c>
       <c r="G316" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
@@ -11858,13 +11799,13 @@
         <v>1344</v>
       </c>
       <c r="E317" t="s">
-        <v>1342</v>
+        <v>1552</v>
       </c>
       <c r="F317" t="s">
         <v>0</v>
       </c>
       <c r="G317" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -11872,159 +11813,159 @@
         <v>9</v>
       </c>
       <c r="B318" t="s">
-        <v>1345</v>
+        <v>697</v>
       </c>
       <c r="D318" t="s">
-        <v>1346</v>
+        <v>698</v>
       </c>
       <c r="E318" t="s">
-        <v>1565</v>
+        <v>699</v>
       </c>
       <c r="F318" t="s">
         <v>0</v>
       </c>
       <c r="G318" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B319" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="D319" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="E319" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="F319" t="s">
         <v>0</v>
       </c>
       <c r="G319" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B320" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="D320" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="E320" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F320" t="s">
         <v>0</v>
       </c>
       <c r="G320" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B321" t="s">
-        <v>703</v>
+        <v>1345</v>
       </c>
       <c r="D321" t="s">
-        <v>704</v>
+        <v>1346</v>
       </c>
       <c r="E321" t="s">
-        <v>705</v>
+        <v>1553</v>
       </c>
       <c r="F321" t="s">
         <v>0</v>
       </c>
       <c r="G321" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B322" t="s">
-        <v>1347</v>
+        <v>706</v>
       </c>
       <c r="D322" t="s">
-        <v>1348</v>
+        <v>707</v>
       </c>
       <c r="E322" t="s">
-        <v>1566</v>
+        <v>708</v>
       </c>
       <c r="F322" t="s">
         <v>0</v>
       </c>
       <c r="G322" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B323" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="D323" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="E323" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="F323" t="s">
         <v>0</v>
       </c>
       <c r="G323" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B324" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="D324" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="E324" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="F324" t="s">
         <v>0</v>
       </c>
       <c r="G324" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B325" t="s">
-        <v>1349</v>
+        <v>1653</v>
       </c>
       <c r="D325" t="s">
-        <v>1350</v>
+        <v>1629</v>
       </c>
       <c r="E325" t="s">
-        <v>1567</v>
+        <v>1679</v>
       </c>
       <c r="F325" t="s">
         <v>0</v>
       </c>
       <c r="G325" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -12032,79 +11973,79 @@
         <v>8</v>
       </c>
       <c r="B326" t="s">
-        <v>712</v>
+        <v>1347</v>
       </c>
       <c r="D326" t="s">
-        <v>713</v>
+        <v>1348</v>
       </c>
       <c r="E326" t="s">
-        <v>714</v>
+        <v>1554</v>
       </c>
       <c r="F326" t="s">
         <v>0</v>
       </c>
       <c r="G326" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B327" t="s">
-        <v>1670</v>
+        <v>715</v>
       </c>
       <c r="D327" t="s">
-        <v>1646</v>
+        <v>716</v>
       </c>
       <c r="E327" t="s">
-        <v>1696</v>
+        <v>717</v>
       </c>
       <c r="F327" t="s">
         <v>0</v>
       </c>
       <c r="G327" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B328" t="s">
-        <v>1351</v>
+        <v>718</v>
       </c>
       <c r="D328" t="s">
-        <v>1352</v>
+        <v>719</v>
       </c>
       <c r="E328" t="s">
-        <v>1568</v>
+        <v>720</v>
       </c>
       <c r="F328" t="s">
         <v>0</v>
       </c>
       <c r="G328" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B329" t="s">
-        <v>715</v>
+        <v>1349</v>
       </c>
       <c r="D329" t="s">
-        <v>716</v>
+        <v>1350</v>
       </c>
       <c r="E329" t="s">
-        <v>717</v>
+        <v>1555</v>
       </c>
       <c r="F329" t="s">
         <v>0</v>
       </c>
       <c r="G329" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
@@ -12112,19 +12053,19 @@
         <v>9</v>
       </c>
       <c r="B330" t="s">
-        <v>718</v>
+        <v>1351</v>
       </c>
       <c r="D330" t="s">
-        <v>719</v>
+        <v>1352</v>
       </c>
       <c r="E330" t="s">
-        <v>720</v>
+        <v>1556</v>
       </c>
       <c r="F330" t="s">
         <v>0</v>
       </c>
       <c r="G330" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -12138,73 +12079,73 @@
         <v>1354</v>
       </c>
       <c r="E331" t="s">
-        <v>1569</v>
+        <v>1557</v>
       </c>
       <c r="F331" t="s">
         <v>0</v>
       </c>
       <c r="G331" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B332" t="s">
-        <v>1355</v>
+        <v>721</v>
       </c>
       <c r="D332" t="s">
-        <v>1356</v>
+        <v>722</v>
       </c>
       <c r="E332" t="s">
-        <v>1570</v>
+        <v>723</v>
       </c>
       <c r="F332" t="s">
         <v>0</v>
       </c>
       <c r="G332" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B333" t="s">
-        <v>1357</v>
+        <v>724</v>
       </c>
       <c r="D333" t="s">
-        <v>1358</v>
+        <v>725</v>
       </c>
       <c r="E333" t="s">
-        <v>1571</v>
+        <v>726</v>
       </c>
       <c r="F333" t="s">
         <v>0</v>
       </c>
       <c r="G333" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B334" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="D334" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="E334" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="F334" t="s">
         <v>0</v>
       </c>
       <c r="G334" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
@@ -12212,39 +12153,39 @@
         <v>8</v>
       </c>
       <c r="B335" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="D335" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="E335" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="F335" t="s">
         <v>0</v>
       </c>
       <c r="G335" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B336" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="D336" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="E336" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="F336" t="s">
         <v>0</v>
       </c>
       <c r="G336" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -12252,19 +12193,19 @@
         <v>8</v>
       </c>
       <c r="B337" t="s">
-        <v>730</v>
+        <v>1355</v>
       </c>
       <c r="D337" t="s">
-        <v>731</v>
+        <v>1356</v>
       </c>
       <c r="E337" t="s">
-        <v>732</v>
+        <v>1558</v>
       </c>
       <c r="F337" t="s">
         <v>0</v>
       </c>
       <c r="G337" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
@@ -12272,19 +12213,19 @@
         <v>8</v>
       </c>
       <c r="B338" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D338" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="E338" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="F338" t="s">
         <v>0</v>
       </c>
       <c r="G338" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
@@ -12292,19 +12233,19 @@
         <v>8</v>
       </c>
       <c r="B339" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="D339" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="E339" t="s">
-        <v>1572</v>
+        <v>1559</v>
       </c>
       <c r="F339" t="s">
         <v>0</v>
       </c>
       <c r="G339" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
@@ -12312,19 +12253,19 @@
         <v>8</v>
       </c>
       <c r="B340" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="D340" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="E340" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="F340" t="s">
         <v>0</v>
       </c>
       <c r="G340" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
@@ -12332,19 +12273,19 @@
         <v>8</v>
       </c>
       <c r="B341" t="s">
-        <v>1361</v>
+        <v>742</v>
       </c>
       <c r="D341" t="s">
-        <v>1362</v>
+        <v>743</v>
       </c>
       <c r="E341" t="s">
-        <v>1573</v>
+        <v>744</v>
       </c>
       <c r="F341" t="s">
         <v>0</v>
       </c>
       <c r="G341" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
@@ -12352,39 +12293,39 @@
         <v>8</v>
       </c>
       <c r="B342" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="D342" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="E342" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="F342" t="s">
         <v>0</v>
       </c>
       <c r="G342" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B343" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="D343" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="E343" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="F343" t="s">
         <v>0</v>
       </c>
       <c r="G343" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
@@ -12392,39 +12333,39 @@
         <v>8</v>
       </c>
       <c r="B344" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="D344" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="E344" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="F344" t="s">
         <v>0</v>
       </c>
       <c r="G344" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B345" t="s">
-        <v>748</v>
+        <v>1359</v>
       </c>
       <c r="D345" t="s">
-        <v>749</v>
+        <v>1360</v>
       </c>
       <c r="E345" t="s">
-        <v>750</v>
+        <v>1560</v>
       </c>
       <c r="F345" t="s">
         <v>0</v>
       </c>
       <c r="G345" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
@@ -12432,19 +12373,19 @@
         <v>8</v>
       </c>
       <c r="B346" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="D346" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="E346" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="F346" t="s">
         <v>0</v>
       </c>
       <c r="G346" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
@@ -12452,64 +12393,64 @@
         <v>8</v>
       </c>
       <c r="B347" t="s">
-        <v>1363</v>
+        <v>757</v>
       </c>
       <c r="D347" t="s">
-        <v>1364</v>
+        <v>758</v>
       </c>
       <c r="E347" t="s">
-        <v>1574</v>
+        <v>759</v>
       </c>
       <c r="F347" t="s">
         <v>0</v>
       </c>
       <c r="G347" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B348" t="s">
-        <v>754</v>
+        <v>1361</v>
       </c>
       <c r="D348" t="s">
-        <v>755</v>
+        <v>1362</v>
       </c>
       <c r="E348" t="s">
-        <v>756</v>
+        <v>1561</v>
       </c>
       <c r="F348" t="s">
         <v>0</v>
       </c>
       <c r="G348" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B349" t="s">
-        <v>757</v>
+        <v>1363</v>
       </c>
       <c r="D349" t="s">
-        <v>758</v>
+        <v>1364</v>
       </c>
       <c r="E349" t="s">
-        <v>759</v>
+        <v>1562</v>
       </c>
       <c r="F349" t="s">
         <v>0</v>
       </c>
       <c r="G349" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B350" t="s">
         <v>1365</v>
@@ -12518,33 +12459,33 @@
         <v>1366</v>
       </c>
       <c r="E350" t="s">
-        <v>1575</v>
+        <v>1563</v>
       </c>
       <c r="F350" t="s">
         <v>0</v>
       </c>
       <c r="G350" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B351" t="s">
-        <v>1367</v>
+        <v>760</v>
       </c>
       <c r="D351" t="s">
-        <v>1368</v>
+        <v>761</v>
       </c>
       <c r="E351" t="s">
-        <v>1576</v>
+        <v>762</v>
       </c>
       <c r="F351" t="s">
         <v>0</v>
       </c>
       <c r="G351" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
@@ -12552,39 +12493,39 @@
         <v>8</v>
       </c>
       <c r="B352" t="s">
-        <v>1369</v>
+        <v>763</v>
       </c>
       <c r="D352" t="s">
-        <v>1370</v>
+        <v>764</v>
       </c>
       <c r="E352" t="s">
-        <v>1577</v>
+        <v>765</v>
       </c>
       <c r="F352" t="s">
         <v>0</v>
       </c>
       <c r="G352" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B353" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="D353" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="E353" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="F353" t="s">
         <v>0</v>
       </c>
       <c r="G353" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
@@ -12592,19 +12533,19 @@
         <v>8</v>
       </c>
       <c r="B354" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="D354" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="E354" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="F354" t="s">
         <v>0</v>
       </c>
       <c r="G354" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
@@ -12612,19 +12553,19 @@
         <v>9</v>
       </c>
       <c r="B355" t="s">
-        <v>766</v>
+        <v>1367</v>
       </c>
       <c r="D355" t="s">
-        <v>767</v>
+        <v>1368</v>
       </c>
       <c r="E355" t="s">
-        <v>768</v>
+        <v>1564</v>
       </c>
       <c r="F355" t="s">
         <v>0</v>
       </c>
       <c r="G355" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
@@ -12632,39 +12573,39 @@
         <v>8</v>
       </c>
       <c r="B356" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="D356" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="E356" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="F356" t="s">
         <v>0</v>
       </c>
       <c r="G356" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B357" t="s">
-        <v>1371</v>
+        <v>775</v>
       </c>
       <c r="D357" t="s">
-        <v>1372</v>
+        <v>776</v>
       </c>
       <c r="E357" t="s">
-        <v>1578</v>
+        <v>777</v>
       </c>
       <c r="F357" t="s">
         <v>0</v>
       </c>
       <c r="G357" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
@@ -12672,39 +12613,39 @@
         <v>9</v>
       </c>
       <c r="B358" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="D358" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="E358" t="s">
-        <v>1579</v>
+        <v>1565</v>
       </c>
       <c r="F358" t="s">
         <v>0</v>
       </c>
       <c r="G358" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B359" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="D359" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="E359" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="F359" t="s">
         <v>0</v>
       </c>
       <c r="G359" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
@@ -12712,19 +12653,19 @@
         <v>8</v>
       </c>
       <c r="B360" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="D360" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="E360" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="F360" t="s">
         <v>0</v>
       </c>
       <c r="G360" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
@@ -12732,19 +12673,19 @@
         <v>9</v>
       </c>
       <c r="B361" t="s">
-        <v>1375</v>
+        <v>784</v>
       </c>
       <c r="D361" t="s">
-        <v>1376</v>
+        <v>785</v>
       </c>
       <c r="E361" t="s">
-        <v>1580</v>
+        <v>786</v>
       </c>
       <c r="F361" t="s">
         <v>0</v>
       </c>
       <c r="G361" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
@@ -12752,19 +12693,19 @@
         <v>9</v>
       </c>
       <c r="B362" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="D362" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="E362" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="F362" t="s">
         <v>0</v>
       </c>
       <c r="G362" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
@@ -12772,19 +12713,19 @@
         <v>8</v>
       </c>
       <c r="B363" t="s">
-        <v>781</v>
+        <v>1371</v>
       </c>
       <c r="D363" t="s">
-        <v>782</v>
+        <v>1372</v>
       </c>
       <c r="E363" t="s">
-        <v>783</v>
+        <v>1566</v>
       </c>
       <c r="F363" t="s">
         <v>0</v>
       </c>
       <c r="G363" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
@@ -12792,19 +12733,19 @@
         <v>9</v>
       </c>
       <c r="B364" t="s">
-        <v>784</v>
+        <v>1373</v>
       </c>
       <c r="D364" t="s">
-        <v>785</v>
+        <v>1374</v>
       </c>
       <c r="E364" t="s">
-        <v>786</v>
+        <v>1567</v>
       </c>
       <c r="F364" t="s">
         <v>0</v>
       </c>
       <c r="G364" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
@@ -12812,59 +12753,59 @@
         <v>9</v>
       </c>
       <c r="B365" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="D365" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="E365" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="F365" t="s">
         <v>0</v>
       </c>
       <c r="G365" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B366" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="D366" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="E366" t="s">
-        <v>1581</v>
+        <v>1568</v>
       </c>
       <c r="F366" t="s">
         <v>0</v>
       </c>
       <c r="G366" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>9</v>
+        <v>1660</v>
       </c>
       <c r="B367" t="s">
-        <v>1379</v>
+        <v>1654</v>
       </c>
       <c r="D367" t="s">
-        <v>1380</v>
+        <v>1630</v>
       </c>
       <c r="E367" t="s">
-        <v>1582</v>
+        <v>1680</v>
       </c>
       <c r="F367" t="s">
         <v>0</v>
       </c>
       <c r="G367" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
@@ -12872,59 +12813,59 @@
         <v>9</v>
       </c>
       <c r="B368" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="D368" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="E368" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="F368" t="s">
         <v>0</v>
       </c>
       <c r="G368" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B369" t="s">
-        <v>1381</v>
+        <v>796</v>
       </c>
       <c r="D369" t="s">
-        <v>1382</v>
+        <v>797</v>
       </c>
       <c r="E369" t="s">
-        <v>1583</v>
+        <v>798</v>
       </c>
       <c r="F369" t="s">
         <v>0</v>
       </c>
       <c r="G369" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1677</v>
+        <v>9</v>
       </c>
       <c r="B370" t="s">
-        <v>1671</v>
+        <v>1377</v>
       </c>
       <c r="D370" t="s">
-        <v>1647</v>
+        <v>1378</v>
       </c>
       <c r="E370" t="s">
-        <v>1697</v>
+        <v>1569</v>
       </c>
       <c r="F370" t="s">
         <v>0</v>
       </c>
       <c r="G370" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
@@ -12932,19 +12873,19 @@
         <v>9</v>
       </c>
       <c r="B371" t="s">
-        <v>793</v>
+        <v>1379</v>
       </c>
       <c r="D371" t="s">
-        <v>794</v>
+        <v>1380</v>
       </c>
       <c r="E371" t="s">
-        <v>795</v>
+        <v>1570</v>
       </c>
       <c r="F371" t="s">
         <v>0</v>
       </c>
       <c r="G371" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
@@ -12952,59 +12893,59 @@
         <v>8</v>
       </c>
       <c r="B372" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="D372" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="E372" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="F372" t="s">
         <v>0</v>
       </c>
       <c r="G372" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B373" t="s">
-        <v>1383</v>
+        <v>802</v>
       </c>
       <c r="D373" t="s">
-        <v>1384</v>
+        <v>803</v>
       </c>
       <c r="E373" t="s">
-        <v>1584</v>
+        <v>804</v>
       </c>
       <c r="F373" t="s">
         <v>0</v>
       </c>
       <c r="G373" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B374" t="s">
-        <v>1385</v>
+        <v>805</v>
       </c>
       <c r="D374" t="s">
-        <v>1386</v>
+        <v>806</v>
       </c>
       <c r="E374" t="s">
-        <v>1585</v>
+        <v>807</v>
       </c>
       <c r="F374" t="s">
         <v>0</v>
       </c>
       <c r="G374" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
@@ -13012,79 +12953,79 @@
         <v>8</v>
       </c>
       <c r="B375" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="D375" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="E375" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="F375" t="s">
         <v>0</v>
       </c>
       <c r="G375" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B376" t="s">
-        <v>1387</v>
+        <v>811</v>
       </c>
       <c r="D376" t="s">
-        <v>1388</v>
+        <v>812</v>
       </c>
       <c r="E376" t="s">
-        <v>1586</v>
+        <v>813</v>
       </c>
       <c r="F376" t="s">
         <v>0</v>
       </c>
       <c r="G376" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B377" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="D377" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="E377" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="F377" t="s">
         <v>0</v>
       </c>
       <c r="G377" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B378" t="s">
-        <v>805</v>
+        <v>1381</v>
       </c>
       <c r="D378" t="s">
-        <v>806</v>
+        <v>1382</v>
       </c>
       <c r="E378" t="s">
-        <v>807</v>
+        <v>1571</v>
       </c>
       <c r="F378" t="s">
         <v>0</v>
       </c>
       <c r="G378" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
@@ -13092,99 +13033,99 @@
         <v>8</v>
       </c>
       <c r="B379" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="D379" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="E379" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="F379" t="s">
         <v>0</v>
       </c>
       <c r="G379" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B380" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="D380" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="E380" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="F380" t="s">
         <v>0</v>
       </c>
       <c r="G380" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B381" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="D381" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="E381" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="F381" t="s">
         <v>0</v>
       </c>
       <c r="G381" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B382" t="s">
-        <v>1389</v>
+        <v>826</v>
       </c>
       <c r="D382" t="s">
-        <v>1390</v>
+        <v>827</v>
       </c>
       <c r="E382" t="s">
-        <v>1587</v>
+        <v>828</v>
       </c>
       <c r="F382" t="s">
         <v>0</v>
       </c>
       <c r="G382" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B383" t="s">
-        <v>817</v>
+        <v>1383</v>
       </c>
       <c r="D383" t="s">
-        <v>818</v>
+        <v>1384</v>
       </c>
       <c r="E383" t="s">
-        <v>819</v>
+        <v>1572</v>
       </c>
       <c r="F383" t="s">
         <v>0</v>
       </c>
       <c r="G383" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
@@ -13192,39 +13133,39 @@
         <v>9</v>
       </c>
       <c r="B384" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="D384" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="E384" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="F384" t="s">
         <v>0</v>
       </c>
       <c r="G384" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B385" t="s">
-        <v>823</v>
+        <v>1385</v>
       </c>
       <c r="D385" t="s">
-        <v>824</v>
+        <v>1386</v>
       </c>
       <c r="E385" t="s">
-        <v>825</v>
+        <v>1573</v>
       </c>
       <c r="F385" t="s">
         <v>0</v>
       </c>
       <c r="G385" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
@@ -13232,59 +13173,59 @@
         <v>8</v>
       </c>
       <c r="B386" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="D386" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="E386" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="F386" t="s">
         <v>0</v>
       </c>
       <c r="G386" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B387" t="s">
-        <v>1391</v>
+        <v>835</v>
       </c>
       <c r="D387" t="s">
-        <v>1392</v>
+        <v>836</v>
       </c>
       <c r="E387" t="s">
-        <v>1588</v>
+        <v>837</v>
       </c>
       <c r="F387" t="s">
         <v>0</v>
       </c>
       <c r="G387" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B388" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="D388" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="E388" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="F388" t="s">
         <v>0</v>
       </c>
       <c r="G388" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
@@ -13292,79 +13233,79 @@
         <v>9</v>
       </c>
       <c r="B389" t="s">
-        <v>1393</v>
+        <v>841</v>
       </c>
       <c r="D389" t="s">
-        <v>1394</v>
+        <v>842</v>
       </c>
       <c r="E389" t="s">
-        <v>1589</v>
+        <v>843</v>
       </c>
       <c r="F389" t="s">
         <v>0</v>
       </c>
       <c r="G389" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B390" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="D390" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="E390" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="F390" t="s">
         <v>0</v>
       </c>
       <c r="G390" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B391" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="D391" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="E391" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="F391" t="s">
         <v>0</v>
       </c>
       <c r="G391" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B392" t="s">
-        <v>838</v>
+        <v>1387</v>
       </c>
       <c r="D392" t="s">
-        <v>839</v>
+        <v>1388</v>
       </c>
       <c r="E392" t="s">
-        <v>840</v>
+        <v>1574</v>
       </c>
       <c r="F392" t="s">
         <v>0</v>
       </c>
       <c r="G392" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
@@ -13372,19 +13313,19 @@
         <v>9</v>
       </c>
       <c r="B393" t="s">
-        <v>841</v>
+        <v>1389</v>
       </c>
       <c r="D393" t="s">
-        <v>842</v>
+        <v>1390</v>
       </c>
       <c r="E393" t="s">
-        <v>843</v>
+        <v>1575</v>
       </c>
       <c r="F393" t="s">
         <v>0</v>
       </c>
       <c r="G393" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
@@ -13392,19 +13333,19 @@
         <v>9</v>
       </c>
       <c r="B394" t="s">
-        <v>844</v>
+        <v>1391</v>
       </c>
       <c r="D394" t="s">
-        <v>845</v>
+        <v>1392</v>
       </c>
       <c r="E394" t="s">
-        <v>846</v>
+        <v>1576</v>
       </c>
       <c r="F394" t="s">
         <v>0</v>
       </c>
       <c r="G394" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
@@ -13412,39 +13353,39 @@
         <v>9</v>
       </c>
       <c r="B395" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="D395" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="E395" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="F395" t="s">
         <v>0</v>
       </c>
       <c r="G395" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B396" t="s">
-        <v>1395</v>
+        <v>853</v>
       </c>
       <c r="D396" t="s">
-        <v>1396</v>
+        <v>854</v>
       </c>
       <c r="E396" t="s">
-        <v>1590</v>
+        <v>855</v>
       </c>
       <c r="F396" t="s">
         <v>0</v>
       </c>
       <c r="G396" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
@@ -13452,39 +13393,39 @@
         <v>9</v>
       </c>
       <c r="B397" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="D397" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="E397" t="s">
-        <v>1591</v>
+        <v>1577</v>
       </c>
       <c r="F397" t="s">
         <v>0</v>
       </c>
       <c r="G397" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B398" t="s">
-        <v>1399</v>
+        <v>856</v>
       </c>
       <c r="D398" t="s">
-        <v>1400</v>
+        <v>857</v>
       </c>
       <c r="E398" t="s">
-        <v>1592</v>
+        <v>858</v>
       </c>
       <c r="F398" t="s">
         <v>0</v>
       </c>
       <c r="G398" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
@@ -13492,19 +13433,19 @@
         <v>9</v>
       </c>
       <c r="B399" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="D399" t="s">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="E399" t="s">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="F399" t="s">
         <v>0</v>
       </c>
       <c r="G399" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
@@ -13512,59 +13453,59 @@
         <v>8</v>
       </c>
       <c r="B400" t="s">
-        <v>853</v>
+        <v>1395</v>
       </c>
       <c r="D400" t="s">
-        <v>854</v>
+        <v>1396</v>
       </c>
       <c r="E400" t="s">
-        <v>855</v>
+        <v>1578</v>
       </c>
       <c r="F400" t="s">
         <v>0</v>
       </c>
       <c r="G400" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B401" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="D401" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="E401" t="s">
-        <v>1593</v>
+        <v>1579</v>
       </c>
       <c r="F401" t="s">
         <v>0</v>
       </c>
       <c r="G401" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B402" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="D402" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="E402" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="F402" t="s">
         <v>0</v>
       </c>
       <c r="G402" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
@@ -13572,39 +13513,39 @@
         <v>9</v>
       </c>
       <c r="B403" t="s">
-        <v>859</v>
+        <v>1399</v>
       </c>
       <c r="D403" t="s">
-        <v>860</v>
+        <v>1400</v>
       </c>
       <c r="E403" t="s">
-        <v>861</v>
+        <v>1580</v>
       </c>
       <c r="F403" t="s">
         <v>0</v>
       </c>
       <c r="G403" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B404" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="D404" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="E404" t="s">
-        <v>1594</v>
+        <v>1581</v>
       </c>
       <c r="F404" t="s">
         <v>0</v>
       </c>
       <c r="G404" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
@@ -13612,79 +13553,79 @@
         <v>8</v>
       </c>
       <c r="B405" t="s">
-        <v>1405</v>
+        <v>865</v>
       </c>
       <c r="D405" t="s">
-        <v>1406</v>
+        <v>866</v>
       </c>
       <c r="E405" t="s">
-        <v>1595</v>
+        <v>867</v>
       </c>
       <c r="F405" t="s">
         <v>0</v>
       </c>
       <c r="G405" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B406" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="D406" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="E406" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="F406" t="s">
         <v>0</v>
       </c>
       <c r="G406" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B407" t="s">
-        <v>1407</v>
+        <v>871</v>
       </c>
       <c r="D407" t="s">
-        <v>1408</v>
+        <v>872</v>
       </c>
       <c r="E407" t="s">
-        <v>1596</v>
+        <v>873</v>
       </c>
       <c r="F407" t="s">
         <v>0</v>
       </c>
       <c r="G407" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B408" t="s">
-        <v>1409</v>
+        <v>874</v>
       </c>
       <c r="D408" t="s">
-        <v>1410</v>
+        <v>875</v>
       </c>
       <c r="E408" t="s">
-        <v>1597</v>
+        <v>876</v>
       </c>
       <c r="F408" t="s">
         <v>0</v>
       </c>
       <c r="G408" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
@@ -13692,59 +13633,59 @@
         <v>8</v>
       </c>
       <c r="B409" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
       <c r="D409" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="E409" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="F409" t="s">
         <v>0</v>
       </c>
       <c r="G409" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B410" t="s">
-        <v>868</v>
+        <v>1403</v>
       </c>
       <c r="D410" t="s">
-        <v>869</v>
+        <v>1404</v>
       </c>
       <c r="E410" t="s">
-        <v>870</v>
+        <v>1582</v>
       </c>
       <c r="F410" t="s">
         <v>0</v>
       </c>
       <c r="G410" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B411" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="D411" t="s">
-        <v>872</v>
+        <v>881</v>
       </c>
       <c r="E411" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="F411" t="s">
         <v>0</v>
       </c>
       <c r="G411" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
@@ -13752,59 +13693,59 @@
         <v>8</v>
       </c>
       <c r="B412" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="D412" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
       <c r="E412" t="s">
-        <v>876</v>
+        <v>885</v>
       </c>
       <c r="F412" t="s">
         <v>0</v>
       </c>
       <c r="G412" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B413" t="s">
-        <v>877</v>
+        <v>886</v>
       </c>
       <c r="D413" t="s">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="E413" t="s">
-        <v>879</v>
+        <v>888</v>
       </c>
       <c r="F413" t="s">
         <v>0</v>
       </c>
       <c r="G413" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B414" t="s">
-        <v>1411</v>
+        <v>889</v>
       </c>
       <c r="D414" t="s">
-        <v>1412</v>
+        <v>890</v>
       </c>
       <c r="E414" t="s">
-        <v>1598</v>
+        <v>891</v>
       </c>
       <c r="F414" t="s">
         <v>0</v>
       </c>
       <c r="G414" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -13812,19 +13753,19 @@
         <v>9</v>
       </c>
       <c r="B415" t="s">
-        <v>880</v>
+        <v>1405</v>
       </c>
       <c r="D415" t="s">
-        <v>881</v>
+        <v>1406</v>
       </c>
       <c r="E415" t="s">
-        <v>882</v>
+        <v>1583</v>
       </c>
       <c r="F415" t="s">
         <v>0</v>
       </c>
       <c r="G415" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
@@ -13832,79 +13773,79 @@
         <v>8</v>
       </c>
       <c r="B416" t="s">
-        <v>883</v>
+        <v>892</v>
       </c>
       <c r="D416" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="E416" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="F416" t="s">
         <v>0</v>
       </c>
       <c r="G416" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B417" t="s">
-        <v>1413</v>
+        <v>895</v>
       </c>
       <c r="D417" t="s">
-        <v>1414</v>
+        <v>896</v>
       </c>
       <c r="E417" t="s">
-        <v>1598</v>
+        <v>897</v>
       </c>
       <c r="F417" t="s">
         <v>0</v>
       </c>
       <c r="G417" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>9</v>
+        <v>1660</v>
       </c>
       <c r="B418" t="s">
-        <v>886</v>
+        <v>1655</v>
       </c>
       <c r="D418" t="s">
-        <v>887</v>
+        <v>1631</v>
       </c>
       <c r="E418" t="s">
-        <v>888</v>
+        <v>1681</v>
       </c>
       <c r="F418" t="s">
         <v>0</v>
       </c>
       <c r="G418" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B419" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="D419" t="s">
-        <v>890</v>
+        <v>899</v>
       </c>
       <c r="E419" t="s">
-        <v>891</v>
+        <v>900</v>
       </c>
       <c r="F419" t="s">
         <v>0</v>
       </c>
       <c r="G419" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -13912,39 +13853,39 @@
         <v>9</v>
       </c>
       <c r="B420" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="D420" t="s">
-        <v>1416</v>
+        <v>1408</v>
       </c>
       <c r="E420" t="s">
-        <v>1599</v>
+        <v>1584</v>
       </c>
       <c r="F420" t="s">
         <v>0</v>
       </c>
       <c r="G420" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B421" t="s">
-        <v>892</v>
+        <v>1409</v>
       </c>
       <c r="D421" t="s">
-        <v>893</v>
+        <v>1410</v>
       </c>
       <c r="E421" t="s">
-        <v>894</v>
+        <v>1585</v>
       </c>
       <c r="F421" t="s">
         <v>0</v>
       </c>
       <c r="G421" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
@@ -13952,99 +13893,99 @@
         <v>8</v>
       </c>
       <c r="B422" t="s">
-        <v>895</v>
+        <v>1411</v>
       </c>
       <c r="D422" t="s">
-        <v>896</v>
+        <v>1412</v>
       </c>
       <c r="E422" t="s">
-        <v>897</v>
+        <v>1586</v>
       </c>
       <c r="F422" t="s">
         <v>0</v>
       </c>
       <c r="G422" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1677</v>
+        <v>8</v>
       </c>
       <c r="B423" t="s">
-        <v>1672</v>
+        <v>901</v>
       </c>
       <c r="D423" t="s">
-        <v>1648</v>
+        <v>902</v>
       </c>
       <c r="E423" t="s">
-        <v>1698</v>
+        <v>903</v>
       </c>
       <c r="F423" t="s">
         <v>0</v>
       </c>
       <c r="G423" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B424" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="D424" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="E424" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="F424" t="s">
         <v>0</v>
       </c>
       <c r="G424" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B425" t="s">
-        <v>1417</v>
+        <v>907</v>
       </c>
       <c r="D425" t="s">
-        <v>1418</v>
+        <v>908</v>
       </c>
       <c r="E425" t="s">
-        <v>1600</v>
+        <v>909</v>
       </c>
       <c r="F425" t="s">
         <v>0</v>
       </c>
       <c r="G425" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B426" t="s">
-        <v>1419</v>
+        <v>910</v>
       </c>
       <c r="D426" t="s">
-        <v>1420</v>
+        <v>911</v>
       </c>
       <c r="E426" t="s">
-        <v>1601</v>
+        <v>912</v>
       </c>
       <c r="F426" t="s">
         <v>0</v>
       </c>
       <c r="G426" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
@@ -14052,19 +13993,19 @@
         <v>8</v>
       </c>
       <c r="B427" t="s">
-        <v>1421</v>
+        <v>913</v>
       </c>
       <c r="D427" t="s">
-        <v>1422</v>
+        <v>914</v>
       </c>
       <c r="E427" t="s">
-        <v>1602</v>
+        <v>915</v>
       </c>
       <c r="F427" t="s">
         <v>0</v>
       </c>
       <c r="G427" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
@@ -14072,39 +14013,39 @@
         <v>8</v>
       </c>
       <c r="B428" t="s">
-        <v>901</v>
+        <v>916</v>
       </c>
       <c r="D428" t="s">
-        <v>902</v>
+        <v>917</v>
       </c>
       <c r="E428" t="s">
-        <v>903</v>
+        <v>918</v>
       </c>
       <c r="F428" t="s">
         <v>0</v>
       </c>
       <c r="G428" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B429" t="s">
-        <v>904</v>
+        <v>1656</v>
       </c>
       <c r="D429" t="s">
-        <v>905</v>
+        <v>1632</v>
       </c>
       <c r="E429" t="s">
-        <v>906</v>
+        <v>1682</v>
       </c>
       <c r="F429" t="s">
         <v>0</v>
       </c>
       <c r="G429" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
@@ -14112,19 +14053,19 @@
         <v>8</v>
       </c>
       <c r="B430" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="D430" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
       <c r="E430" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
       <c r="F430" t="s">
         <v>0</v>
       </c>
       <c r="G430" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
@@ -14132,19 +14073,19 @@
         <v>8</v>
       </c>
       <c r="B431" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="D431" t="s">
-        <v>911</v>
+        <v>923</v>
       </c>
       <c r="E431" t="s">
-        <v>912</v>
+        <v>924</v>
       </c>
       <c r="F431" t="s">
         <v>0</v>
       </c>
       <c r="G431" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -14152,199 +14093,199 @@
         <v>8</v>
       </c>
       <c r="B432" t="s">
-        <v>913</v>
+        <v>925</v>
       </c>
       <c r="D432" t="s">
-        <v>914</v>
+        <v>926</v>
       </c>
       <c r="E432" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="F432" t="s">
         <v>0</v>
       </c>
       <c r="G432" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B433" t="s">
-        <v>916</v>
+        <v>1413</v>
       </c>
       <c r="D433" t="s">
-        <v>917</v>
+        <v>1414</v>
       </c>
       <c r="E433" t="s">
-        <v>918</v>
+        <v>1587</v>
       </c>
       <c r="F433" t="s">
         <v>0</v>
       </c>
       <c r="G433" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B434" t="s">
-        <v>1673</v>
+        <v>1415</v>
       </c>
       <c r="D434" t="s">
-        <v>1649</v>
+        <v>1416</v>
       </c>
       <c r="E434" t="s">
-        <v>1699</v>
+        <v>1588</v>
       </c>
       <c r="F434" t="s">
         <v>0</v>
       </c>
       <c r="G434" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B435" t="s">
-        <v>919</v>
+        <v>928</v>
       </c>
       <c r="D435" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
       <c r="E435" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="F435" t="s">
         <v>0</v>
       </c>
       <c r="G435" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B436" t="s">
-        <v>922</v>
+        <v>1417</v>
       </c>
       <c r="D436" t="s">
-        <v>923</v>
+        <v>1418</v>
       </c>
       <c r="E436" t="s">
-        <v>924</v>
+        <v>1589</v>
       </c>
       <c r="F436" t="s">
         <v>0</v>
       </c>
       <c r="G436" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B437" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="D437" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="E437" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="F437" t="s">
         <v>0</v>
       </c>
       <c r="G437" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B438" t="s">
-        <v>1423</v>
+        <v>934</v>
       </c>
       <c r="D438" t="s">
-        <v>1424</v>
+        <v>935</v>
       </c>
       <c r="E438" t="s">
-        <v>1603</v>
+        <v>936</v>
       </c>
       <c r="F438" t="s">
         <v>0</v>
       </c>
       <c r="G438" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B439" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="D439" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="E439" t="s">
-        <v>1604</v>
+        <v>1590</v>
       </c>
       <c r="F439" t="s">
         <v>0</v>
       </c>
       <c r="G439" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B440" t="s">
-        <v>928</v>
+        <v>937</v>
       </c>
       <c r="D440" t="s">
-        <v>929</v>
+        <v>938</v>
       </c>
       <c r="E440" t="s">
-        <v>930</v>
+        <v>939</v>
       </c>
       <c r="F440" t="s">
         <v>0</v>
       </c>
       <c r="G440" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B441" t="s">
-        <v>1427</v>
+        <v>940</v>
       </c>
       <c r="D441" t="s">
-        <v>1428</v>
+        <v>941</v>
       </c>
       <c r="E441" t="s">
-        <v>1605</v>
+        <v>942</v>
       </c>
       <c r="F441" t="s">
         <v>0</v>
       </c>
       <c r="G441" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
@@ -14352,59 +14293,59 @@
         <v>11</v>
       </c>
       <c r="B442" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="D442" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="E442" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="F442" t="s">
         <v>0</v>
       </c>
       <c r="G442" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B443" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="D443" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="E443" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
       <c r="F443" t="s">
         <v>0</v>
       </c>
       <c r="G443" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B444" t="s">
-        <v>1429</v>
+        <v>949</v>
       </c>
       <c r="D444" t="s">
-        <v>1430</v>
+        <v>950</v>
       </c>
       <c r="E444" t="s">
-        <v>1606</v>
+        <v>951</v>
       </c>
       <c r="F444" t="s">
         <v>0</v>
       </c>
       <c r="G444" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
@@ -14412,19 +14353,19 @@
         <v>11</v>
       </c>
       <c r="B445" t="s">
-        <v>937</v>
+        <v>952</v>
       </c>
       <c r="D445" t="s">
-        <v>938</v>
+        <v>953</v>
       </c>
       <c r="E445" t="s">
-        <v>939</v>
+        <v>954</v>
       </c>
       <c r="F445" t="s">
         <v>0</v>
       </c>
       <c r="G445" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
@@ -14432,19 +14373,19 @@
         <v>11</v>
       </c>
       <c r="B446" t="s">
-        <v>940</v>
+        <v>955</v>
       </c>
       <c r="D446" t="s">
-        <v>941</v>
+        <v>956</v>
       </c>
       <c r="E446" t="s">
-        <v>942</v>
+        <v>957</v>
       </c>
       <c r="F446" t="s">
         <v>0</v>
       </c>
       <c r="G446" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
@@ -14452,19 +14393,19 @@
         <v>11</v>
       </c>
       <c r="B447" t="s">
-        <v>943</v>
+        <v>958</v>
       </c>
       <c r="D447" t="s">
-        <v>944</v>
+        <v>959</v>
       </c>
       <c r="E447" t="s">
-        <v>945</v>
+        <v>960</v>
       </c>
       <c r="F447" t="s">
         <v>0</v>
       </c>
       <c r="G447" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
@@ -14472,19 +14413,19 @@
         <v>11</v>
       </c>
       <c r="B448" t="s">
-        <v>946</v>
+        <v>961</v>
       </c>
       <c r="D448" t="s">
-        <v>947</v>
+        <v>962</v>
       </c>
       <c r="E448" t="s">
-        <v>948</v>
+        <v>963</v>
       </c>
       <c r="F448" t="s">
         <v>0</v>
       </c>
       <c r="G448" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
@@ -14492,19 +14433,19 @@
         <v>11</v>
       </c>
       <c r="B449" t="s">
-        <v>949</v>
+        <v>964</v>
       </c>
       <c r="D449" t="s">
-        <v>950</v>
+        <v>965</v>
       </c>
       <c r="E449" t="s">
-        <v>951</v>
+        <v>966</v>
       </c>
       <c r="F449" t="s">
         <v>0</v>
       </c>
       <c r="G449" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
@@ -14512,19 +14453,19 @@
         <v>11</v>
       </c>
       <c r="B450" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="D450" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="E450" t="s">
-        <v>954</v>
+        <v>969</v>
       </c>
       <c r="F450" t="s">
         <v>0</v>
       </c>
       <c r="G450" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
@@ -14532,19 +14473,19 @@
         <v>11</v>
       </c>
       <c r="B451" t="s">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="D451" t="s">
-        <v>956</v>
+        <v>971</v>
       </c>
       <c r="E451" t="s">
-        <v>957</v>
+        <v>972</v>
       </c>
       <c r="F451" t="s">
         <v>0</v>
       </c>
       <c r="G451" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
@@ -14552,19 +14493,19 @@
         <v>11</v>
       </c>
       <c r="B452" t="s">
-        <v>958</v>
+        <v>973</v>
       </c>
       <c r="D452" t="s">
-        <v>959</v>
+        <v>974</v>
       </c>
       <c r="E452" t="s">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="F452" t="s">
         <v>0</v>
       </c>
       <c r="G452" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
@@ -14572,19 +14513,19 @@
         <v>11</v>
       </c>
       <c r="B453" t="s">
-        <v>961</v>
+        <v>976</v>
       </c>
       <c r="D453" t="s">
-        <v>962</v>
+        <v>977</v>
       </c>
       <c r="E453" t="s">
-        <v>963</v>
+        <v>978</v>
       </c>
       <c r="F453" t="s">
         <v>0</v>
       </c>
       <c r="G453" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
@@ -14592,19 +14533,19 @@
         <v>11</v>
       </c>
       <c r="B454" t="s">
-        <v>964</v>
+        <v>979</v>
       </c>
       <c r="D454" t="s">
-        <v>965</v>
+        <v>980</v>
       </c>
       <c r="E454" t="s">
-        <v>966</v>
+        <v>981</v>
       </c>
       <c r="F454" t="s">
         <v>0</v>
       </c>
       <c r="G454" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
@@ -14612,19 +14553,19 @@
         <v>11</v>
       </c>
       <c r="B455" t="s">
-        <v>967</v>
+        <v>982</v>
       </c>
       <c r="D455" t="s">
-        <v>968</v>
+        <v>983</v>
       </c>
       <c r="E455" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="F455" t="s">
         <v>0</v>
       </c>
       <c r="G455" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
@@ -14632,19 +14573,19 @@
         <v>11</v>
       </c>
       <c r="B456" t="s">
-        <v>970</v>
+        <v>985</v>
       </c>
       <c r="D456" t="s">
-        <v>971</v>
+        <v>986</v>
       </c>
       <c r="E456" t="s">
-        <v>972</v>
+        <v>987</v>
       </c>
       <c r="F456" t="s">
         <v>0</v>
       </c>
       <c r="G456" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
@@ -14652,19 +14593,19 @@
         <v>11</v>
       </c>
       <c r="B457" t="s">
-        <v>973</v>
+        <v>988</v>
       </c>
       <c r="D457" t="s">
-        <v>974</v>
+        <v>989</v>
       </c>
       <c r="E457" t="s">
-        <v>975</v>
+        <v>990</v>
       </c>
       <c r="F457" t="s">
         <v>0</v>
       </c>
       <c r="G457" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
@@ -14672,19 +14613,19 @@
         <v>11</v>
       </c>
       <c r="B458" t="s">
-        <v>976</v>
+        <v>991</v>
       </c>
       <c r="D458" t="s">
-        <v>977</v>
+        <v>992</v>
       </c>
       <c r="E458" t="s">
-        <v>978</v>
+        <v>993</v>
       </c>
       <c r="F458" t="s">
         <v>0</v>
       </c>
       <c r="G458" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
@@ -14692,19 +14633,19 @@
         <v>11</v>
       </c>
       <c r="B459" t="s">
-        <v>979</v>
+        <v>994</v>
       </c>
       <c r="D459" t="s">
-        <v>980</v>
+        <v>995</v>
       </c>
       <c r="E459" t="s">
-        <v>981</v>
+        <v>996</v>
       </c>
       <c r="F459" t="s">
         <v>0</v>
       </c>
       <c r="G459" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
@@ -14712,19 +14653,19 @@
         <v>11</v>
       </c>
       <c r="B460" t="s">
-        <v>982</v>
+        <v>997</v>
       </c>
       <c r="D460" t="s">
-        <v>983</v>
+        <v>998</v>
       </c>
       <c r="E460" t="s">
-        <v>984</v>
+        <v>999</v>
       </c>
       <c r="F460" t="s">
         <v>0</v>
       </c>
       <c r="G460" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
@@ -14732,19 +14673,19 @@
         <v>11</v>
       </c>
       <c r="B461" t="s">
-        <v>985</v>
+        <v>1000</v>
       </c>
       <c r="D461" t="s">
-        <v>986</v>
+        <v>1001</v>
       </c>
       <c r="E461" t="s">
-        <v>987</v>
+        <v>1002</v>
       </c>
       <c r="F461" t="s">
         <v>0</v>
       </c>
       <c r="G461" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
@@ -14752,19 +14693,19 @@
         <v>11</v>
       </c>
       <c r="B462" t="s">
-        <v>988</v>
+        <v>1003</v>
       </c>
       <c r="D462" t="s">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="E462" t="s">
-        <v>990</v>
+        <v>1005</v>
       </c>
       <c r="F462" t="s">
         <v>0</v>
       </c>
       <c r="G462" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
@@ -14772,19 +14713,19 @@
         <v>11</v>
       </c>
       <c r="B463" t="s">
-        <v>991</v>
+        <v>1475</v>
       </c>
       <c r="D463" t="s">
-        <v>992</v>
+        <v>1469</v>
       </c>
       <c r="E463" t="s">
-        <v>993</v>
+        <v>1481</v>
       </c>
       <c r="F463" t="s">
         <v>0</v>
       </c>
       <c r="G463" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
@@ -14792,139 +14733,139 @@
         <v>11</v>
       </c>
       <c r="B464" t="s">
-        <v>994</v>
+        <v>1006</v>
       </c>
       <c r="D464" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
       <c r="E464" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
       <c r="F464" t="s">
         <v>0</v>
       </c>
       <c r="G464" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B465" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="D465" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
       <c r="E465" t="s">
-        <v>999</v>
+        <v>1011</v>
       </c>
       <c r="F465" t="s">
         <v>0</v>
       </c>
       <c r="G465" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B466" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
       <c r="D466" t="s">
-        <v>1001</v>
+        <v>1013</v>
       </c>
       <c r="E466" t="s">
-        <v>1002</v>
+        <v>1014</v>
       </c>
       <c r="F466" t="s">
         <v>0</v>
       </c>
       <c r="G466" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B467" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
       <c r="D467" t="s">
-        <v>1004</v>
+        <v>1016</v>
       </c>
       <c r="E467" t="s">
-        <v>1005</v>
+        <v>1017</v>
       </c>
       <c r="F467" t="s">
         <v>0</v>
       </c>
       <c r="G467" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B468" t="s">
-        <v>1487</v>
+        <v>1018</v>
       </c>
       <c r="D468" t="s">
-        <v>1481</v>
+        <v>1019</v>
       </c>
       <c r="E468" t="s">
-        <v>1493</v>
+        <v>1020</v>
       </c>
       <c r="F468" t="s">
         <v>0</v>
       </c>
       <c r="G468" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B469" t="s">
-        <v>1006</v>
+        <v>1021</v>
       </c>
       <c r="D469" t="s">
-        <v>1007</v>
+        <v>1022</v>
       </c>
       <c r="E469" t="s">
-        <v>1008</v>
+        <v>1023</v>
       </c>
       <c r="F469" t="s">
         <v>0</v>
       </c>
       <c r="G469" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B470" t="s">
-        <v>1009</v>
+        <v>1024</v>
       </c>
       <c r="D470" t="s">
-        <v>1010</v>
+        <v>1025</v>
       </c>
       <c r="E470" t="s">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="F470" t="s">
         <v>0</v>
       </c>
       <c r="G470" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
@@ -14932,19 +14873,19 @@
         <v>8</v>
       </c>
       <c r="B471" t="s">
-        <v>1012</v>
+        <v>1027</v>
       </c>
       <c r="D471" t="s">
-        <v>1013</v>
+        <v>1028</v>
       </c>
       <c r="E471" t="s">
-        <v>1014</v>
+        <v>1029</v>
       </c>
       <c r="F471" t="s">
         <v>0</v>
       </c>
       <c r="G471" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
@@ -14952,79 +14893,79 @@
         <v>8</v>
       </c>
       <c r="B472" t="s">
-        <v>1015</v>
+        <v>1030</v>
       </c>
       <c r="D472" t="s">
-        <v>1016</v>
+        <v>1031</v>
       </c>
       <c r="E472" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="F472" t="s">
         <v>0</v>
       </c>
       <c r="G472" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B473" t="s">
-        <v>1018</v>
+        <v>1033</v>
       </c>
       <c r="D473" t="s">
-        <v>1019</v>
+        <v>1034</v>
       </c>
       <c r="E473" t="s">
-        <v>1020</v>
+        <v>1035</v>
       </c>
       <c r="F473" t="s">
         <v>0</v>
       </c>
       <c r="G473" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B474" t="s">
-        <v>1021</v>
+        <v>1036</v>
       </c>
       <c r="D474" t="s">
-        <v>1022</v>
+        <v>1037</v>
       </c>
       <c r="E474" t="s">
-        <v>1023</v>
+        <v>1038</v>
       </c>
       <c r="F474" t="s">
         <v>0</v>
       </c>
       <c r="G474" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B475" t="s">
-        <v>1024</v>
+        <v>1039</v>
       </c>
       <c r="D475" t="s">
-        <v>1025</v>
+        <v>1040</v>
       </c>
       <c r="E475" t="s">
-        <v>1026</v>
+        <v>1041</v>
       </c>
       <c r="F475" t="s">
         <v>0</v>
       </c>
       <c r="G475" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
@@ -15032,19 +14973,19 @@
         <v>8</v>
       </c>
       <c r="B476" t="s">
-        <v>1027</v>
+        <v>1042</v>
       </c>
       <c r="D476" t="s">
-        <v>1028</v>
+        <v>1043</v>
       </c>
       <c r="E476" t="s">
-        <v>1029</v>
+        <v>1044</v>
       </c>
       <c r="F476" t="s">
         <v>0</v>
       </c>
       <c r="G476" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
@@ -15052,99 +14993,99 @@
         <v>8</v>
       </c>
       <c r="B477" t="s">
-        <v>1030</v>
+        <v>1045</v>
       </c>
       <c r="D477" t="s">
-        <v>1031</v>
+        <v>1046</v>
       </c>
       <c r="E477" t="s">
-        <v>1032</v>
+        <v>1047</v>
       </c>
       <c r="F477" t="s">
         <v>0</v>
       </c>
       <c r="G477" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B478" t="s">
-        <v>1033</v>
+        <v>1421</v>
       </c>
       <c r="D478" t="s">
-        <v>1034</v>
+        <v>1422</v>
       </c>
       <c r="E478" t="s">
-        <v>1035</v>
+        <v>1591</v>
       </c>
       <c r="F478" t="s">
         <v>0</v>
       </c>
       <c r="G478" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B479" t="s">
-        <v>1036</v>
+        <v>1048</v>
       </c>
       <c r="D479" t="s">
-        <v>1037</v>
+        <v>1049</v>
       </c>
       <c r="E479" t="s">
-        <v>1038</v>
+        <v>1050</v>
       </c>
       <c r="F479" t="s">
         <v>0</v>
       </c>
       <c r="G479" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B480" t="s">
-        <v>1039</v>
+        <v>1423</v>
       </c>
       <c r="D480" t="s">
-        <v>1040</v>
+        <v>1424</v>
       </c>
       <c r="E480" t="s">
-        <v>1041</v>
+        <v>1592</v>
       </c>
       <c r="F480" t="s">
         <v>0</v>
       </c>
       <c r="G480" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B481" t="s">
-        <v>1042</v>
+        <v>1425</v>
       </c>
       <c r="D481" t="s">
-        <v>1043</v>
+        <v>1426</v>
       </c>
       <c r="E481" t="s">
-        <v>1044</v>
+        <v>1593</v>
       </c>
       <c r="F481" t="s">
         <v>0</v>
       </c>
       <c r="G481" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
@@ -15152,39 +15093,39 @@
         <v>8</v>
       </c>
       <c r="B482" t="s">
-        <v>1045</v>
+        <v>1427</v>
       </c>
       <c r="D482" t="s">
-        <v>1046</v>
+        <v>1428</v>
       </c>
       <c r="E482" t="s">
-        <v>1047</v>
+        <v>1594</v>
       </c>
       <c r="F482" t="s">
         <v>0</v>
       </c>
       <c r="G482" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B483" t="s">
-        <v>1431</v>
+        <v>1051</v>
       </c>
       <c r="D483" t="s">
-        <v>1432</v>
+        <v>1052</v>
       </c>
       <c r="E483" t="s">
-        <v>1607</v>
+        <v>1053</v>
       </c>
       <c r="F483" t="s">
         <v>0</v>
       </c>
       <c r="G483" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
@@ -15192,59 +15133,59 @@
         <v>8</v>
       </c>
       <c r="B484" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="D484" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="E484" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="F484" t="s">
         <v>0</v>
       </c>
       <c r="G484" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B485" t="s">
-        <v>1433</v>
+        <v>1057</v>
       </c>
       <c r="D485" t="s">
-        <v>1434</v>
+        <v>1058</v>
       </c>
       <c r="E485" t="s">
-        <v>1608</v>
+        <v>1059</v>
       </c>
       <c r="F485" t="s">
         <v>0</v>
       </c>
       <c r="G485" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B486" t="s">
-        <v>1435</v>
+        <v>1060</v>
       </c>
       <c r="D486" t="s">
-        <v>1436</v>
+        <v>1061</v>
       </c>
       <c r="E486" t="s">
-        <v>1609</v>
+        <v>1062</v>
       </c>
       <c r="F486" t="s">
         <v>0</v>
       </c>
       <c r="G486" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
@@ -15252,139 +15193,139 @@
         <v>8</v>
       </c>
       <c r="B487" t="s">
-        <v>1437</v>
+        <v>1063</v>
       </c>
       <c r="D487" t="s">
-        <v>1438</v>
+        <v>1064</v>
       </c>
       <c r="E487" t="s">
-        <v>1610</v>
+        <v>1065</v>
       </c>
       <c r="F487" t="s">
         <v>0</v>
       </c>
       <c r="G487" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B488" t="s">
-        <v>1051</v>
+        <v>1429</v>
       </c>
       <c r="D488" t="s">
-        <v>1052</v>
+        <v>1430</v>
       </c>
       <c r="E488" t="s">
-        <v>1053</v>
+        <v>1595</v>
       </c>
       <c r="F488" t="s">
         <v>0</v>
       </c>
       <c r="G488" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B489" t="s">
-        <v>1054</v>
+        <v>1066</v>
       </c>
       <c r="D489" t="s">
-        <v>1055</v>
+        <v>1067</v>
       </c>
       <c r="E489" t="s">
-        <v>1056</v>
+        <v>1068</v>
       </c>
       <c r="F489" t="s">
         <v>0</v>
       </c>
       <c r="G489" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B490" t="s">
-        <v>1057</v>
+        <v>1431</v>
       </c>
       <c r="D490" t="s">
-        <v>1058</v>
+        <v>1432</v>
       </c>
       <c r="E490" t="s">
-        <v>1059</v>
+        <v>1596</v>
       </c>
       <c r="F490" t="s">
         <v>0</v>
       </c>
       <c r="G490" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B491" t="s">
-        <v>1060</v>
+        <v>1433</v>
       </c>
       <c r="D491" t="s">
-        <v>1061</v>
+        <v>1434</v>
       </c>
       <c r="E491" t="s">
-        <v>1062</v>
+        <v>1597</v>
       </c>
       <c r="F491" t="s">
         <v>0</v>
       </c>
       <c r="G491" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B492" t="s">
-        <v>1063</v>
+        <v>1435</v>
       </c>
       <c r="D492" t="s">
-        <v>1064</v>
+        <v>1436</v>
       </c>
       <c r="E492" t="s">
-        <v>1065</v>
+        <v>1598</v>
       </c>
       <c r="F492" t="s">
         <v>0</v>
       </c>
       <c r="G492" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B493" t="s">
-        <v>1439</v>
+        <v>1069</v>
       </c>
       <c r="D493" t="s">
-        <v>1440</v>
+        <v>1070</v>
       </c>
       <c r="E493" t="s">
-        <v>1611</v>
+        <v>1071</v>
       </c>
       <c r="F493" t="s">
         <v>0</v>
       </c>
       <c r="G493" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
@@ -15392,79 +15333,79 @@
         <v>9</v>
       </c>
       <c r="B494" t="s">
-        <v>1441</v>
+        <v>1072</v>
       </c>
       <c r="D494" t="s">
-        <v>1442</v>
+        <v>1073</v>
       </c>
       <c r="E494" t="s">
-        <v>1612</v>
+        <v>1074</v>
       </c>
       <c r="F494" t="s">
         <v>0</v>
       </c>
       <c r="G494" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B495" t="s">
-        <v>1066</v>
+        <v>1075</v>
       </c>
       <c r="D495" t="s">
-        <v>1067</v>
+        <v>1076</v>
       </c>
       <c r="E495" t="s">
-        <v>1068</v>
+        <v>1077</v>
       </c>
       <c r="F495" t="s">
         <v>0</v>
       </c>
       <c r="G495" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B496" t="s">
-        <v>1443</v>
+        <v>1078</v>
       </c>
       <c r="D496" t="s">
-        <v>1444</v>
+        <v>1079</v>
       </c>
       <c r="E496" t="s">
-        <v>1613</v>
+        <v>1080</v>
       </c>
       <c r="F496" t="s">
         <v>0</v>
       </c>
       <c r="G496" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B497" t="s">
-        <v>1445</v>
+        <v>1437</v>
       </c>
       <c r="D497" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="E497" t="s">
-        <v>1614</v>
+        <v>1599</v>
       </c>
       <c r="F497" t="s">
         <v>0</v>
       </c>
       <c r="G497" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
@@ -15472,19 +15413,19 @@
         <v>9</v>
       </c>
       <c r="B498" t="s">
-        <v>1447</v>
+        <v>1081</v>
       </c>
       <c r="D498" t="s">
-        <v>1448</v>
+        <v>1082</v>
       </c>
       <c r="E498" t="s">
-        <v>1615</v>
+        <v>1083</v>
       </c>
       <c r="F498" t="s">
         <v>0</v>
       </c>
       <c r="G498" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
@@ -15492,59 +15433,59 @@
         <v>8</v>
       </c>
       <c r="B499" t="s">
-        <v>1069</v>
+        <v>1084</v>
       </c>
       <c r="D499" t="s">
-        <v>1070</v>
+        <v>1085</v>
       </c>
       <c r="E499" t="s">
-        <v>1071</v>
+        <v>1086</v>
       </c>
       <c r="F499" t="s">
         <v>0</v>
       </c>
       <c r="G499" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B500" t="s">
-        <v>1072</v>
+        <v>1087</v>
       </c>
       <c r="D500" t="s">
-        <v>1073</v>
+        <v>1088</v>
       </c>
       <c r="E500" t="s">
-        <v>1074</v>
+        <v>1089</v>
       </c>
       <c r="F500" t="s">
         <v>0</v>
       </c>
       <c r="G500" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B501" t="s">
-        <v>1075</v>
+        <v>1439</v>
       </c>
       <c r="D501" t="s">
-        <v>1076</v>
+        <v>1440</v>
       </c>
       <c r="E501" t="s">
-        <v>1077</v>
+        <v>1600</v>
       </c>
       <c r="F501" t="s">
         <v>0</v>
       </c>
       <c r="G501" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
@@ -15552,19 +15493,19 @@
         <v>8</v>
       </c>
       <c r="B502" t="s">
-        <v>1078</v>
+        <v>1090</v>
       </c>
       <c r="D502" t="s">
-        <v>1079</v>
+        <v>1091</v>
       </c>
       <c r="E502" t="s">
-        <v>1080</v>
+        <v>1092</v>
       </c>
       <c r="F502" t="s">
         <v>0</v>
       </c>
       <c r="G502" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
@@ -15572,39 +15513,39 @@
         <v>8</v>
       </c>
       <c r="B503" t="s">
-        <v>1449</v>
+        <v>1093</v>
       </c>
       <c r="D503" t="s">
-        <v>1450</v>
+        <v>1094</v>
       </c>
       <c r="E503" t="s">
-        <v>1616</v>
+        <v>1095</v>
       </c>
       <c r="F503" t="s">
         <v>0</v>
       </c>
       <c r="G503" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B504" t="s">
-        <v>1081</v>
+        <v>1096</v>
       </c>
       <c r="D504" t="s">
-        <v>1082</v>
+        <v>1097</v>
       </c>
       <c r="E504" t="s">
-        <v>1083</v>
+        <v>1098</v>
       </c>
       <c r="F504" t="s">
         <v>0</v>
       </c>
       <c r="G504" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
@@ -15612,19 +15553,19 @@
         <v>8</v>
       </c>
       <c r="B505" t="s">
-        <v>1084</v>
+        <v>1099</v>
       </c>
       <c r="D505" t="s">
-        <v>1085</v>
+        <v>1100</v>
       </c>
       <c r="E505" t="s">
-        <v>1086</v>
+        <v>1101</v>
       </c>
       <c r="F505" t="s">
         <v>0</v>
       </c>
       <c r="G505" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
@@ -15632,19 +15573,19 @@
         <v>8</v>
       </c>
       <c r="B506" t="s">
-        <v>1087</v>
+        <v>1102</v>
       </c>
       <c r="D506" t="s">
-        <v>1088</v>
+        <v>1103</v>
       </c>
       <c r="E506" t="s">
-        <v>1089</v>
+        <v>1104</v>
       </c>
       <c r="F506" t="s">
         <v>0</v>
       </c>
       <c r="G506" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
@@ -15652,59 +15593,59 @@
         <v>9</v>
       </c>
       <c r="B507" t="s">
-        <v>1451</v>
+        <v>1105</v>
       </c>
       <c r="D507" t="s">
-        <v>1452</v>
+        <v>1106</v>
       </c>
       <c r="E507" t="s">
-        <v>1617</v>
+        <v>1107</v>
       </c>
       <c r="F507" t="s">
         <v>0</v>
       </c>
       <c r="G507" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B508" t="s">
-        <v>1090</v>
+        <v>1108</v>
       </c>
       <c r="D508" t="s">
-        <v>1091</v>
+        <v>1109</v>
       </c>
       <c r="E508" t="s">
-        <v>1092</v>
+        <v>1110</v>
       </c>
       <c r="F508" t="s">
         <v>0</v>
       </c>
       <c r="G508" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B509" t="s">
-        <v>1093</v>
+        <v>1441</v>
       </c>
       <c r="D509" t="s">
-        <v>1094</v>
+        <v>1442</v>
       </c>
       <c r="E509" t="s">
-        <v>1095</v>
+        <v>1601</v>
       </c>
       <c r="F509" t="s">
         <v>0</v>
       </c>
       <c r="G509" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
@@ -15712,79 +15653,79 @@
         <v>8</v>
       </c>
       <c r="B510" t="s">
-        <v>1096</v>
+        <v>1111</v>
       </c>
       <c r="D510" t="s">
-        <v>1097</v>
+        <v>1112</v>
       </c>
       <c r="E510" t="s">
-        <v>1098</v>
+        <v>1113</v>
       </c>
       <c r="F510" t="s">
         <v>0</v>
       </c>
       <c r="G510" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>8</v>
+        <v>1661</v>
       </c>
       <c r="B511" t="s">
-        <v>1099</v>
+        <v>1657</v>
       </c>
       <c r="D511" t="s">
-        <v>1100</v>
+        <v>1633</v>
       </c>
       <c r="E511" t="s">
-        <v>1101</v>
+        <v>1683</v>
       </c>
       <c r="F511" t="s">
         <v>0</v>
       </c>
       <c r="G511" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B512" t="s">
-        <v>1102</v>
+        <v>1114</v>
       </c>
       <c r="D512" t="s">
-        <v>1103</v>
+        <v>1115</v>
       </c>
       <c r="E512" t="s">
-        <v>1104</v>
+        <v>1116</v>
       </c>
       <c r="F512" t="s">
         <v>0</v>
       </c>
       <c r="G512" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B513" t="s">
-        <v>1105</v>
+        <v>1117</v>
       </c>
       <c r="D513" t="s">
-        <v>1106</v>
+        <v>1118</v>
       </c>
       <c r="E513" t="s">
-        <v>1107</v>
+        <v>1119</v>
       </c>
       <c r="F513" t="s">
         <v>0</v>
       </c>
       <c r="G513" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
@@ -15792,39 +15733,39 @@
         <v>9</v>
       </c>
       <c r="B514" t="s">
-        <v>1108</v>
+        <v>1443</v>
       </c>
       <c r="D514" t="s">
-        <v>1109</v>
+        <v>1444</v>
       </c>
       <c r="E514" t="s">
-        <v>1110</v>
+        <v>1602</v>
       </c>
       <c r="F514" t="s">
         <v>0</v>
       </c>
       <c r="G514" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B515" t="s">
-        <v>1453</v>
+        <v>1120</v>
       </c>
       <c r="D515" t="s">
-        <v>1454</v>
+        <v>1121</v>
       </c>
       <c r="E515" t="s">
-        <v>1618</v>
+        <v>1122</v>
       </c>
       <c r="F515" t="s">
         <v>0</v>
       </c>
       <c r="G515" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
@@ -15832,79 +15773,79 @@
         <v>8</v>
       </c>
       <c r="B516" t="s">
-        <v>1111</v>
+        <v>1123</v>
       </c>
       <c r="D516" t="s">
-        <v>1112</v>
+        <v>1124</v>
       </c>
       <c r="E516" t="s">
-        <v>1113</v>
+        <v>1125</v>
       </c>
       <c r="F516" t="s">
         <v>0</v>
       </c>
       <c r="G516" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1678</v>
+        <v>8</v>
       </c>
       <c r="B517" t="s">
-        <v>1674</v>
+        <v>1126</v>
       </c>
       <c r="D517" t="s">
-        <v>1650</v>
+        <v>1127</v>
       </c>
       <c r="E517" t="s">
-        <v>1700</v>
+        <v>1128</v>
       </c>
       <c r="F517" t="s">
         <v>0</v>
       </c>
       <c r="G517" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B518" t="s">
-        <v>1114</v>
+        <v>1445</v>
       </c>
       <c r="D518" t="s">
-        <v>1115</v>
+        <v>1446</v>
       </c>
       <c r="E518" t="s">
-        <v>1116</v>
+        <v>1603</v>
       </c>
       <c r="F518" t="s">
         <v>0</v>
       </c>
       <c r="G518" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B519" t="s">
-        <v>1117</v>
+        <v>1658</v>
       </c>
       <c r="D519" t="s">
-        <v>1118</v>
+        <v>1634</v>
       </c>
       <c r="E519" t="s">
-        <v>1119</v>
+        <v>1684</v>
       </c>
       <c r="F519" t="s">
         <v>0</v>
       </c>
       <c r="G519" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
@@ -15912,39 +15853,39 @@
         <v>9</v>
       </c>
       <c r="B520" t="s">
-        <v>1455</v>
+        <v>1129</v>
       </c>
       <c r="D520" t="s">
-        <v>1456</v>
+        <v>1130</v>
       </c>
       <c r="E520" t="s">
-        <v>1619</v>
+        <v>1131</v>
       </c>
       <c r="F520" t="s">
         <v>0</v>
       </c>
       <c r="G520" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B521" t="s">
-        <v>1120</v>
+        <v>1132</v>
       </c>
       <c r="D521" t="s">
-        <v>1121</v>
+        <v>1133</v>
       </c>
       <c r="E521" t="s">
-        <v>1122</v>
+        <v>1134</v>
       </c>
       <c r="F521" t="s">
         <v>0</v>
       </c>
       <c r="G521" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
@@ -15952,19 +15893,19 @@
         <v>8</v>
       </c>
       <c r="B522" t="s">
-        <v>1123</v>
+        <v>1135</v>
       </c>
       <c r="D522" t="s">
-        <v>1124</v>
+        <v>1136</v>
       </c>
       <c r="E522" t="s">
-        <v>1125</v>
+        <v>1137</v>
       </c>
       <c r="F522" t="s">
         <v>0</v>
       </c>
       <c r="G522" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
@@ -15972,19 +15913,19 @@
         <v>8</v>
       </c>
       <c r="B523" t="s">
-        <v>1126</v>
+        <v>1447</v>
       </c>
       <c r="D523" t="s">
-        <v>1127</v>
+        <v>1448</v>
       </c>
       <c r="E523" t="s">
-        <v>1128</v>
+        <v>1604</v>
       </c>
       <c r="F523" t="s">
         <v>0</v>
       </c>
       <c r="G523" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
@@ -15992,179 +15933,179 @@
         <v>9</v>
       </c>
       <c r="B524" t="s">
-        <v>1457</v>
+        <v>1138</v>
       </c>
       <c r="D524" t="s">
-        <v>1458</v>
+        <v>1139</v>
       </c>
       <c r="E524" t="s">
-        <v>1620</v>
+        <v>1140</v>
       </c>
       <c r="F524" t="s">
         <v>0</v>
       </c>
       <c r="G524" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B525" t="s">
-        <v>1675</v>
+        <v>1141</v>
       </c>
       <c r="D525" t="s">
-        <v>1651</v>
+        <v>1142</v>
       </c>
       <c r="E525" t="s">
-        <v>1701</v>
+        <v>1143</v>
       </c>
       <c r="F525" t="s">
         <v>0</v>
       </c>
       <c r="G525" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B526" t="s">
-        <v>1129</v>
+        <v>1449</v>
       </c>
       <c r="D526" t="s">
-        <v>1130</v>
+        <v>1450</v>
       </c>
       <c r="E526" t="s">
-        <v>1131</v>
+        <v>1605</v>
       </c>
       <c r="F526" t="s">
         <v>0</v>
       </c>
       <c r="G526" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B527" t="s">
-        <v>1132</v>
+        <v>1451</v>
       </c>
       <c r="D527" t="s">
-        <v>1133</v>
+        <v>1452</v>
       </c>
       <c r="E527" t="s">
-        <v>1134</v>
+        <v>1606</v>
       </c>
       <c r="F527" t="s">
         <v>0</v>
       </c>
       <c r="G527" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B528" t="s">
-        <v>1135</v>
+        <v>1476</v>
       </c>
       <c r="D528" t="s">
-        <v>1136</v>
+        <v>1470</v>
       </c>
       <c r="E528" t="s">
-        <v>1137</v>
+        <v>1606</v>
       </c>
       <c r="F528" t="s">
         <v>0</v>
       </c>
       <c r="G528" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B529" t="s">
-        <v>1459</v>
+        <v>1478</v>
       </c>
       <c r="D529" t="s">
-        <v>1460</v>
+        <v>1472</v>
       </c>
       <c r="E529" t="s">
-        <v>1621</v>
+        <v>1484</v>
       </c>
       <c r="F529" t="s">
         <v>0</v>
       </c>
       <c r="G529" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B530" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="D530" t="s">
-        <v>1139</v>
+        <v>1145</v>
       </c>
       <c r="E530" t="s">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="F530" t="s">
         <v>0</v>
       </c>
       <c r="G530" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B531" t="s">
-        <v>1141</v>
+        <v>1453</v>
       </c>
       <c r="D531" t="s">
-        <v>1142</v>
+        <v>1454</v>
       </c>
       <c r="E531" t="s">
-        <v>1143</v>
+        <v>1607</v>
       </c>
       <c r="F531" t="s">
         <v>0</v>
       </c>
       <c r="G531" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B532" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="D532" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="E532" t="s">
-        <v>1622</v>
+        <v>1457</v>
       </c>
       <c r="F532" t="s">
         <v>0</v>
       </c>
       <c r="G532" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
@@ -16172,19 +16113,19 @@
         <v>9</v>
       </c>
       <c r="B533" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="D533" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="E533" t="s">
-        <v>1623</v>
+        <v>1608</v>
       </c>
       <c r="F533" t="s">
         <v>0</v>
       </c>
       <c r="G533" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
@@ -16192,19 +16133,19 @@
         <v>9</v>
       </c>
       <c r="B534" t="s">
-        <v>1488</v>
+        <v>1460</v>
       </c>
       <c r="D534" t="s">
-        <v>1482</v>
+        <v>1461</v>
       </c>
       <c r="E534" t="s">
-        <v>1623</v>
+        <v>1609</v>
       </c>
       <c r="F534" t="s">
         <v>0</v>
       </c>
       <c r="G534" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
@@ -16212,19 +16153,19 @@
         <v>9</v>
       </c>
       <c r="B535" t="s">
-        <v>1490</v>
+        <v>1462</v>
       </c>
       <c r="D535" t="s">
-        <v>1484</v>
+        <v>1463</v>
       </c>
       <c r="E535" t="s">
-        <v>1496</v>
+        <v>1610</v>
       </c>
       <c r="F535" t="s">
         <v>0</v>
       </c>
       <c r="G535" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
@@ -16232,19 +16173,19 @@
         <v>8</v>
       </c>
       <c r="B536" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="D536" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="E536" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="F536" t="s">
         <v>0</v>
       </c>
       <c r="G536" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
@@ -16252,39 +16193,39 @@
         <v>9</v>
       </c>
       <c r="B537" t="s">
-        <v>1465</v>
+        <v>1150</v>
       </c>
       <c r="D537" t="s">
-        <v>1466</v>
+        <v>1151</v>
       </c>
       <c r="E537" t="s">
-        <v>1624</v>
+        <v>1152</v>
       </c>
       <c r="F537" t="s">
         <v>0</v>
       </c>
       <c r="G537" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B538" t="s">
-        <v>1467</v>
+        <v>1153</v>
       </c>
       <c r="D538" t="s">
-        <v>1468</v>
+        <v>1154</v>
       </c>
       <c r="E538" t="s">
-        <v>1469</v>
+        <v>1155</v>
       </c>
       <c r="F538" t="s">
         <v>0</v>
       </c>
       <c r="G538" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
@@ -16292,59 +16233,59 @@
         <v>9</v>
       </c>
       <c r="B539" t="s">
-        <v>1470</v>
+        <v>1156</v>
       </c>
       <c r="D539" t="s">
-        <v>1471</v>
+        <v>1157</v>
       </c>
       <c r="E539" t="s">
-        <v>1625</v>
+        <v>1158</v>
       </c>
       <c r="F539" t="s">
         <v>0</v>
       </c>
       <c r="G539" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B540" t="s">
-        <v>1472</v>
+        <v>1159</v>
       </c>
       <c r="D540" t="s">
-        <v>1473</v>
+        <v>1160</v>
       </c>
       <c r="E540" t="s">
-        <v>1626</v>
+        <v>1161</v>
       </c>
       <c r="F540" t="s">
         <v>0</v>
       </c>
       <c r="G540" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B541" t="s">
-        <v>1474</v>
+        <v>1162</v>
       </c>
       <c r="D541" t="s">
-        <v>1475</v>
+        <v>1163</v>
       </c>
       <c r="E541" t="s">
-        <v>1627</v>
+        <v>1164</v>
       </c>
       <c r="F541" t="s">
         <v>0</v>
       </c>
       <c r="G541" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
@@ -16352,39 +16293,39 @@
         <v>8</v>
       </c>
       <c r="B542" t="s">
-        <v>1147</v>
+        <v>1165</v>
       </c>
       <c r="D542" t="s">
-        <v>1148</v>
+        <v>1166</v>
       </c>
       <c r="E542" t="s">
-        <v>1149</v>
+        <v>1167</v>
       </c>
       <c r="F542" t="s">
         <v>0</v>
       </c>
       <c r="G542" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B543" t="s">
-        <v>1150</v>
+        <v>1168</v>
       </c>
       <c r="D543" t="s">
-        <v>1151</v>
+        <v>1169</v>
       </c>
       <c r="E543" t="s">
-        <v>1152</v>
+        <v>1170</v>
       </c>
       <c r="F543" t="s">
         <v>0</v>
       </c>
       <c r="G543" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
@@ -16392,39 +16333,39 @@
         <v>8</v>
       </c>
       <c r="B544" t="s">
-        <v>1153</v>
+        <v>1171</v>
       </c>
       <c r="D544" t="s">
-        <v>1154</v>
+        <v>1172</v>
       </c>
       <c r="E544" t="s">
-        <v>1155</v>
+        <v>1173</v>
       </c>
       <c r="F544" t="s">
         <v>0</v>
       </c>
       <c r="G544" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B545" t="s">
-        <v>1156</v>
+        <v>1174</v>
       </c>
       <c r="D545" t="s">
-        <v>1157</v>
+        <v>1175</v>
       </c>
       <c r="E545" t="s">
-        <v>1158</v>
+        <v>1176</v>
       </c>
       <c r="F545" t="s">
         <v>0</v>
       </c>
       <c r="G545" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
@@ -16432,19 +16373,19 @@
         <v>8</v>
       </c>
       <c r="B546" t="s">
-        <v>1159</v>
+        <v>1177</v>
       </c>
       <c r="D546" t="s">
-        <v>1160</v>
+        <v>1178</v>
       </c>
       <c r="E546" t="s">
-        <v>1161</v>
+        <v>1179</v>
       </c>
       <c r="F546" t="s">
         <v>0</v>
       </c>
       <c r="G546" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
@@ -16452,19 +16393,19 @@
         <v>8</v>
       </c>
       <c r="B547" t="s">
-        <v>1162</v>
+        <v>1180</v>
       </c>
       <c r="D547" t="s">
-        <v>1163</v>
+        <v>1181</v>
       </c>
       <c r="E547" t="s">
-        <v>1164</v>
+        <v>1182</v>
       </c>
       <c r="F547" t="s">
         <v>0</v>
       </c>
       <c r="G547" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
@@ -16472,39 +16413,39 @@
         <v>8</v>
       </c>
       <c r="B548" t="s">
-        <v>1165</v>
+        <v>1183</v>
       </c>
       <c r="D548" t="s">
-        <v>1166</v>
+        <v>1184</v>
       </c>
       <c r="E548" t="s">
-        <v>1167</v>
+        <v>1185</v>
       </c>
       <c r="F548" t="s">
         <v>0</v>
       </c>
       <c r="G548" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B549" t="s">
-        <v>1168</v>
+        <v>1464</v>
       </c>
       <c r="D549" t="s">
-        <v>1169</v>
+        <v>1465</v>
       </c>
       <c r="E549" t="s">
-        <v>1170</v>
+        <v>1611</v>
       </c>
       <c r="F549" t="s">
         <v>0</v>
       </c>
       <c r="G549" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
@@ -16512,39 +16453,39 @@
         <v>8</v>
       </c>
       <c r="B550" t="s">
-        <v>1171</v>
+        <v>1186</v>
       </c>
       <c r="D550" t="s">
-        <v>1172</v>
+        <v>1187</v>
       </c>
       <c r="E550" t="s">
-        <v>1173</v>
+        <v>1188</v>
       </c>
       <c r="F550" t="s">
         <v>0</v>
       </c>
       <c r="G550" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B551" t="s">
-        <v>1174</v>
+        <v>1189</v>
       </c>
       <c r="D551" t="s">
-        <v>1175</v>
+        <v>1190</v>
       </c>
       <c r="E551" t="s">
-        <v>1176</v>
+        <v>1191</v>
       </c>
       <c r="F551" t="s">
         <v>0</v>
       </c>
       <c r="G551" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
@@ -16552,39 +16493,39 @@
         <v>8</v>
       </c>
       <c r="B552" t="s">
-        <v>1177</v>
+        <v>1192</v>
       </c>
       <c r="D552" t="s">
-        <v>1178</v>
+        <v>1193</v>
       </c>
       <c r="E552" t="s">
-        <v>1179</v>
+        <v>1194</v>
       </c>
       <c r="F552" t="s">
         <v>0</v>
       </c>
       <c r="G552" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B553" t="s">
-        <v>1180</v>
+        <v>1466</v>
       </c>
       <c r="D553" t="s">
-        <v>1181</v>
+        <v>1467</v>
       </c>
       <c r="E553" t="s">
-        <v>1182</v>
+        <v>1612</v>
       </c>
       <c r="F553" t="s">
         <v>0</v>
       </c>
       <c r="G553" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
@@ -16592,39 +16533,39 @@
         <v>8</v>
       </c>
       <c r="B554" t="s">
-        <v>1183</v>
+        <v>1195</v>
       </c>
       <c r="D554" t="s">
-        <v>1184</v>
+        <v>1196</v>
       </c>
       <c r="E554" t="s">
-        <v>1185</v>
+        <v>1197</v>
       </c>
       <c r="F554" t="s">
         <v>0</v>
       </c>
       <c r="G554" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B555" t="s">
-        <v>1476</v>
+        <v>1198</v>
       </c>
       <c r="D555" t="s">
-        <v>1477</v>
+        <v>1199</v>
       </c>
       <c r="E555" t="s">
-        <v>1628</v>
+        <v>1200</v>
       </c>
       <c r="F555" t="s">
         <v>0</v>
       </c>
       <c r="G555" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
@@ -16632,39 +16573,39 @@
         <v>8</v>
       </c>
       <c r="B556" t="s">
-        <v>1186</v>
+        <v>1201</v>
       </c>
       <c r="D556" t="s">
-        <v>1187</v>
+        <v>1202</v>
       </c>
       <c r="E556" t="s">
-        <v>1188</v>
+        <v>1203</v>
       </c>
       <c r="F556" t="s">
         <v>0</v>
       </c>
       <c r="G556" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>8</v>
+        <v>1662</v>
       </c>
       <c r="B557" t="s">
-        <v>1189</v>
+        <v>1659</v>
       </c>
       <c r="D557" t="s">
-        <v>1190</v>
+        <v>1635</v>
       </c>
       <c r="E557" t="s">
-        <v>1191</v>
+        <v>1685</v>
       </c>
       <c r="F557" t="s">
         <v>0</v>
       </c>
       <c r="G557" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
@@ -16672,139 +16613,19 @@
         <v>8</v>
       </c>
       <c r="B558" t="s">
-        <v>1192</v>
+        <v>1204</v>
       </c>
       <c r="D558" t="s">
-        <v>1193</v>
+        <v>1205</v>
       </c>
       <c r="E558" t="s">
-        <v>1194</v>
+        <v>1206</v>
       </c>
       <c r="F558" t="s">
         <v>0</v>
       </c>
       <c r="G558" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A559" t="s">
-        <v>9</v>
-      </c>
-      <c r="B559" t="s">
-        <v>1478</v>
-      </c>
-      <c r="D559" t="s">
-        <v>1479</v>
-      </c>
-      <c r="E559" t="s">
-        <v>1629</v>
-      </c>
-      <c r="F559" t="s">
-        <v>0</v>
-      </c>
-      <c r="G559" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A560" t="s">
-        <v>8</v>
-      </c>
-      <c r="B560" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D560" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E560" t="s">
-        <v>1197</v>
-      </c>
-      <c r="F560" t="s">
-        <v>0</v>
-      </c>
-      <c r="G560" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A561" t="s">
-        <v>8</v>
-      </c>
-      <c r="B561" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D561" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E561" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F561" t="s">
-        <v>0</v>
-      </c>
-      <c r="G561" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A562" t="s">
-        <v>8</v>
-      </c>
-      <c r="B562" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D562" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E562" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F562" t="s">
-        <v>0</v>
-      </c>
-      <c r="G562" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A563" t="s">
-        <v>1679</v>
-      </c>
-      <c r="B563" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D563" t="s">
-        <v>1652</v>
-      </c>
-      <c r="E563" t="s">
-        <v>1702</v>
-      </c>
-      <c r="F563" t="s">
-        <v>0</v>
-      </c>
-      <c r="G563" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A564" t="s">
-        <v>8</v>
-      </c>
-      <c r="B564" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D564" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E564" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F564" t="s">
-        <v>0</v>
-      </c>
-      <c r="G564" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
   </sheetData>

--- a/Bibsam_tidskriftslistor/scifree_data_springernature_fullyoa.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_springernature_fullyoa.xlsx
@@ -5127,7 +5127,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5169,10 +5189,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G558" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G558" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:G558"/>
-  <sortState ref="A2:G564">
-    <sortCondition ref="D1:D564"/>
+  <sortState ref="A2:G558">
+    <sortCondition ref="D1:D558"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Imprint"/>
@@ -16630,7 +16650,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bibsam_tidskriftslistor/scifree_data_springernature_fullyoa.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_springernature_fullyoa.xlsx
@@ -5127,16 +5127,23 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5158,23 +5165,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5189,7 +5179,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G558" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G558" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:G558"/>
   <sortState ref="A2:G558">
     <sortCondition ref="D1:D558"/>
@@ -5472,7 +5462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G558"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
+      <selection activeCell="D367" sqref="D367"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16650,8 +16642,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bibsam_tidskriftslistor/scifree_data_springernature_fullyoa.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_springernature_fullyoa.xlsx
@@ -525,15 +525,6 @@
     <t>https://springer.com/12902</t>
   </si>
   <si>
-    <t>1471-2296</t>
-  </si>
-  <si>
-    <t>BMC Family Practice</t>
-  </si>
-  <si>
-    <t>https://springer.com/12875</t>
-  </si>
-  <si>
     <t>1471-230X</t>
   </si>
   <si>
@@ -4045,6 +4036,15 @@
   </si>
   <si>
     <t>https://www.nature.com/npjoceansustain/</t>
+  </si>
+  <si>
+    <t>2731-4553</t>
+  </si>
+  <si>
+    <t>BMC Primary Care</t>
+  </si>
+  <si>
+    <t>https://bmcprimcare.biomedcentral.com/</t>
   </si>
 </sst>
 </file>
@@ -4180,44 +4180,23 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="10">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4309,115 +4288,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4432,7 +4302,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G446" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G446" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:G446"/>
   <sortState ref="A2:G446">
     <sortCondition ref="D1:D446"/>
@@ -4768,27 +4638,27 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E3" t="s">
         <v>1231</v>
       </c>
-      <c r="B3" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1234</v>
-      </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4808,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4828,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4848,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4868,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4888,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4908,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -4928,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4936,19 +4806,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="D11" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="E11" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4962,13 +4832,13 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -4988,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -5008,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -5028,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -5048,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -5068,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -5088,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -5108,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -5128,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -5148,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -5168,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -5188,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -5196,38 +5066,38 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="D24" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="E24" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="F24" t="s">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -5247,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -5267,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -5287,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -5295,19 +5165,19 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="D29" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="E29" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="F29" t="s">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -5327,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -5335,20 +5205,20 @@
         <v>8</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -5368,26 +5238,26 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -5407,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -5427,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -5447,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -5467,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -5487,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -5507,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -5527,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -5547,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -5567,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -5587,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -5607,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -5627,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -5647,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -5667,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -5687,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -5707,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -5727,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -5747,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -5767,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -5787,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -5807,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -5827,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -5847,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -5867,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -5887,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -5895,19 +5765,19 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="D59" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="E59" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="F59" t="s">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -5915,19 +5785,19 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="D60" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="E60" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="F60" t="s">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -5947,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -5967,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -5987,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -5995,19 +5865,19 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>171</v>
+        <v>1208</v>
       </c>
       <c r="D64" t="s">
-        <v>172</v>
+        <v>1186</v>
       </c>
       <c r="E64" t="s">
-        <v>173</v>
+        <v>1234</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -6015,19 +5885,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>1211</v>
+        <v>171</v>
       </c>
       <c r="D65" t="s">
-        <v>1189</v>
+        <v>172</v>
       </c>
       <c r="E65" t="s">
-        <v>1237</v>
+        <v>173</v>
       </c>
       <c r="F65" t="s">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -6047,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -6067,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -6087,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -6107,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -6127,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -6147,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -6167,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -6187,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -6207,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -6227,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -6247,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -6267,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -6287,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -6307,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -6327,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -6347,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -6367,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -6387,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -6407,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -6427,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -6447,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -6467,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -6487,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -6507,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -6527,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -6547,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -6555,19 +6425,19 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>252</v>
+        <v>1339</v>
       </c>
       <c r="D92" t="s">
-        <v>253</v>
+        <v>1340</v>
       </c>
       <c r="E92" t="s">
-        <v>254</v>
+        <v>1341</v>
       </c>
       <c r="F92" t="s">
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -6575,19 +6445,19 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D93" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E93" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F93" t="s">
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -6595,19 +6465,19 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D94" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E94" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F94" t="s">
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -6615,19 +6485,19 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D95" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E95" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F95" t="s">
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -6635,19 +6505,19 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D96" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E96" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -6655,19 +6525,19 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D97" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E97" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -6675,19 +6545,19 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D98" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E98" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F98" t="s">
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -6695,19 +6565,19 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D99" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E99" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F99" t="s">
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -6715,19 +6585,19 @@
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D100" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E100" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F100" t="s">
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -6735,19 +6605,19 @@
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D101" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E101" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -6755,19 +6625,19 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D102" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E102" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F102" t="s">
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -6775,19 +6645,19 @@
         <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D103" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E103" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F103" t="s">
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -6795,19 +6665,19 @@
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D104" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E104" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F104" t="s">
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -6815,19 +6685,19 @@
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D105" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E105" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F105" t="s">
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -6835,19 +6705,19 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D106" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E106" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F106" t="s">
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -6855,19 +6725,19 @@
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D107" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E107" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F107" t="s">
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -6875,19 +6745,19 @@
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D108" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E108" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F108" t="s">
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -6895,19 +6765,19 @@
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D109" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E109" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F109" t="s">
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -6915,19 +6785,19 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D110" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E110" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F110" t="s">
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -6935,19 +6805,19 @@
         <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D111" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E111" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F111" t="s">
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -6955,19 +6825,19 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D112" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E112" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F112" t="s">
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -6975,19 +6845,19 @@
         <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D113" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E113" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F113" t="s">
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -6995,19 +6865,19 @@
         <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D114" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E114" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F114" t="s">
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -7015,19 +6885,19 @@
         <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D115" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E115" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F115" t="s">
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -7035,19 +6905,19 @@
         <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D116" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E116" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F116" t="s">
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -7055,19 +6925,19 @@
         <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D117" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E117" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F117" t="s">
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -7075,19 +6945,19 @@
         <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="D118" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="E118" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="F118" t="s">
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -7095,19 +6965,19 @@
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D119" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E119" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F119" t="s">
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -7115,19 +6985,19 @@
         <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D120" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E120" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F120" t="s">
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -7135,19 +7005,19 @@
         <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D121" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E121" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F121" t="s">
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -7155,19 +7025,19 @@
         <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D122" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E122" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F122" t="s">
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -7175,19 +7045,19 @@
         <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D123" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E123" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F123" t="s">
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -7195,19 +7065,19 @@
         <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D124" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E124" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F124" t="s">
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -7215,19 +7085,19 @@
         <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D125" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E125" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F125" t="s">
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -7235,19 +7105,19 @@
         <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D126" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E126" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F126" t="s">
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -7255,19 +7125,19 @@
         <v>10</v>
       </c>
       <c r="B127" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D127" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E127" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F127" t="s">
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -7275,19 +7145,19 @@
         <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D128" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E128" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F128" t="s">
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -7295,19 +7165,19 @@
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D129" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E129" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F129" t="s">
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -7315,19 +7185,19 @@
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D130" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E130" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F130" t="s">
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -7335,19 +7205,19 @@
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D131" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E131" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F131" t="s">
         <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -7355,20 +7225,20 @@
         <v>8</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" s="8" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="F132" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -7376,19 +7246,19 @@
         <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="D133" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="E133" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="F133" t="s">
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -7396,40 +7266,40 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D134" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E134" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F134" t="s">
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="F135" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -7437,19 +7307,19 @@
         <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D136" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E136" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F136" t="s">
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -7457,19 +7327,19 @@
         <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D137" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E137" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F137" t="s">
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -7477,19 +7347,19 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D138" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E138" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F138" t="s">
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -7497,19 +7367,19 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="D139" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="E139" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="F139" t="s">
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -7517,19 +7387,19 @@
         <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D140" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E140" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F140" t="s">
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -7537,19 +7407,19 @@
         <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D141" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E141" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F141" t="s">
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -7557,19 +7427,19 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D142" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E142" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F142" t="s">
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -7577,19 +7447,19 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D143" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E143" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F143" t="s">
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -7597,40 +7467,40 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="D144" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="E144" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="F144" t="s">
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C145" s="8"/>
       <c r="D145" s="8" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="F145" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -7638,19 +7508,19 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="D146" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="E146" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="F146" t="s">
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -7658,19 +7528,19 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="D147" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="E147" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="F147" t="s">
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -7678,19 +7548,19 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D148" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E148" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F148" t="s">
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -7698,19 +7568,19 @@
         <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D149" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E149" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F149" t="s">
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -7718,19 +7588,19 @@
         <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D150" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="E150" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="F150" t="s">
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -7738,19 +7608,19 @@
         <v>8</v>
       </c>
       <c r="B151" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D151" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E151" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F151" t="s">
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -7758,19 +7628,19 @@
         <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D152" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E152" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F152" t="s">
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -7778,19 +7648,19 @@
         <v>8</v>
       </c>
       <c r="B153" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D153" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E153" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F153" t="s">
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -7798,19 +7668,19 @@
         <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D154" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E154" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F154" t="s">
         <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -7818,38 +7688,38 @@
         <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D155" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E155" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F155" t="s">
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -7857,19 +7727,19 @@
         <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D157" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E157" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F157" t="s">
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -7877,19 +7747,19 @@
         <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D158" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E158" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F158" t="s">
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -7897,19 +7767,19 @@
         <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D159" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E159" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F159" t="s">
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -7917,306 +7787,306 @@
         <v>8</v>
       </c>
       <c r="B160" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D160" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E160" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F160" t="s">
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="C161" s="8"/>
       <c r="D161" s="8" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="F161" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B162" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="D162" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="E162" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="F162" t="s">
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="F163" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B164" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="D164" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="E164" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="F164" t="s">
         <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C165" s="8"/>
       <c r="D165" s="8" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="F165" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="F166" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B167" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="D167" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="E167" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="F167" t="s">
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B168" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="D168" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="E168" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="F168" t="s">
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C169" s="8"/>
       <c r="D169" s="8" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="F169" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B170" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="D170" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="E170" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="F170" t="s">
         <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="F171" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C172" s="8"/>
       <c r="D172" s="8" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="F172" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B173" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="D173" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="E173" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="F173" t="s">
         <v>0</v>
       </c>
       <c r="G173" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B174" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="D174" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="E174" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="F174" t="s">
         <v>0</v>
       </c>
       <c r="G174" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -8224,19 +8094,19 @@
         <v>9</v>
       </c>
       <c r="B175" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D175" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E175" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F175" t="s">
         <v>0</v>
       </c>
       <c r="G175" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -8244,18 +8114,18 @@
         <v>8</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="5" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -8263,19 +8133,19 @@
         <v>9</v>
       </c>
       <c r="B177" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E177" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F177" t="s">
         <v>0</v>
       </c>
       <c r="G177" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -8283,19 +8153,19 @@
         <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D178" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E178" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F178" t="s">
         <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -8303,19 +8173,19 @@
         <v>9</v>
       </c>
       <c r="B179" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D179" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E179" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F179" t="s">
         <v>0</v>
       </c>
       <c r="G179" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -8323,18 +8193,18 @@
         <v>8</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C180" s="8"/>
       <c r="D180" s="8" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="E180" s="8"/>
       <c r="F180" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -8342,19 +8212,19 @@
         <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D181" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E181" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F181" t="s">
         <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -8362,19 +8232,19 @@
         <v>9</v>
       </c>
       <c r="B182" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D182" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E182" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F182" t="s">
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -8382,19 +8252,19 @@
         <v>8</v>
       </c>
       <c r="B183" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D183" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E183" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F183" t="s">
         <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -8402,19 +8272,19 @@
         <v>8</v>
       </c>
       <c r="B184" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D184" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E184" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F184" t="s">
         <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -8422,19 +8292,19 @@
         <v>8</v>
       </c>
       <c r="B185" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D185" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E185" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F185" t="s">
         <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -8442,19 +8312,19 @@
         <v>8</v>
       </c>
       <c r="B186" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="D186" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E186" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="F186" t="s">
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -8462,19 +8332,19 @@
         <v>9</v>
       </c>
       <c r="B187" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D187" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E187" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F187" t="s">
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -8482,19 +8352,19 @@
         <v>9</v>
       </c>
       <c r="B188" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D188" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E188" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F188" t="s">
         <v>0</v>
       </c>
       <c r="G188" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -8502,19 +8372,19 @@
         <v>8</v>
       </c>
       <c r="B189" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D189" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E189" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F189" t="s">
         <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -8522,19 +8392,19 @@
         <v>8</v>
       </c>
       <c r="B190" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="D190" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="E190" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="F190" t="s">
         <v>0</v>
       </c>
       <c r="G190" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -8542,19 +8412,19 @@
         <v>9</v>
       </c>
       <c r="B191" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D191" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E191" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F191" t="s">
         <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -8562,19 +8432,19 @@
         <v>9</v>
       </c>
       <c r="B192" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D192" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E192" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F192" t="s">
         <v>0</v>
       </c>
       <c r="G192" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -8582,19 +8452,19 @@
         <v>9</v>
       </c>
       <c r="B193" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D193" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E193" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F193" t="s">
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -8602,19 +8472,19 @@
         <v>9</v>
       </c>
       <c r="B194" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D194" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E194" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F194" t="s">
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -8622,19 +8492,19 @@
         <v>9</v>
       </c>
       <c r="B195" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D195" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E195" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F195" t="s">
         <v>0</v>
       </c>
       <c r="G195" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -8642,19 +8512,19 @@
         <v>9</v>
       </c>
       <c r="B196" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D196" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E196" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F196" t="s">
         <v>0</v>
       </c>
       <c r="G196" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -8662,19 +8532,19 @@
         <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D197" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E197" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F197" t="s">
         <v>0</v>
       </c>
       <c r="G197" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -8682,19 +8552,19 @@
         <v>9</v>
       </c>
       <c r="B198" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D198" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E198" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F198" t="s">
         <v>0</v>
       </c>
       <c r="G198" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -8702,19 +8572,19 @@
         <v>9</v>
       </c>
       <c r="B199" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D199" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E199" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F199" t="s">
         <v>0</v>
       </c>
       <c r="G199" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -8722,19 +8592,19 @@
         <v>9</v>
       </c>
       <c r="B200" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D200" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E200" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F200" t="s">
         <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -8742,19 +8612,19 @@
         <v>8</v>
       </c>
       <c r="B201" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D201" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E201" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F201" t="s">
         <v>0</v>
       </c>
       <c r="G201" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -8762,19 +8632,19 @@
         <v>9</v>
       </c>
       <c r="B202" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D202" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E202" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F202" t="s">
         <v>0</v>
       </c>
       <c r="G202" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -8782,19 +8652,19 @@
         <v>8</v>
       </c>
       <c r="B203" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D203" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E203" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F203" t="s">
         <v>0</v>
       </c>
       <c r="G203" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -8802,19 +8672,19 @@
         <v>9</v>
       </c>
       <c r="B204" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D204" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E204" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F204" t="s">
         <v>0</v>
       </c>
       <c r="G204" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -8822,19 +8692,19 @@
         <v>8</v>
       </c>
       <c r="B205" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D205" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E205" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F205" t="s">
         <v>0</v>
       </c>
       <c r="G205" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -8842,19 +8712,19 @@
         <v>8</v>
       </c>
       <c r="B206" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D206" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E206" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F206" t="s">
         <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -8862,19 +8732,19 @@
         <v>10</v>
       </c>
       <c r="B207" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D207" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E207" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F207" t="s">
         <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -8882,19 +8752,19 @@
         <v>8</v>
       </c>
       <c r="B208" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D208" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E208" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F208" t="s">
         <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -8902,19 +8772,19 @@
         <v>9</v>
       </c>
       <c r="B209" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D209" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E209" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F209" t="s">
         <v>0</v>
       </c>
       <c r="G209" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -8922,19 +8792,19 @@
         <v>8</v>
       </c>
       <c r="B210" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D210" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E210" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F210" t="s">
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -8942,39 +8812,39 @@
         <v>9</v>
       </c>
       <c r="B211" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D211" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E211" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F211" t="s">
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B212" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="D212" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="E212" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="F212" t="s">
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -8982,19 +8852,19 @@
         <v>8</v>
       </c>
       <c r="B213" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D213" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E213" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F213" t="s">
         <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -9002,19 +8872,19 @@
         <v>8</v>
       </c>
       <c r="B214" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D214" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E214" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F214" t="s">
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -9022,19 +8892,19 @@
         <v>9</v>
       </c>
       <c r="B215" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D215" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E215" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F215" t="s">
         <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -9042,19 +8912,19 @@
         <v>8</v>
       </c>
       <c r="B216" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D216" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E216" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F216" t="s">
         <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -9062,19 +8932,19 @@
         <v>8</v>
       </c>
       <c r="B217" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D217" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E217" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F217" t="s">
         <v>0</v>
       </c>
       <c r="G217" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -9082,19 +8952,19 @@
         <v>8</v>
       </c>
       <c r="B218" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D218" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E218" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F218" t="s">
         <v>0</v>
       </c>
       <c r="G218" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -9102,19 +8972,19 @@
         <v>8</v>
       </c>
       <c r="B219" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D219" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E219" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F219" t="s">
         <v>0</v>
       </c>
       <c r="G219" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -9122,19 +8992,19 @@
         <v>8</v>
       </c>
       <c r="B220" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D220" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E220" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F220" t="s">
         <v>0</v>
       </c>
       <c r="G220" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -9142,19 +9012,19 @@
         <v>8</v>
       </c>
       <c r="B221" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D221" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E221" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F221" t="s">
         <v>0</v>
       </c>
       <c r="G221" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -9162,19 +9032,19 @@
         <v>9</v>
       </c>
       <c r="B222" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D222" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E222" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F222" t="s">
         <v>0</v>
       </c>
       <c r="G222" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -9182,19 +9052,19 @@
         <v>8</v>
       </c>
       <c r="B223" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D223" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E223" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F223" t="s">
         <v>0</v>
       </c>
       <c r="G223" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -9202,19 +9072,19 @@
         <v>9</v>
       </c>
       <c r="B224" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="D224" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="E224" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="F224" t="s">
         <v>0</v>
       </c>
       <c r="G224" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -9222,19 +9092,19 @@
         <v>9</v>
       </c>
       <c r="B225" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D225" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E225" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F225" t="s">
         <v>0</v>
       </c>
       <c r="G225" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -9242,19 +9112,19 @@
         <v>9</v>
       </c>
       <c r="B226" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D226" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E226" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F226" t="s">
         <v>0</v>
       </c>
       <c r="G226" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -9262,40 +9132,40 @@
         <v>8</v>
       </c>
       <c r="B227" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D227" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E227" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F227" t="s">
         <v>0</v>
       </c>
       <c r="G227" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="F228" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G228" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -9303,19 +9173,19 @@
         <v>8</v>
       </c>
       <c r="B229" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D229" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E229" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F229" t="s">
         <v>0</v>
       </c>
       <c r="G229" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -9323,19 +9193,19 @@
         <v>8</v>
       </c>
       <c r="B230" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D230" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E230" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F230" t="s">
         <v>0</v>
       </c>
       <c r="G230" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -9343,19 +9213,19 @@
         <v>8</v>
       </c>
       <c r="B231" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D231" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E231" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F231" t="s">
         <v>0</v>
       </c>
       <c r="G231" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -9363,19 +9233,19 @@
         <v>8</v>
       </c>
       <c r="B232" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D232" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E232" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F232" t="s">
         <v>0</v>
       </c>
       <c r="G232" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -9383,19 +9253,19 @@
         <v>8</v>
       </c>
       <c r="B233" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D233" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E233" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F233" t="s">
         <v>0</v>
       </c>
       <c r="G233" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -9403,19 +9273,19 @@
         <v>8</v>
       </c>
       <c r="B234" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D234" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E234" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F234" t="s">
         <v>0</v>
       </c>
       <c r="G234" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -9423,19 +9293,19 @@
         <v>8</v>
       </c>
       <c r="B235" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D235" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E235" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F235" t="s">
         <v>0</v>
       </c>
       <c r="G235" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -9443,19 +9313,19 @@
         <v>8</v>
       </c>
       <c r="B236" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D236" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E236" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F236" t="s">
         <v>0</v>
       </c>
       <c r="G236" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -9463,19 +9333,19 @@
         <v>8</v>
       </c>
       <c r="B237" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D237" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E237" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F237" t="s">
         <v>0</v>
       </c>
       <c r="G237" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -9483,19 +9353,19 @@
         <v>9</v>
       </c>
       <c r="B238" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D238" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E238" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F238" t="s">
         <v>0</v>
       </c>
       <c r="G238" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -9503,19 +9373,19 @@
         <v>10</v>
       </c>
       <c r="B239" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D239" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E239" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F239" t="s">
         <v>0</v>
       </c>
       <c r="G239" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -9523,19 +9393,19 @@
         <v>8</v>
       </c>
       <c r="B240" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D240" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E240" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F240" t="s">
         <v>0</v>
       </c>
       <c r="G240" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -9543,19 +9413,19 @@
         <v>8</v>
       </c>
       <c r="B241" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D241" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E241" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F241" t="s">
         <v>0</v>
       </c>
       <c r="G241" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -9563,19 +9433,19 @@
         <v>12</v>
       </c>
       <c r="B242" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="D242" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="E242" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="F242" t="s">
         <v>0</v>
       </c>
       <c r="G242" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -9583,19 +9453,19 @@
         <v>8</v>
       </c>
       <c r="B243" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D243" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E243" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F243" t="s">
         <v>0</v>
       </c>
       <c r="G243" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -9603,19 +9473,19 @@
         <v>8</v>
       </c>
       <c r="B244" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D244" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E244" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F244" t="s">
         <v>0</v>
       </c>
       <c r="G244" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -9623,19 +9493,19 @@
         <v>8</v>
       </c>
       <c r="B245" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D245" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E245" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F245" t="s">
         <v>0</v>
       </c>
       <c r="G245" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -9643,19 +9513,19 @@
         <v>8</v>
       </c>
       <c r="B246" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D246" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E246" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F246" t="s">
         <v>0</v>
       </c>
       <c r="G246" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -9663,19 +9533,19 @@
         <v>8</v>
       </c>
       <c r="B247" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D247" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E247" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F247" t="s">
         <v>0</v>
       </c>
       <c r="G247" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -9683,19 +9553,19 @@
         <v>8</v>
       </c>
       <c r="B248" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D248" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E248" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F248" t="s">
         <v>0</v>
       </c>
       <c r="G248" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -9703,19 +9573,19 @@
         <v>8</v>
       </c>
       <c r="B249" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D249" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E249" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F249" t="s">
         <v>0</v>
       </c>
       <c r="G249" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -9723,19 +9593,19 @@
         <v>8</v>
       </c>
       <c r="B250" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D250" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E250" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F250" t="s">
         <v>0</v>
       </c>
       <c r="G250" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -9743,19 +9613,19 @@
         <v>9</v>
       </c>
       <c r="B251" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D251" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E251" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F251" t="s">
         <v>0</v>
       </c>
       <c r="G251" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -9763,19 +9633,19 @@
         <v>9</v>
       </c>
       <c r="B252" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D252" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E252" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F252" t="s">
         <v>0</v>
       </c>
       <c r="G252" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -9783,19 +9653,19 @@
         <v>8</v>
       </c>
       <c r="B253" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D253" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E253" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F253" t="s">
         <v>0</v>
       </c>
       <c r="G253" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -9803,19 +9673,19 @@
         <v>8</v>
       </c>
       <c r="B254" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D254" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E254" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F254" t="s">
         <v>0</v>
       </c>
       <c r="G254" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -9823,40 +9693,40 @@
         <v>8</v>
       </c>
       <c r="B255" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D255" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E255" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F255" t="s">
         <v>0</v>
       </c>
       <c r="G255" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C256" s="8"/>
       <c r="D256" s="8" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="F256" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G256" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -9864,19 +9734,19 @@
         <v>8</v>
       </c>
       <c r="B257" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D257" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E257" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F257" t="s">
         <v>0</v>
       </c>
       <c r="G257" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -9884,40 +9754,40 @@
         <v>9</v>
       </c>
       <c r="B258" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D258" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E258" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F258" t="s">
         <v>0</v>
       </c>
       <c r="G258" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C259" s="5"/>
       <c r="D259" s="5" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="F259" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G259" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -9925,19 +9795,19 @@
         <v>9</v>
       </c>
       <c r="B260" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D260" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E260" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F260" t="s">
         <v>0</v>
       </c>
       <c r="G260" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -9945,19 +9815,19 @@
         <v>9</v>
       </c>
       <c r="B261" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D261" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E261" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F261" t="s">
         <v>0</v>
       </c>
       <c r="G261" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -9965,19 +9835,19 @@
         <v>8</v>
       </c>
       <c r="B262" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D262" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E262" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F262" t="s">
         <v>0</v>
       </c>
       <c r="G262" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -9985,19 +9855,19 @@
         <v>8</v>
       </c>
       <c r="B263" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D263" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E263" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F263" t="s">
         <v>0</v>
       </c>
       <c r="G263" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -10005,19 +9875,19 @@
         <v>8</v>
       </c>
       <c r="B264" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D264" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E264" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F264" t="s">
         <v>0</v>
       </c>
       <c r="G264" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -10025,19 +9895,19 @@
         <v>9</v>
       </c>
       <c r="B265" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="D265" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="E265" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="F265" t="s">
         <v>0</v>
       </c>
       <c r="G265" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -10045,19 +9915,19 @@
         <v>9</v>
       </c>
       <c r="B266" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D266" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E266" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F266" t="s">
         <v>0</v>
       </c>
       <c r="G266" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -10065,19 +9935,19 @@
         <v>8</v>
       </c>
       <c r="B267" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D267" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E267" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="F267" t="s">
         <v>0</v>
       </c>
       <c r="G267" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -10085,19 +9955,19 @@
         <v>10</v>
       </c>
       <c r="B268" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D268" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E268" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F268" t="s">
         <v>0</v>
       </c>
       <c r="G268" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -10105,19 +9975,19 @@
         <v>8</v>
       </c>
       <c r="B269" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D269" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E269" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F269" t="s">
         <v>0</v>
       </c>
       <c r="G269" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -10125,19 +9995,19 @@
         <v>9</v>
       </c>
       <c r="B270" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D270" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E270" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F270" t="s">
         <v>0</v>
       </c>
       <c r="G270" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -10145,19 +10015,19 @@
         <v>8</v>
       </c>
       <c r="B271" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D271" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E271" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F271" t="s">
         <v>0</v>
       </c>
       <c r="G271" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -10165,19 +10035,19 @@
         <v>10</v>
       </c>
       <c r="B272" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="D272" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="E272" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="F272" t="s">
         <v>0</v>
       </c>
       <c r="G272" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -10185,19 +10055,19 @@
         <v>8</v>
       </c>
       <c r="B273" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="D273" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="E273" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="F273" t="s">
         <v>0</v>
       </c>
       <c r="G273" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -10205,19 +10075,19 @@
         <v>8</v>
       </c>
       <c r="B274" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D274" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E274" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F274" t="s">
         <v>0</v>
       </c>
       <c r="G274" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -10225,19 +10095,19 @@
         <v>9</v>
       </c>
       <c r="B275" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D275" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E275" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F275" t="s">
         <v>0</v>
       </c>
       <c r="G275" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -10245,20 +10115,20 @@
         <v>8</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="C276" s="8"/>
       <c r="D276" s="8" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="E276" s="8" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="F276" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G276" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -10266,18 +10136,18 @@
         <v>8</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="C277" s="5"/>
       <c r="D277" s="5" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="E277" s="5"/>
       <c r="F277" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G277" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -10285,19 +10155,19 @@
         <v>8</v>
       </c>
       <c r="B278" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D278" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E278" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F278" t="s">
         <v>0</v>
       </c>
       <c r="G278" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -10305,19 +10175,19 @@
         <v>8</v>
       </c>
       <c r="B279" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D279" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E279" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F279" t="s">
         <v>0</v>
       </c>
       <c r="G279" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -10325,19 +10195,19 @@
         <v>9</v>
       </c>
       <c r="B280" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D280" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E280" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F280" t="s">
         <v>0</v>
       </c>
       <c r="G280" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -10345,19 +10215,19 @@
         <v>8</v>
       </c>
       <c r="B281" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D281" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E281" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F281" t="s">
         <v>0</v>
       </c>
       <c r="G281" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -10365,19 +10235,19 @@
         <v>8</v>
       </c>
       <c r="B282" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D282" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E282" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F282" t="s">
         <v>0</v>
       </c>
       <c r="G282" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -10385,19 +10255,19 @@
         <v>8</v>
       </c>
       <c r="B283" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D283" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E283" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F283" t="s">
         <v>0</v>
       </c>
       <c r="G283" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -10405,19 +10275,19 @@
         <v>8</v>
       </c>
       <c r="B284" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D284" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E284" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F284" t="s">
         <v>0</v>
       </c>
       <c r="G284" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -10425,19 +10295,19 @@
         <v>8</v>
       </c>
       <c r="B285" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D285" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E285" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F285" t="s">
         <v>0</v>
       </c>
       <c r="G285" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -10445,19 +10315,19 @@
         <v>9</v>
       </c>
       <c r="B286" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D286" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E286" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F286" t="s">
         <v>0</v>
       </c>
       <c r="G286" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -10465,59 +10335,59 @@
         <v>8</v>
       </c>
       <c r="B287" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D287" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E287" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F287" t="s">
         <v>0</v>
       </c>
       <c r="G287" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="8" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="C288" s="8"/>
       <c r="D288" s="8" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="E288" s="8"/>
       <c r="F288" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G288" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="C289" s="5"/>
       <c r="D289" s="5" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="F289" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G289" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -10525,19 +10395,19 @@
         <v>8</v>
       </c>
       <c r="B290" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D290" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E290" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F290" t="s">
         <v>0</v>
       </c>
       <c r="G290" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -10545,19 +10415,19 @@
         <v>8</v>
       </c>
       <c r="B291" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D291" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E291" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F291" t="s">
         <v>0</v>
       </c>
       <c r="G291" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -10565,19 +10435,19 @@
         <v>9</v>
       </c>
       <c r="B292" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D292" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E292" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F292" t="s">
         <v>0</v>
       </c>
       <c r="G292" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -10585,19 +10455,19 @@
         <v>8</v>
       </c>
       <c r="B293" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D293" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E293" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F293" t="s">
         <v>0</v>
       </c>
       <c r="G293" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
@@ -10605,19 +10475,19 @@
         <v>8</v>
       </c>
       <c r="B294" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D294" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E294" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F294" t="s">
         <v>0</v>
       </c>
       <c r="G294" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
@@ -10625,19 +10495,19 @@
         <v>8</v>
       </c>
       <c r="B295" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D295" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E295" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F295" t="s">
         <v>0</v>
       </c>
       <c r="G295" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -10645,19 +10515,19 @@
         <v>9</v>
       </c>
       <c r="B296" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D296" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E296" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F296" t="s">
         <v>0</v>
       </c>
       <c r="G296" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -10665,19 +10535,19 @@
         <v>8</v>
       </c>
       <c r="B297" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D297" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E297" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F297" t="s">
         <v>0</v>
       </c>
       <c r="G297" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -10685,19 +10555,19 @@
         <v>9</v>
       </c>
       <c r="B298" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D298" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E298" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F298" t="s">
         <v>0</v>
       </c>
       <c r="G298" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
@@ -10705,19 +10575,19 @@
         <v>9</v>
       </c>
       <c r="B299" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D299" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E299" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F299" t="s">
         <v>0</v>
       </c>
       <c r="G299" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -10725,39 +10595,39 @@
         <v>8</v>
       </c>
       <c r="B300" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="D300" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="E300" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="F300" t="s">
         <v>0</v>
       </c>
       <c r="G300" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B301" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="D301" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="E301" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="F301" t="s">
         <v>0</v>
       </c>
       <c r="G301" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
@@ -10765,19 +10635,19 @@
         <v>9</v>
       </c>
       <c r="B302" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D302" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E302" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F302" t="s">
         <v>0</v>
       </c>
       <c r="G302" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
@@ -10785,19 +10655,19 @@
         <v>8</v>
       </c>
       <c r="B303" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D303" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E303" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F303" t="s">
         <v>0</v>
       </c>
       <c r="G303" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
@@ -10805,19 +10675,19 @@
         <v>8</v>
       </c>
       <c r="B304" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D304" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E304" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F304" t="s">
         <v>0</v>
       </c>
       <c r="G304" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -10825,19 +10695,19 @@
         <v>8</v>
       </c>
       <c r="B305" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D305" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E305" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F305" t="s">
         <v>0</v>
       </c>
       <c r="G305" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
@@ -10845,19 +10715,19 @@
         <v>8</v>
       </c>
       <c r="B306" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D306" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E306" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F306" t="s">
         <v>0</v>
       </c>
       <c r="G306" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
@@ -10865,40 +10735,40 @@
         <v>8</v>
       </c>
       <c r="B307" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D307" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E307" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F307" t="s">
         <v>0</v>
       </c>
       <c r="G307" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="8" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="C308" s="8"/>
       <c r="D308" s="8" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="E308" s="8" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="F308" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G308" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
@@ -10906,19 +10776,19 @@
         <v>8</v>
       </c>
       <c r="B309" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D309" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E309" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F309" t="s">
         <v>0</v>
       </c>
       <c r="G309" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -10926,19 +10796,19 @@
         <v>9</v>
       </c>
       <c r="B310" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D310" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E310" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="F310" t="s">
         <v>0</v>
       </c>
       <c r="G310" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -10946,19 +10816,19 @@
         <v>8</v>
       </c>
       <c r="B311" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D311" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E311" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F311" t="s">
         <v>0</v>
       </c>
       <c r="G311" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -10966,19 +10836,19 @@
         <v>9</v>
       </c>
       <c r="B312" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D312" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E312" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F312" t="s">
         <v>0</v>
       </c>
       <c r="G312" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
@@ -10986,19 +10856,19 @@
         <v>8</v>
       </c>
       <c r="B313" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D313" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E313" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F313" t="s">
         <v>0</v>
       </c>
       <c r="G313" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
@@ -11006,19 +10876,19 @@
         <v>8</v>
       </c>
       <c r="B314" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D314" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E314" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F314" t="s">
         <v>0</v>
       </c>
       <c r="G314" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
@@ -11026,19 +10896,19 @@
         <v>9</v>
       </c>
       <c r="B315" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D315" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E315" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F315" t="s">
         <v>0</v>
       </c>
       <c r="G315" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -11046,19 +10916,19 @@
         <v>9</v>
       </c>
       <c r="B316" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="D316" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="E316" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="F316" t="s">
         <v>0</v>
       </c>
       <c r="G316" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
@@ -11066,19 +10936,19 @@
         <v>8</v>
       </c>
       <c r="B317" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D317" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E317" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="F317" t="s">
         <v>0</v>
       </c>
       <c r="G317" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -11086,19 +10956,19 @@
         <v>8</v>
       </c>
       <c r="B318" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D318" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="E318" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="F318" t="s">
         <v>0</v>
       </c>
       <c r="G318" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -11106,38 +10976,38 @@
         <v>8</v>
       </c>
       <c r="B319" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D319" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E319" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F319" t="s">
         <v>0</v>
       </c>
       <c r="G319" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="C320" s="5"/>
       <c r="D320" s="5" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="E320" s="5"/>
       <c r="F320" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G320" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -11145,40 +11015,40 @@
         <v>9</v>
       </c>
       <c r="B321" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D321" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E321" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F321" t="s">
         <v>0</v>
       </c>
       <c r="G321" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="8" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="C322" s="8"/>
       <c r="D322" s="8" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="E322" s="8" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="F322" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G322" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
@@ -11186,19 +11056,19 @@
         <v>8</v>
       </c>
       <c r="B323" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D323" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E323" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F323" t="s">
         <v>0</v>
       </c>
       <c r="G323" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -11206,19 +11076,19 @@
         <v>9</v>
       </c>
       <c r="B324" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D324" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E324" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F324" t="s">
         <v>0</v>
       </c>
       <c r="G324" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -11226,19 +11096,19 @@
         <v>9</v>
       </c>
       <c r="B325" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D325" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="E325" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="F325" t="s">
         <v>0</v>
       </c>
       <c r="G325" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -11246,19 +11116,19 @@
         <v>10</v>
       </c>
       <c r="B326" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D326" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E326" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="F326" t="s">
         <v>0</v>
       </c>
       <c r="G326" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
@@ -11266,19 +11136,19 @@
         <v>8</v>
       </c>
       <c r="B327" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D327" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="E327" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="F327" t="s">
         <v>0</v>
       </c>
       <c r="G327" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
@@ -11286,38 +11156,38 @@
         <v>8</v>
       </c>
       <c r="B328" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D328" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="E328" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="F328" t="s">
         <v>0</v>
       </c>
       <c r="G328" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="C329" s="5"/>
       <c r="D329" s="5" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="E329" s="5"/>
       <c r="F329" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G329" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
@@ -11325,19 +11195,19 @@
         <v>9</v>
       </c>
       <c r="B330" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D330" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E330" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="F330" t="s">
         <v>0</v>
       </c>
       <c r="G330" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -11345,19 +11215,19 @@
         <v>8</v>
       </c>
       <c r="B331" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D331" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E331" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="F331" t="s">
         <v>0</v>
       </c>
       <c r="G331" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -11365,19 +11235,19 @@
         <v>9</v>
       </c>
       <c r="B332" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D332" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="E332" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F332" t="s">
         <v>0</v>
       </c>
       <c r="G332" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
@@ -11385,19 +11255,19 @@
         <v>8</v>
       </c>
       <c r="B333" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D333" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E333" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="F333" t="s">
         <v>0</v>
       </c>
       <c r="G333" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
@@ -11405,19 +11275,19 @@
         <v>8</v>
       </c>
       <c r="B334" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D334" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E334" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F334" t="s">
         <v>0</v>
       </c>
       <c r="G334" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
@@ -11425,39 +11295,39 @@
         <v>8</v>
       </c>
       <c r="B335" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D335" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E335" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="F335" t="s">
         <v>0</v>
       </c>
       <c r="G335" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B336" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="D336" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="E336" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="F336" t="s">
         <v>0</v>
       </c>
       <c r="G336" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -11465,19 +11335,19 @@
         <v>10</v>
       </c>
       <c r="B337" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D337" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="E337" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="F337" t="s">
         <v>0</v>
       </c>
       <c r="G337" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
@@ -11485,19 +11355,19 @@
         <v>8</v>
       </c>
       <c r="B338" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D338" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E338" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F338" t="s">
         <v>0</v>
       </c>
       <c r="G338" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
@@ -11505,19 +11375,19 @@
         <v>9</v>
       </c>
       <c r="B339" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D339" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E339" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="F339" t="s">
         <v>0</v>
       </c>
       <c r="G339" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
@@ -11525,19 +11395,19 @@
         <v>8</v>
       </c>
       <c r="B340" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D340" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E340" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="F340" t="s">
         <v>0</v>
       </c>
       <c r="G340" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
@@ -11545,19 +11415,19 @@
         <v>8</v>
       </c>
       <c r="B341" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D341" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E341" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="F341" t="s">
         <v>0</v>
       </c>
       <c r="G341" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
@@ -11565,19 +11435,19 @@
         <v>8</v>
       </c>
       <c r="B342" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D342" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E342" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F342" t="s">
         <v>0</v>
       </c>
       <c r="G342" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
@@ -11585,19 +11455,19 @@
         <v>8</v>
       </c>
       <c r="B343" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D343" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E343" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="F343" t="s">
         <v>0</v>
       </c>
       <c r="G343" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
@@ -11605,19 +11475,19 @@
         <v>8</v>
       </c>
       <c r="B344" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D344" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E344" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="F344" t="s">
         <v>0</v>
       </c>
       <c r="G344" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -11625,19 +11495,19 @@
         <v>8</v>
       </c>
       <c r="B345" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D345" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E345" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="F345" t="s">
         <v>0</v>
       </c>
       <c r="G345" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
@@ -11645,19 +11515,19 @@
         <v>8</v>
       </c>
       <c r="B346" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D346" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="E346" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="F346" t="s">
         <v>0</v>
       </c>
       <c r="G346" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
@@ -11665,19 +11535,19 @@
         <v>9</v>
       </c>
       <c r="B347" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D347" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E347" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="F347" t="s">
         <v>0</v>
       </c>
       <c r="G347" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
@@ -11685,19 +11555,19 @@
         <v>11</v>
       </c>
       <c r="B348" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D348" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E348" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="F348" t="s">
         <v>0</v>
       </c>
       <c r="G348" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
@@ -11705,19 +11575,19 @@
         <v>8</v>
       </c>
       <c r="B349" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D349" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E349" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="F349" t="s">
         <v>0</v>
       </c>
       <c r="G349" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
@@ -11725,19 +11595,19 @@
         <v>11</v>
       </c>
       <c r="B350" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D350" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E350" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="F350" t="s">
         <v>0</v>
       </c>
       <c r="G350" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -11745,19 +11615,19 @@
         <v>11</v>
       </c>
       <c r="B351" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D351" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E351" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="F351" t="s">
         <v>0</v>
       </c>
       <c r="G351" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
@@ -11765,40 +11635,40 @@
         <v>11</v>
       </c>
       <c r="B352" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D352" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E352" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F352" t="s">
         <v>0</v>
       </c>
       <c r="G352" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="8" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="C353" s="8"/>
       <c r="D353" s="8" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="E353" s="8" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="F353" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G353" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
@@ -11806,19 +11676,19 @@
         <v>11</v>
       </c>
       <c r="B354" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D354" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E354" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="F354" t="s">
         <v>0</v>
       </c>
       <c r="G354" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
@@ -11826,19 +11696,19 @@
         <v>11</v>
       </c>
       <c r="B355" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D355" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E355" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F355" t="s">
         <v>0</v>
       </c>
       <c r="G355" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
@@ -11846,19 +11716,19 @@
         <v>11</v>
       </c>
       <c r="B356" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D356" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E356" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="F356" t="s">
         <v>0</v>
       </c>
       <c r="G356" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -11866,19 +11736,19 @@
         <v>11</v>
       </c>
       <c r="B357" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D357" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E357" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="F357" t="s">
         <v>0</v>
       </c>
       <c r="G357" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
@@ -11886,19 +11756,19 @@
         <v>11</v>
       </c>
       <c r="B358" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D358" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E358" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F358" t="s">
         <v>0</v>
       </c>
       <c r="G358" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
@@ -11906,19 +11776,19 @@
         <v>11</v>
       </c>
       <c r="B359" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D359" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E359" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="F359" t="s">
         <v>0</v>
       </c>
       <c r="G359" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
@@ -11926,19 +11796,19 @@
         <v>11</v>
       </c>
       <c r="B360" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D360" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E360" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="F360" t="s">
         <v>0</v>
       </c>
       <c r="G360" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
@@ -11946,19 +11816,19 @@
         <v>11</v>
       </c>
       <c r="B361" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D361" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E361" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="F361" t="s">
         <v>0</v>
       </c>
       <c r="G361" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
@@ -11966,40 +11836,40 @@
         <v>11</v>
       </c>
       <c r="B362" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D362" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E362" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="F362" t="s">
         <v>0</v>
       </c>
       <c r="G362" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C363" s="5"/>
       <c r="D363" s="5" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="E363" s="5" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="F363" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G363" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
@@ -12007,40 +11877,40 @@
         <v>11</v>
       </c>
       <c r="B364" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D364" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E364" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="F364" t="s">
         <v>0</v>
       </c>
       <c r="G364" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="8" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="C365" s="8"/>
       <c r="D365" s="8" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="E365" s="8" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="F365" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G365" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
@@ -12048,19 +11918,19 @@
         <v>11</v>
       </c>
       <c r="B366" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="D366" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E366" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="F366" t="s">
         <v>0</v>
       </c>
       <c r="G366" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -12068,19 +11938,19 @@
         <v>11</v>
       </c>
       <c r="B367" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D367" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E367" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="F367" t="s">
         <v>0</v>
       </c>
       <c r="G367" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
@@ -12088,19 +11958,19 @@
         <v>11</v>
       </c>
       <c r="B368" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D368" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="E368" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="F368" t="s">
         <v>0</v>
       </c>
       <c r="G368" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
@@ -12108,19 +11978,19 @@
         <v>11</v>
       </c>
       <c r="B369" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D369" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E369" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="F369" t="s">
         <v>0</v>
       </c>
       <c r="G369" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
@@ -12128,19 +11998,19 @@
         <v>11</v>
       </c>
       <c r="B370" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D370" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="E370" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="F370" t="s">
         <v>0</v>
       </c>
       <c r="G370" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
@@ -12148,38 +12018,38 @@
         <v>11</v>
       </c>
       <c r="B371" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D371" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="E371" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="F371" t="s">
         <v>0</v>
       </c>
       <c r="G371" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="C372" s="5"/>
       <c r="D372" s="5" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="E372" s="5"/>
       <c r="F372" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G372" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
@@ -12187,19 +12057,19 @@
         <v>11</v>
       </c>
       <c r="B373" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="D373" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="E373" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F373" t="s">
         <v>0</v>
       </c>
       <c r="G373" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
@@ -12207,19 +12077,19 @@
         <v>11</v>
       </c>
       <c r="B374" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D374" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="E374" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="F374" t="s">
         <v>0</v>
       </c>
       <c r="G374" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
@@ -12227,19 +12097,19 @@
         <v>11</v>
       </c>
       <c r="B375" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D375" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="E375" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="F375" t="s">
         <v>0</v>
       </c>
       <c r="G375" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
@@ -12247,19 +12117,19 @@
         <v>11</v>
       </c>
       <c r="B376" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D376" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E376" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="F376" t="s">
         <v>0</v>
       </c>
       <c r="G376" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
@@ -12267,19 +12137,19 @@
         <v>11</v>
       </c>
       <c r="B377" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="D377" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="E377" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="F377" t="s">
         <v>0</v>
       </c>
       <c r="G377" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
@@ -12287,19 +12157,19 @@
         <v>11</v>
       </c>
       <c r="B378" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="D378" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E378" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="F378" t="s">
         <v>0</v>
       </c>
       <c r="G378" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
@@ -12307,19 +12177,19 @@
         <v>10</v>
       </c>
       <c r="B379" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D379" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E379" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="F379" t="s">
         <v>0</v>
       </c>
       <c r="G379" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
@@ -12327,19 +12197,19 @@
         <v>8</v>
       </c>
       <c r="B380" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D380" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E380" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="F380" t="s">
         <v>0</v>
       </c>
       <c r="G380" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
@@ -12347,19 +12217,19 @@
         <v>8</v>
       </c>
       <c r="B381" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="D381" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E381" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="F381" t="s">
         <v>0</v>
       </c>
       <c r="G381" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
@@ -12367,19 +12237,19 @@
         <v>10</v>
       </c>
       <c r="B382" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="D382" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E382" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F382" t="s">
         <v>0</v>
       </c>
       <c r="G382" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
@@ -12387,19 +12257,19 @@
         <v>8</v>
       </c>
       <c r="B383" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="D383" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="E383" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F383" t="s">
         <v>0</v>
       </c>
       <c r="G383" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
@@ -12407,19 +12277,19 @@
         <v>8</v>
       </c>
       <c r="B384" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="D384" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="E384" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="F384" t="s">
         <v>0</v>
       </c>
       <c r="G384" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
@@ -12427,19 +12297,19 @@
         <v>8</v>
       </c>
       <c r="B385" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="D385" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="E385" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F385" t="s">
         <v>0</v>
       </c>
       <c r="G385" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
@@ -12447,19 +12317,19 @@
         <v>8</v>
       </c>
       <c r="B386" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="D386" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="E386" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="F386" t="s">
         <v>0</v>
       </c>
       <c r="G386" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
@@ -12467,19 +12337,19 @@
         <v>9</v>
       </c>
       <c r="B387" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="D387" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E387" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F387" t="s">
         <v>0</v>
       </c>
       <c r="G387" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
@@ -12487,19 +12357,19 @@
         <v>8</v>
       </c>
       <c r="B388" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="D388" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E388" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="F388" t="s">
         <v>0</v>
       </c>
       <c r="G388" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
@@ -12507,19 +12377,19 @@
         <v>8</v>
       </c>
       <c r="B389" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D389" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E389" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="F389" t="s">
         <v>0</v>
       </c>
       <c r="G389" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
@@ -12527,19 +12397,19 @@
         <v>8</v>
       </c>
       <c r="B390" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D390" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="E390" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F390" t="s">
         <v>0</v>
       </c>
       <c r="G390" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
@@ -12547,19 +12417,19 @@
         <v>8</v>
       </c>
       <c r="B391" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="D391" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="E391" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="F391" t="s">
         <v>0</v>
       </c>
       <c r="G391" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
@@ -12567,19 +12437,19 @@
         <v>8</v>
       </c>
       <c r="B392" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D392" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E392" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="F392" t="s">
         <v>0</v>
       </c>
       <c r="G392" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
@@ -12587,19 +12457,19 @@
         <v>8</v>
       </c>
       <c r="B393" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="D393" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E393" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="F393" t="s">
         <v>0</v>
       </c>
       <c r="G393" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
@@ -12607,19 +12477,19 @@
         <v>8</v>
       </c>
       <c r="B394" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="D394" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E394" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="F394" t="s">
         <v>0</v>
       </c>
       <c r="G394" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
@@ -12627,19 +12497,19 @@
         <v>8</v>
       </c>
       <c r="B395" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D395" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E395" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F395" t="s">
         <v>0</v>
       </c>
       <c r="G395" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
@@ -12647,19 +12517,19 @@
         <v>8</v>
       </c>
       <c r="B396" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D396" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="E396" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="F396" t="s">
         <v>0</v>
       </c>
       <c r="G396" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
@@ -12667,19 +12537,19 @@
         <v>9</v>
       </c>
       <c r="B397" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D397" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E397" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="F397" t="s">
         <v>0</v>
       </c>
       <c r="G397" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
@@ -12687,19 +12557,19 @@
         <v>8</v>
       </c>
       <c r="B398" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="D398" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E398" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="F398" t="s">
         <v>0</v>
       </c>
       <c r="G398" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
@@ -12707,19 +12577,19 @@
         <v>9</v>
       </c>
       <c r="B399" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D399" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E399" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="F399" t="s">
         <v>0</v>
       </c>
       <c r="G399" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
@@ -12727,19 +12597,19 @@
         <v>8</v>
       </c>
       <c r="B400" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D400" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E400" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="F400" t="s">
         <v>0</v>
       </c>
       <c r="G400" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
@@ -12747,19 +12617,19 @@
         <v>9</v>
       </c>
       <c r="B401" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D401" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E401" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="F401" t="s">
         <v>0</v>
       </c>
       <c r="G401" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
@@ -12767,19 +12637,19 @@
         <v>8</v>
       </c>
       <c r="B402" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="D402" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E402" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="F402" t="s">
         <v>0</v>
       </c>
       <c r="G402" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
@@ -12787,19 +12657,19 @@
         <v>8</v>
       </c>
       <c r="B403" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D403" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E403" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="F403" t="s">
         <v>0</v>
       </c>
       <c r="G403" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
@@ -12807,19 +12677,19 @@
         <v>8</v>
       </c>
       <c r="B404" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="D404" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="E404" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="F404" t="s">
         <v>0</v>
       </c>
       <c r="G404" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
@@ -12827,19 +12697,19 @@
         <v>8</v>
       </c>
       <c r="B405" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="D405" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E405" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F405" t="s">
         <v>0</v>
       </c>
       <c r="G405" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
@@ -12847,19 +12717,19 @@
         <v>8</v>
       </c>
       <c r="B406" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="D406" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E406" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="F406" t="s">
         <v>0</v>
       </c>
       <c r="G406" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
@@ -12867,19 +12737,19 @@
         <v>8</v>
       </c>
       <c r="B407" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D407" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E407" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="F407" t="s">
         <v>0</v>
       </c>
       <c r="G407" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
@@ -12887,19 +12757,19 @@
         <v>8</v>
       </c>
       <c r="B408" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="D408" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="E408" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="F408" t="s">
         <v>0</v>
       </c>
       <c r="G408" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
@@ -12907,19 +12777,19 @@
         <v>9</v>
       </c>
       <c r="B409" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D409" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E409" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="F409" t="s">
         <v>0</v>
       </c>
       <c r="G409" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
@@ -12927,19 +12797,19 @@
         <v>9</v>
       </c>
       <c r="B410" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="D410" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="E410" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="F410" t="s">
         <v>0</v>
       </c>
       <c r="G410" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
@@ -12947,39 +12817,39 @@
         <v>8</v>
       </c>
       <c r="B411" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D411" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="E411" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="F411" t="s">
         <v>0</v>
       </c>
       <c r="G411" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="B412" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="D412" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="E412" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="F412" t="s">
         <v>0</v>
       </c>
       <c r="G412" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -12987,19 +12857,19 @@
         <v>11</v>
       </c>
       <c r="B413" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D413" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="E413" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="F413" t="s">
         <v>0</v>
       </c>
       <c r="G413" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
@@ -13007,19 +12877,19 @@
         <v>11</v>
       </c>
       <c r="B414" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D414" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E414" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="F414" t="s">
         <v>0</v>
       </c>
       <c r="G414" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -13027,20 +12897,20 @@
         <v>10</v>
       </c>
       <c r="B415" s="9" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C415" s="9"/>
       <c r="D415" s="9" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="E415" s="9" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F415" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G415" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
@@ -13048,20 +12918,20 @@
         <v>8</v>
       </c>
       <c r="B416" s="9" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C416" s="9"/>
       <c r="D416" s="9" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E416" s="9" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="F416" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G416" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
@@ -13069,20 +12939,20 @@
         <v>8</v>
       </c>
       <c r="B417" s="9" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="C417" s="9"/>
       <c r="D417" s="9" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="E417" s="9" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="F417" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G417" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
@@ -13090,20 +12960,20 @@
         <v>10</v>
       </c>
       <c r="B418" s="9" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="C418" s="9"/>
       <c r="D418" s="9" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="E418" s="9" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="F418" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G418" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
@@ -13111,20 +12981,20 @@
         <v>9</v>
       </c>
       <c r="B419" s="9" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C419" s="9"/>
       <c r="D419" s="9" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="E419" s="9" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="F419" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G419" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -13132,20 +13002,20 @@
         <v>8</v>
       </c>
       <c r="B420" s="9" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C420" s="9"/>
       <c r="D420" s="9" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="E420" s="9" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="F420" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G420" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
@@ -13153,20 +13023,20 @@
         <v>8</v>
       </c>
       <c r="B421" s="9" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C421" s="9"/>
       <c r="D421" s="9" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="E421" s="9" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="F421" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G421" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
@@ -13174,20 +13044,20 @@
         <v>9</v>
       </c>
       <c r="B422" s="9" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C422" s="9"/>
       <c r="D422" s="9" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="E422" s="9" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="F422" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G422" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
@@ -13195,20 +13065,20 @@
         <v>8</v>
       </c>
       <c r="B423" s="9" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="C423" s="9"/>
       <c r="D423" s="9" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="E423" s="9" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F423" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G423" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
@@ -13216,20 +13086,20 @@
         <v>9</v>
       </c>
       <c r="B424" s="9" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C424" s="9"/>
       <c r="D424" s="9" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="E424" s="9" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="F424" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G424" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -13237,20 +13107,20 @@
         <v>9</v>
       </c>
       <c r="B425" s="9" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C425" s="9"/>
       <c r="D425" s="9" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="E425" s="9" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="F425" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G425" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
@@ -13258,39 +13128,39 @@
         <v>8</v>
       </c>
       <c r="B426" s="9" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C426" s="9"/>
       <c r="D426" s="9" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E426" s="9" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="F426" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G426" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="C427" s="3"/>
       <c r="D427" s="3" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="E427" s="3"/>
       <c r="F427" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G427" s="4" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
@@ -13298,20 +13168,20 @@
         <v>8</v>
       </c>
       <c r="B428" s="9" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C428" s="9"/>
       <c r="D428" s="9" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E428" s="9" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="F428" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G428" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
@@ -13319,20 +13189,20 @@
         <v>8</v>
       </c>
       <c r="B429" s="9" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C429" s="9"/>
       <c r="D429" s="9" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="E429" s="9" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="F429" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G429" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
@@ -13340,20 +13210,20 @@
         <v>9</v>
       </c>
       <c r="B430" s="9" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="C430" s="9"/>
       <c r="D430" s="9" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E430" s="9" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F430" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G430" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
@@ -13361,20 +13231,20 @@
         <v>8</v>
       </c>
       <c r="B431" s="9" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C431" s="9"/>
       <c r="D431" s="9" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E431" s="9" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F431" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G431" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -13382,20 +13252,20 @@
         <v>8</v>
       </c>
       <c r="B432" s="9" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="C432" s="9"/>
       <c r="D432" s="9" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E432" s="9" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="F432" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G432" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
@@ -13403,20 +13273,20 @@
         <v>8</v>
       </c>
       <c r="B433" s="9" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C433" s="9"/>
       <c r="D433" s="9" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E433" s="9" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="F433" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G433" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
@@ -13424,20 +13294,20 @@
         <v>8</v>
       </c>
       <c r="B434" s="9" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="C434" s="9"/>
       <c r="D434" s="9" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="E434" s="9" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="F434" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G434" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
@@ -13445,20 +13315,20 @@
         <v>10</v>
       </c>
       <c r="B435" s="9" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="C435" s="9"/>
       <c r="D435" s="9" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="E435" s="9" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="F435" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G435" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
@@ -13466,20 +13336,20 @@
         <v>8</v>
       </c>
       <c r="B436" s="9" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="C436" s="9"/>
       <c r="D436" s="9" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="E436" s="9" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="F436" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G436" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
@@ -13487,20 +13357,20 @@
         <v>8</v>
       </c>
       <c r="B437" s="9" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="C437" s="9"/>
       <c r="D437" s="9" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="E437" s="9" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="F437" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G437" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
@@ -13508,20 +13378,20 @@
         <v>8</v>
       </c>
       <c r="B438" s="9" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="C438" s="9"/>
       <c r="D438" s="9" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="E438" s="9" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="F438" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G438" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
@@ -13529,20 +13399,20 @@
         <v>8</v>
       </c>
       <c r="B439" s="9" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="C439" s="9"/>
       <c r="D439" s="9" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="E439" s="9" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="F439" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G439" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
@@ -13550,20 +13420,20 @@
         <v>8</v>
       </c>
       <c r="B440" s="9" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="C440" s="9"/>
       <c r="D440" s="9" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="E440" s="9" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="F440" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G440" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
@@ -13571,20 +13441,20 @@
         <v>8</v>
       </c>
       <c r="B441" s="9" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C441" s="9"/>
       <c r="D441" s="9" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="E441" s="9" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="F441" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G441" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
@@ -13592,20 +13462,20 @@
         <v>8</v>
       </c>
       <c r="B442" s="9" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="C442" s="9"/>
       <c r="D442" s="9" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="E442" s="9" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="F442" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G442" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
@@ -13613,20 +13483,20 @@
         <v>8</v>
       </c>
       <c r="B443" s="9" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C443" s="9"/>
       <c r="D443" s="9" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="E443" s="9" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="F443" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G443" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
@@ -13634,41 +13504,41 @@
         <v>8</v>
       </c>
       <c r="B444" s="9" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="C444" s="9"/>
       <c r="D444" s="9" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E444" s="9" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="F444" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G444" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="6" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="B445" s="9" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="C445" s="9"/>
       <c r="D445" s="9" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="E445" s="9" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="F445" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G445" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
@@ -13676,43 +13546,43 @@
         <v>8</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="C446" s="10"/>
       <c r="D446" s="10" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="E446" s="10" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="F446" s="10" t="s">
         <v>0</v>
       </c>
       <c r="G446" s="12" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B414">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D414">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D446">
-    <cfRule type="duplicateValues" dxfId="7" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B415:B446">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D415:D446">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
